--- a/legendre_out/DATA/p1/p1IntegrandSplinePoints0.300000.xlsx
+++ b/legendre_out/DATA/p1/p1IntegrandSplinePoints0.300000.xlsx
@@ -386,7 +386,7 @@
         <v>3.754973317072596</v>
       </c>
       <c r="C2" t="n">
-        <v>4.656009079597463e-67</v>
+        <v>2.446101026412979e-67</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         <v>3.755890524555461</v>
       </c>
       <c r="C3" t="n">
-        <v>4.52586809447906e-67</v>
+        <v>2.393976351013481e-67</v>
       </c>
     </row>
     <row r="4">
@@ -408,7 +408,7 @@
         <v>3.756807732038326</v>
       </c>
       <c r="C4" t="n">
-        <v>4.40112149693591e-67</v>
+        <v>2.344318568069946e-67</v>
       </c>
     </row>
     <row r="5">
@@ -419,7 +419,7 @@
         <v>3.757724939521191</v>
       </c>
       <c r="C5" t="n">
-        <v>4.28164952522625e-67</v>
+        <v>2.297084127604899e-67</v>
       </c>
     </row>
     <row r="6">
@@ -430,7 +430,7 @@
         <v>3.758642147004056</v>
       </c>
       <c r="C6" t="n">
-        <v>4.167332417608316e-67</v>
+        <v>2.252229479640866e-67</v>
       </c>
     </row>
     <row r="7">
@@ -441,7 +441,7 @@
         <v>3.759559354486921</v>
       </c>
       <c r="C7" t="n">
-        <v>4.058050412340343e-67</v>
+        <v>2.209711074200368e-67</v>
       </c>
     </row>
     <row r="8">
@@ -452,7 +452,7 @@
         <v>3.760476561969786</v>
       </c>
       <c r="C8" t="n">
-        <v>3.953683747680571e-67</v>
+        <v>2.169485361305934e-67</v>
       </c>
     </row>
     <row r="9">
@@ -463,7 +463,7 @@
         <v>3.761393769452651</v>
       </c>
       <c r="C9" t="n">
-        <v>3.854112661887234e-67</v>
+        <v>2.131508790980085e-67</v>
       </c>
     </row>
     <row r="10">
@@ -474,7 +474,7 @@
         <v>3.762310976935516</v>
       </c>
       <c r="C10" t="n">
-        <v>3.759217393218568e-67</v>
+        <v>2.095737813245345e-67</v>
       </c>
     </row>
     <row r="11">
@@ -485,7 +485,7 @@
         <v>3.763228184418381</v>
       </c>
       <c r="C11" t="n">
-        <v>3.668878179932811e-67</v>
+        <v>2.062128878124242e-67</v>
       </c>
     </row>
     <row r="12">
@@ -496,7 +496,7 @@
         <v>3.764145391901245</v>
       </c>
       <c r="C12" t="n">
-        <v>3.58297526028824e-67</v>
+        <v>2.030638435639312e-67</v>
       </c>
     </row>
     <row r="13">
@@ -507,7 +507,7 @@
         <v>3.76506259938411</v>
       </c>
       <c r="C13" t="n">
-        <v>3.501388872543009e-67</v>
+        <v>2.001222935813051e-67</v>
       </c>
     </row>
     <row r="14">
@@ -518,7 +518,7 @@
         <v>3.765979806866975</v>
       </c>
       <c r="C14" t="n">
-        <v>3.423999254955395e-67</v>
+        <v>1.973838828667997e-67</v>
       </c>
     </row>
     <row r="15">
@@ -529,7 +529,7 @@
         <v>3.76689701434984</v>
       </c>
       <c r="C15" t="n">
-        <v>3.350686645783636e-67</v>
+        <v>1.948442564226677e-67</v>
       </c>
     </row>
     <row r="16">
@@ -540,7 +540,7 @@
         <v>3.767814221832705</v>
       </c>
       <c r="C16" t="n">
-        <v>3.281331283285967e-67</v>
+        <v>1.924990592511613e-67</v>
       </c>
     </row>
     <row r="17">
@@ -551,7 +551,7 @@
         <v>3.76873142931557</v>
       </c>
       <c r="C17" t="n">
-        <v>3.215813405720627e-67</v>
+        <v>1.903439363545331e-67</v>
       </c>
     </row>
     <row r="18">
@@ -562,7 +562,7 @@
         <v>3.769648636798435</v>
       </c>
       <c r="C18" t="n">
-        <v>3.154013251345851e-67</v>
+        <v>1.883745327350355e-67</v>
       </c>
     </row>
     <row r="19">
@@ -573,7 +573,7 @@
         <v>3.7705658442813</v>
       </c>
       <c r="C19" t="n">
-        <v>3.095811058419875e-67</v>
+        <v>1.865864933949209e-67</v>
       </c>
     </row>
     <row r="20">
@@ -584,7 +584,7 @@
         <v>3.771483051764165</v>
       </c>
       <c r="C20" t="n">
-        <v>3.041087065200936e-67</v>
+        <v>1.849754633364418e-67</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>3.77240025924703</v>
       </c>
       <c r="C21" t="n">
-        <v>2.989721509947272e-67</v>
+        <v>1.835370875618507e-67</v>
       </c>
     </row>
     <row r="22">
@@ -606,7 +606,7 @@
         <v>3.773317466729895</v>
       </c>
       <c r="C22" t="n">
-        <v>2.941594630917117e-67</v>
+        <v>1.822670110734e-67</v>
       </c>
     </row>
     <row r="23">
@@ -617,7 +617,7 @@
         <v>3.77423467421276</v>
       </c>
       <c r="C23" t="n">
-        <v>2.896586666368708e-67</v>
+        <v>1.81160878873342e-67</v>
       </c>
     </row>
     <row r="24">
@@ -628,7 +628,7 @@
         <v>3.775151881695625</v>
       </c>
       <c r="C24" t="n">
-        <v>2.854577854560284e-67</v>
+        <v>1.802143359639294e-67</v>
       </c>
     </row>
     <row r="25">
@@ -639,7 +639,7 @@
         <v>3.77606908917849</v>
       </c>
       <c r="C25" t="n">
-        <v>2.815448433750078e-67</v>
+        <v>1.794230273474144e-67</v>
       </c>
     </row>
     <row r="26">
@@ -650,7 +650,7 @@
         <v>3.776986296661355</v>
       </c>
       <c r="C26" t="n">
-        <v>2.77907864219633e-67</v>
+        <v>1.787825980260496e-67</v>
       </c>
     </row>
     <row r="27">
@@ -661,7 +661,7 @@
         <v>3.777903504144219</v>
       </c>
       <c r="C27" t="n">
-        <v>2.745348718157273e-67</v>
+        <v>1.782886930020874e-67</v>
       </c>
     </row>
     <row r="28">
@@ -672,7 +672,7 @@
         <v>3.778820711627084</v>
       </c>
       <c r="C28" t="n">
-        <v>2.714138899891146e-67</v>
+        <v>1.779369572777802e-67</v>
       </c>
     </row>
     <row r="29">
@@ -683,7 +683,7 @@
         <v>3.779737919109949</v>
       </c>
       <c r="C29" t="n">
-        <v>2.685329425656184e-67</v>
+        <v>1.777230358553805e-67</v>
       </c>
     </row>
     <row r="30">
@@ -694,7 +694,7 @@
         <v>3.780655126592814</v>
       </c>
       <c r="C30" t="n">
-        <v>2.658800533710636e-67</v>
+        <v>1.776425737371408e-67</v>
       </c>
     </row>
     <row r="31">
@@ -705,7 +705,7 @@
         <v>3.781572334075679</v>
       </c>
       <c r="C31" t="n">
-        <v>2.634432462312715e-67</v>
+        <v>1.776912159253133e-67</v>
       </c>
     </row>
     <row r="32">
@@ -716,7 +716,7 @@
         <v>3.782489541558544</v>
       </c>
       <c r="C32" t="n">
-        <v>2.612105449720669e-67</v>
+        <v>1.778646074221507e-67</v>
       </c>
     </row>
     <row r="33">
@@ -727,7 +727,7 @@
         <v>3.783406749041409</v>
       </c>
       <c r="C33" t="n">
-        <v>2.591699734192734e-67</v>
+        <v>1.781583932299053e-67</v>
       </c>
     </row>
     <row r="34">
@@ -738,7 +738,7 @@
         <v>3.784323956524274</v>
       </c>
       <c r="C34" t="n">
-        <v>2.573095553987147e-67</v>
+        <v>1.785682183508297e-67</v>
       </c>
     </row>
     <row r="35">
@@ -749,7 +749,7 @@
         <v>3.785241164007139</v>
       </c>
       <c r="C35" t="n">
-        <v>2.556173147362145e-67</v>
+        <v>1.790897277871762e-67</v>
       </c>
     </row>
     <row r="36">
@@ -760,7 +760,7 @@
         <v>3.786158371490004</v>
       </c>
       <c r="C36" t="n">
-        <v>2.540812752575964e-67</v>
+        <v>1.797185665411972e-67</v>
       </c>
     </row>
     <row r="37">
@@ -771,7 +771,7 @@
         <v>3.787075578972869</v>
       </c>
       <c r="C37" t="n">
-        <v>2.526894607886842e-67</v>
+        <v>1.804503796151454e-67</v>
       </c>
     </row>
     <row r="38">
@@ -782,7 +782,7 @@
         <v>3.787992786455733</v>
       </c>
       <c r="C38" t="n">
-        <v>2.514298951553014e-67</v>
+        <v>1.81280812011273e-67</v>
       </c>
     </row>
     <row r="39">
@@ -793,7 +793,7 @@
         <v>3.788909993938598</v>
       </c>
       <c r="C39" t="n">
-        <v>2.502906021832715e-67</v>
+        <v>1.822055087318325e-67</v>
       </c>
     </row>
     <row r="40">
@@ -804,7 +804,7 @@
         <v>3.789827201421463</v>
       </c>
       <c r="C40" t="n">
-        <v>2.492596056984185e-67</v>
+        <v>1.832201147790765e-67</v>
       </c>
     </row>
     <row r="41">
@@ -815,7 +815,7 @@
         <v>3.790744408904328</v>
       </c>
       <c r="C41" t="n">
-        <v>2.483249295265658e-67</v>
+        <v>1.843202751552572e-67</v>
       </c>
     </row>
     <row r="42">
@@ -826,7 +826,7 @@
         <v>3.791661616387193</v>
       </c>
       <c r="C42" t="n">
-        <v>2.474745974935372e-67</v>
+        <v>1.855016348626272e-67</v>
       </c>
     </row>
     <row r="43">
@@ -837,7 +837,7 @@
         <v>3.792578823870058</v>
       </c>
       <c r="C43" t="n">
-        <v>2.466966334251562e-67</v>
+        <v>1.867598389034389e-67</v>
       </c>
     </row>
     <row r="44">
@@ -848,7 +848,7 @@
         <v>3.793496031352923</v>
       </c>
       <c r="C44" t="n">
-        <v>2.459790611472466e-67</v>
+        <v>1.880905322799448e-67</v>
       </c>
     </row>
     <row r="45">
@@ -859,7 +859,7 @@
         <v>3.794413238835788</v>
       </c>
       <c r="C45" t="n">
-        <v>2.453099044856318e-67</v>
+        <v>1.894893599943971e-67</v>
       </c>
     </row>
     <row r="46">
@@ -870,7 +870,7 @@
         <v>3.795330446318653</v>
       </c>
       <c r="C46" t="n">
-        <v>2.446771872661358e-67</v>
+        <v>1.909519670490486e-67</v>
       </c>
     </row>
     <row r="47">
@@ -881,7 +881,7 @@
         <v>3.796247653801518</v>
       </c>
       <c r="C47" t="n">
-        <v>2.440689333145821e-67</v>
+        <v>1.924739984461516e-67</v>
       </c>
     </row>
     <row r="48">
@@ -892,7 +892,7 @@
         <v>3.797164861284383</v>
       </c>
       <c r="C48" t="n">
-        <v>2.434731664567942e-67</v>
+        <v>1.940510991879584e-67</v>
       </c>
     </row>
     <row r="49">
@@ -903,7 +903,7 @@
         <v>3.798082068767247</v>
       </c>
       <c r="C49" t="n">
-        <v>2.428780370934192e-67</v>
+        <v>1.956790103716529e-67</v>
       </c>
     </row>
     <row r="50">
@@ -914,7 +914,7 @@
         <v>3.798999276250112</v>
       </c>
       <c r="C50" t="n">
-        <v>2.423025385111582e-67</v>
+        <v>1.973768888493978e-67</v>
       </c>
     </row>
     <row r="51">
@@ -925,7 +925,7 @@
         <v>3.799916483732977</v>
       </c>
       <c r="C51" t="n">
-        <v>2.418365600496053e-67</v>
+        <v>1.992177153794677e-67</v>
       </c>
     </row>
     <row r="52">
@@ -936,7 +936,7 @@
         <v>3.800833691215842</v>
       </c>
       <c r="C52" t="n">
-        <v>2.415799148628018e-67</v>
+        <v>2.012820048272616e-67</v>
       </c>
     </row>
     <row r="53">
@@ -947,7 +947,7 @@
         <v>3.801750898698707</v>
       </c>
       <c r="C53" t="n">
-        <v>2.416324161047892e-67</v>
+        <v>2.036502720581785e-67</v>
       </c>
     </row>
     <row r="54">
@@ -958,7 +958,7 @@
         <v>3.802668106181572</v>
       </c>
       <c r="C54" t="n">
-        <v>2.420938769296088e-67</v>
+        <v>2.064030319376175e-67</v>
       </c>
     </row>
     <row r="55">
@@ -969,7 +969,7 @@
         <v>3.803585313664437</v>
       </c>
       <c r="C55" t="n">
-        <v>2.430641104913024e-67</v>
+        <v>2.096207993309776e-67</v>
       </c>
     </row>
     <row r="56">
@@ -980,7 +980,7 @@
         <v>3.804502521147302</v>
       </c>
       <c r="C56" t="n">
-        <v>2.446429299439112e-67</v>
+        <v>2.133840891036578e-67</v>
       </c>
     </row>
     <row r="57">
@@ -991,7 +991,7 @@
         <v>3.805419728630167</v>
       </c>
       <c r="C57" t="n">
-        <v>2.469301484414766e-67</v>
+        <v>2.177734161210572e-67</v>
       </c>
     </row>
     <row r="58">
@@ -1002,7 +1002,7 @@
         <v>3.806336936113032</v>
       </c>
       <c r="C58" t="n">
-        <v>2.500255791380401e-67</v>
+        <v>2.228692952485749e-67</v>
       </c>
     </row>
     <row r="59">
@@ -1013,7 +1013,7 @@
         <v>3.807254143595897</v>
       </c>
       <c r="C59" t="n">
-        <v>2.540290351876433e-67</v>
+        <v>2.287522413516097e-67</v>
       </c>
     </row>
     <row r="60">
@@ -1024,7 +1024,7 @@
         <v>3.808171351078762</v>
       </c>
       <c r="C60" t="n">
-        <v>2.590403297443274e-67</v>
+        <v>2.355027692955609e-67</v>
       </c>
     </row>
     <row r="61">
@@ -1035,7 +1035,7 @@
         <v>3.809088558561627</v>
       </c>
       <c r="C61" t="n">
-        <v>2.65159275962134e-67</v>
+        <v>2.432013939458274e-67</v>
       </c>
     </row>
     <row r="62">
@@ -1046,7 +1046,7 @@
         <v>3.810005766044492</v>
       </c>
       <c r="C62" t="n">
-        <v>2.724856869951045e-67</v>
+        <v>2.519286301678082e-67</v>
       </c>
     </row>
     <row r="63">
@@ -1057,7 +1057,7 @@
         <v>3.810922973527357</v>
       </c>
       <c r="C63" t="n">
-        <v>2.811193759972804e-67</v>
+        <v>2.617649928269024e-67</v>
       </c>
     </row>
     <row r="64">
@@ -1068,7 +1068,7 @@
         <v>3.811840181010222</v>
       </c>
       <c r="C64" t="n">
-        <v>2.911601561227031e-67</v>
+        <v>2.727909967885091e-67</v>
       </c>
     </row>
     <row r="65">
@@ -1079,7 +1079,7 @@
         <v>3.812757388493087</v>
       </c>
       <c r="C65" t="n">
-        <v>3.02707840525414e-67</v>
+        <v>2.850871569180271e-67</v>
       </c>
     </row>
     <row r="66">
@@ -1090,7 +1090,7 @@
         <v>3.813674595975951</v>
       </c>
       <c r="C66" t="n">
-        <v>3.158622423594546e-67</v>
+        <v>2.987339880808557e-67</v>
       </c>
     </row>
     <row r="67">
@@ -1101,7 +1101,7 @@
         <v>3.814591803458816</v>
       </c>
       <c r="C67" t="n">
-        <v>3.307231747788587e-67</v>
+        <v>3.138120051423862e-67</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         <v>3.815509010941681</v>
       </c>
       <c r="C68" t="n">
-        <v>3.473872893311255e-67</v>
+        <v>3.304020616412673e-67</v>
       </c>
     </row>
     <row r="69">
@@ -1123,7 +1123,7 @@
         <v>3.816426218424546</v>
       </c>
       <c r="C69" t="n">
-        <v>3.659173577200543e-67</v>
+        <v>3.485886403457803e-67</v>
       </c>
     </row>
     <row r="70">
@@ -1134,7 +1134,7 @@
         <v>3.817343425907411</v>
       </c>
       <c r="C70" t="n">
-        <v>3.863555851737322e-67</v>
+        <v>3.684584271177178e-67</v>
       </c>
     </row>
     <row r="71">
@@ -1145,7 +1145,7 @@
         <v>3.818260633390276</v>
       </c>
       <c r="C71" t="n">
-        <v>4.087438877622432e-67</v>
+        <v>3.900981387936555e-67</v>
       </c>
     </row>
     <row r="72">
@@ -1156,7 +1156,7 @@
         <v>3.819177840873141</v>
       </c>
       <c r="C72" t="n">
-        <v>4.331241815556715e-67</v>
+        <v>4.13594492210169e-67</v>
       </c>
     </row>
     <row r="73">
@@ -1167,7 +1167,7 @@
         <v>3.820095048356006</v>
       </c>
       <c r="C73" t="n">
-        <v>4.595383826241006e-67</v>
+        <v>4.390342042038339e-67</v>
       </c>
     </row>
     <row r="74">
@@ -1178,7 +1178,7 @@
         <v>3.821012255838871</v>
       </c>
       <c r="C74" t="n">
-        <v>4.880284070376149e-67</v>
+        <v>4.665039916112259e-67</v>
       </c>
     </row>
     <row r="75">
@@ -1189,7 +1189,7 @@
         <v>3.821929463321736</v>
       </c>
       <c r="C75" t="n">
-        <v>5.186361708662982e-67</v>
+        <v>4.960905712689204e-67</v>
       </c>
     </row>
     <row r="76">
@@ -1200,7 +1200,7 @@
         <v>3.8228466708046</v>
       </c>
       <c r="C76" t="n">
-        <v>5.514035901802346e-67</v>
+        <v>5.278806600134931e-67</v>
       </c>
     </row>
     <row r="77">
@@ -1211,7 +1211,7 @@
         <v>3.823763878287465</v>
       </c>
       <c r="C77" t="n">
-        <v>5.863725810495082e-67</v>
+        <v>5.619609746815198e-67</v>
       </c>
     </row>
     <row r="78">
@@ -1222,7 +1222,7 @@
         <v>3.82468108577033</v>
       </c>
       <c r="C78" t="n">
-        <v>6.235850595442023e-67</v>
+        <v>5.984182321095756e-67</v>
       </c>
     </row>
     <row r="79">
@@ -1233,7 +1233,7 @@
         <v>3.825598293253195</v>
       </c>
       <c r="C79" t="n">
-        <v>6.630829417344018e-67</v>
+        <v>6.373391491342368e-67</v>
       </c>
     </row>
     <row r="80">
@@ -1244,7 +1244,7 @@
         <v>3.82651550073606</v>
       </c>
       <c r="C80" t="n">
-        <v>7.049081436901901e-67</v>
+        <v>6.788104425920785e-67</v>
       </c>
     </row>
     <row r="81">
@@ -1255,7 +1255,7 @@
         <v>3.827432708218925</v>
       </c>
       <c r="C81" t="n">
-        <v>7.491025814816512e-67</v>
+        <v>7.229188293196765e-67</v>
       </c>
     </row>
     <row r="82">
@@ -1266,7 +1266,7 @@
         <v>3.82834991570179</v>
       </c>
       <c r="C82" t="n">
-        <v>7.956535710569308e-67</v>
+        <v>7.69692219774126e-67</v>
       </c>
     </row>
     <row r="83">
@@ -1277,7 +1277,7 @@
         <v>3.829267123184655</v>
       </c>
       <c r="C83" t="n">
-        <v>8.439308401392494e-67</v>
+        <v>8.184933587273946e-67</v>
       </c>
     </row>
     <row r="84">
@@ -1288,7 +1288,7 @@
         <v>3.83018433066752</v>
       </c>
       <c r="C84" t="n">
-        <v>8.929136621752072e-67</v>
+        <v>8.682644570488622e-67</v>
       </c>
     </row>
     <row r="85">
@@ -1299,7 +1299,7 @@
         <v>3.831101538150385</v>
       </c>
       <c r="C85" t="n">
-        <v>9.415751527634773e-67</v>
+        <v>9.179410933746985e-67</v>
       </c>
     </row>
     <row r="86">
@@ -1310,7 +1310,7 @@
         <v>3.83201874563325</v>
       </c>
       <c r="C86" t="n">
-        <v>9.888884275027121e-67</v>
+        <v>9.66458846341052e-67</v>
       </c>
     </row>
     <row r="87">
@@ -1321,7 +1321,7 @@
         <v>3.832935953116114</v>
       </c>
       <c r="C87" t="n">
-        <v>1.03382660199163e-66</v>
+        <v>1.012753294584141e-66</v>
       </c>
     </row>
     <row r="88">
@@ -1332,7 +1332,7 @@
         <v>3.833853160598979</v>
       </c>
       <c r="C88" t="n">
-        <v>1.075362791828883e-66</v>
+        <v>1.055760016740111e-66</v>
       </c>
     </row>
     <row r="89">
@@ -1343,7 +1343,7 @@
         <v>3.834770368081844</v>
       </c>
       <c r="C89" t="n">
-        <v>1.112470112613143e-66</v>
+        <v>1.094414591445134e-66</v>
       </c>
     </row>
     <row r="90">
@@ -1354,7 +1354,7 @@
         <v>3.835687575564709</v>
       </c>
       <c r="C90" t="n">
-        <v>1.144121679943085e-66</v>
+        <v>1.127652597335379e-66</v>
       </c>
     </row>
     <row r="91">
@@ -1365,7 +1365,7 @@
         <v>3.836604783047574</v>
       </c>
       <c r="C91" t="n">
-        <v>1.169290609417382e-66</v>
+        <v>1.154409613047018e-66</v>
       </c>
     </row>
     <row r="92">
@@ -1376,7 +1376,7 @@
         <v>3.837521990530439</v>
       </c>
       <c r="C92" t="n">
-        <v>1.186950016634707e-66</v>
+        <v>1.173621217216221e-66</v>
       </c>
     </row>
     <row r="93">
@@ -1387,7 +1387,7 @@
         <v>3.838439198013304</v>
       </c>
       <c r="C93" t="n">
-        <v>1.196073017193735e-66</v>
+        <v>1.184222988479159e-66</v>
       </c>
     </row>
     <row r="94">
@@ -1398,7 +1398,7 @@
         <v>3.839356405496169</v>
       </c>
       <c r="C94" t="n">
-        <v>1.195632726693138e-66</v>
+        <v>1.185150505472002e-66</v>
       </c>
     </row>
     <row r="95">
@@ -1409,7 +1409,7 @@
         <v>3.840273612979034</v>
       </c>
       <c r="C95" t="n">
-        <v>1.184602260731591e-66</v>
+        <v>1.175339346830922e-66</v>
       </c>
     </row>
     <row r="96">
@@ -1420,7 +1420,7 @@
         <v>3.841190820461899</v>
       </c>
       <c r="C96" t="n">
-        <v>1.162068284439631e-66</v>
+        <v>1.153841310751949e-66</v>
       </c>
     </row>
     <row r="97">
@@ -1431,7 +1431,7 @@
         <v>3.842108027944764</v>
       </c>
       <c r="C97" t="n">
-        <v>1.128474437817881e-66</v>
+        <v>1.121097078498771e-66</v>
       </c>
     </row>
     <row r="98">
@@ -1442,7 +1442,7 @@
         <v>3.843025235427629</v>
       </c>
       <c r="C98" t="n">
-        <v>1.085157705023122e-66</v>
+        <v>1.078461681776943e-66</v>
       </c>
     </row>
     <row r="99">
@@ -1453,7 +1453,7 @@
         <v>3.843942442910494</v>
       </c>
       <c r="C99" t="n">
-        <v>1.033470783429978e-66</v>
+        <v>1.027306234993835e-66</v>
       </c>
     </row>
     <row r="100">
@@ -1464,7 +1464,7 @@
         <v>3.844859650393359</v>
       </c>
       <c r="C100" t="n">
-        <v>9.747663704130754e-67</v>
+        <v>9.690018525568158e-67</v>
       </c>
     </row>
     <row r="101">
@@ -1475,7 +1475,7 @@
         <v>3.845776857876224</v>
       </c>
       <c r="C101" t="n">
-        <v>9.103971633470377e-67</v>
+        <v>9.049196488732556e-67</v>
       </c>
     </row>
     <row r="102">
@@ -1486,7 +1486,7 @@
         <v>3.846694065359089</v>
       </c>
       <c r="C102" t="n">
-        <v>8.417158596064906e-67</v>
+        <v>8.364307383505235e-67</v>
       </c>
     </row>
     <row r="103">
@@ -1497,7 +1497,7 @@
         <v>3.847611272841954</v>
       </c>
       <c r="C103" t="n">
-        <v>7.700751565660592e-67</v>
+        <v>7.64906235395989e-67</v>
       </c>
     </row>
     <row r="104">
@@ -1508,7 +1508,7 @@
         <v>3.848528480324818</v>
       </c>
       <c r="C104" t="n">
-        <v>6.968277516004043e-67</v>
+        <v>6.917172544170574e-67</v>
       </c>
     </row>
     <row r="105">
@@ -1519,7 +1519,7 @@
         <v>3.849445687807683</v>
       </c>
       <c r="C105" t="n">
-        <v>6.233263420840792e-67</v>
+        <v>6.182349098210268e-67</v>
       </c>
     </row>
     <row r="106">
@@ -1530,7 +1530,7 @@
         <v>3.850362895290548</v>
       </c>
       <c r="C106" t="n">
-        <v>5.509236253917448e-67</v>
+        <v>5.458303160153019e-67</v>
       </c>
     </row>
     <row r="107">
@@ -1541,7 +1541,7 @@
         <v>3.851280102773413</v>
       </c>
       <c r="C107" t="n">
-        <v>4.809722988980257e-67</v>
+        <v>4.758745874072523e-67</v>
       </c>
     </row>
     <row r="108">
@@ -1552,7 +1552,7 @@
         <v>3.852197310256278</v>
       </c>
       <c r="C108" t="n">
-        <v>4.14825059977547e-67</v>
+        <v>4.097388384042473e-67</v>
       </c>
     </row>
     <row r="109">
@@ -1563,7 +1563,7 @@
         <v>3.853114517739143</v>
       </c>
       <c r="C109" t="n">
-        <v>3.538346060049342e-67</v>
+        <v>3.487941834136568e-67</v>
       </c>
     </row>
     <row r="110">
@@ -1574,7 +1574,7 @@
         <v>3.854031725222008</v>
       </c>
       <c r="C110" t="n">
-        <v>2.993536343548119e-67</v>
+        <v>2.9441173684285e-67</v>
       </c>
     </row>
     <row r="111">
@@ -1585,7 +1585,7 @@
         <v>3.854948932704873</v>
       </c>
       <c r="C111" t="n">
-        <v>2.5263483281622e-67</v>
+        <v>2.478600128035102e-67</v>
       </c>
     </row>
     <row r="112">
@@ -1596,7 +1596,7 @@
         <v>3.855866140187738</v>
       </c>
       <c r="C112" t="n">
-        <v>2.135261982147454e-67</v>
+        <v>2.089664464611916e-67</v>
       </c>
     </row>
     <row r="113">
@@ -1607,7 +1607,7 @@
         <v>3.856783347670603</v>
       </c>
       <c r="C113" t="n">
-        <v>1.808394774519561e-67</v>
+        <v>1.764953793990986e-67</v>
       </c>
     </row>
     <row r="114">
@@ -1618,7 +1618,7 @@
         <v>3.857700555153468</v>
       </c>
       <c r="C114" t="n">
-        <v>1.533622404014739e-67</v>
+        <v>1.491863498758186e-67</v>
       </c>
     </row>
     <row r="115">
@@ -1629,7 +1629,7 @@
         <v>3.858617762636332</v>
       </c>
       <c r="C115" t="n">
-        <v>1.299672800018636e-67</v>
+        <v>1.258731625379929e-67</v>
       </c>
     </row>
     <row r="116">
@@ -1640,7 +1640,7 @@
         <v>3.859534970119197</v>
       </c>
       <c r="C116" t="n">
-        <v>1.100192921519647e-67</v>
+        <v>1.059337225685353e-67</v>
       </c>
     </row>
     <row r="117">
@@ -1651,7 +1651,7 @@
         <v>3.860452177602062</v>
       </c>
       <c r="C117" t="n">
-        <v>9.305907619085292e-68</v>
+        <v>8.894072555417878e-68</v>
       </c>
     </row>
     <row r="118">
@@ -1662,7 +1662,7 @@
         <v>3.861369385084927</v>
       </c>
       <c r="C118" t="n">
-        <v>7.862765509433208e-68</v>
+        <v>7.446711444927472e-68</v>
       </c>
     </row>
     <row r="119">
@@ -1673,7 +1673,7 @@
         <v>3.862286592567792</v>
       </c>
       <c r="C119" t="n">
-        <v>6.62675189108787e-68</v>
+        <v>6.208713201811162e-68</v>
       </c>
     </row>
     <row r="120">
@@ -1684,7 +1684,7 @@
         <v>3.863203800050657</v>
       </c>
       <c r="C120" t="n">
-        <v>5.563420324562198e-68</v>
+        <v>5.147517812054923e-68</v>
       </c>
     </row>
     <row r="121">
@@ -1695,7 +1695,7 @@
         <v>3.864121007533522</v>
       </c>
       <c r="C121" t="n">
-        <v>4.657460286943815e-68</v>
+        <v>4.247519469151585e-68</v>
       </c>
     </row>
     <row r="122">
@@ -1706,7 +1706,7 @@
         <v>3.865038215016387</v>
       </c>
       <c r="C122" t="n">
-        <v>3.895411588985919e-68</v>
+        <v>3.49475174147318e-68</v>
       </c>
     </row>
     <row r="123">
@@ -1717,7 +1717,7 @@
         <v>3.865955422499252</v>
       </c>
       <c r="C123" t="n">
-        <v>3.263814041441983e-68</v>
+        <v>2.875248197392006e-68</v>
       </c>
     </row>
     <row r="124">
@@ -1728,7 +1728,7 @@
         <v>3.866872629982117</v>
       </c>
       <c r="C124" t="n">
-        <v>2.749207455064596e-68</v>
+        <v>2.375042405279498e-68</v>
       </c>
     </row>
     <row r="125">
@@ -1739,7 +1739,7 @@
         <v>3.867789837464982</v>
       </c>
       <c r="C125" t="n">
-        <v>2.33813164060729e-68</v>
+        <v>1.980167933508017e-68</v>
       </c>
     </row>
     <row r="126">
@@ -1750,7 +1750,7 @@
         <v>3.868707044947846</v>
       </c>
       <c r="C126" t="n">
-        <v>2.017126408823264e-68</v>
+        <v>1.676658350449592e-68</v>
       </c>
     </row>
     <row r="127">
@@ -1761,7 +1761,7 @@
         <v>3.869624252430711</v>
       </c>
       <c r="C127" t="n">
-        <v>1.772731570465713e-68</v>
+        <v>1.450547224476254e-68</v>
       </c>
     </row>
     <row r="128">
@@ -1772,7 +1772,7 @@
         <v>3.870541459913576</v>
       </c>
       <c r="C128" t="n">
-        <v>1.591486936287833e-68</v>
+        <v>1.287868123960031e-68</v>
       </c>
     </row>
     <row r="129">
@@ -1783,7 +1783,7 @@
         <v>3.871458667396441</v>
       </c>
       <c r="C129" t="n">
-        <v>1.459932317042821e-68</v>
+        <v>1.174654617272953e-68</v>
       </c>
     </row>
     <row r="130">
@@ -1794,7 +1794,7 @@
         <v>3.872375874879306</v>
       </c>
       <c r="C130" t="n">
-        <v>1.364607523483874e-68</v>
+        <v>1.096940272787049e-68</v>
       </c>
     </row>
     <row r="131">
@@ -1805,7 +1805,7 @@
         <v>3.873293082362171</v>
       </c>
       <c r="C131" t="n">
-        <v>1.292052366364187e-68</v>
+        <v>1.040758658874349e-68</v>
       </c>
     </row>
     <row r="132">
@@ -1816,7 +1816,7 @@
         <v>3.874210289845036</v>
       </c>
       <c r="C132" t="n">
-        <v>1.228806656436958e-68</v>
+        <v>9.921433439068833e-69</v>
       </c>
     </row>
     <row r="133">
@@ -1827,7 +1827,7 @@
         <v>3.875127497327901</v>
       </c>
       <c r="C133" t="n">
-        <v>1.161413642703568e-68</v>
+        <v>9.37131616736265e-69</v>
       </c>
     </row>
     <row r="134">
@@ -1838,7 +1838,7 @@
         <v>3.876044704810766</v>
       </c>
       <c r="C134" t="n">
-        <v>1.081173840461295e-68</v>
+        <v>8.669085365826314e-69</v>
       </c>
     </row>
     <row r="135">
@@ -1849,7 +1849,7 @@
         <v>3.876961912293631</v>
       </c>
       <c r="C135" t="n">
-        <v>9.935861728678068e-69</v>
+        <v>7.880230583822425e-69</v>
       </c>
     </row>
     <row r="136">
@@ -1860,7 +1860,7 @@
         <v>3.877879119776496</v>
       </c>
       <c r="C136" t="n">
-        <v>9.067867933381582e-69</v>
+        <v>7.098778465190846e-69</v>
       </c>
     </row>
     <row r="137">
@@ -1871,7 +1871,7 @@
         <v>3.878796327259361</v>
       </c>
       <c r="C137" t="n">
-        <v>8.289118552874043e-69</v>
+        <v>6.418755653771446e-69</v>
       </c>
     </row>
     <row r="138">
@@ -1882,7 +1882,7 @@
         <v>3.879713534742226</v>
       </c>
       <c r="C138" t="n">
-        <v>7.678515101718111e-69</v>
+        <v>5.931200055606129e-69</v>
       </c>
     </row>
     <row r="139">
@@ -1893,7 +1893,7 @@
         <v>3.880630742225091</v>
       </c>
       <c r="C139" t="n">
-        <v>7.263405109498986e-69</v>
+        <v>5.664515382970112e-69</v>
       </c>
     </row>
     <row r="140">
@@ -1904,7 +1904,7 @@
         <v>3.881547949707956</v>
       </c>
       <c r="C140" t="n">
-        <v>7.022229015785514e-69</v>
+        <v>5.587686931618747e-69</v>
       </c>
     </row>
     <row r="141">
@@ -1915,7 +1915,7 @@
         <v>3.88246515719082</v>
       </c>
       <c r="C141" t="n">
-        <v>6.931497080610248e-69</v>
+        <v>5.667354975110993e-69</v>
       </c>
     </row>
     <row r="142">
@@ -1926,7 +1926,7 @@
         <v>3.883382364673685</v>
       </c>
       <c r="C142" t="n">
-        <v>6.96771956400566e-69</v>
+        <v>5.870159787005971e-69</v>
       </c>
     </row>
     <row r="143">
@@ -1937,7 +1937,7 @@
         <v>3.88429957215655</v>
       </c>
       <c r="C143" t="n">
-        <v>7.107406726004365e-69</v>
+        <v>6.162741640862701e-69</v>
       </c>
     </row>
     <row r="144">
@@ -1948,7 +1948,7 @@
         <v>3.885216779639415</v>
       </c>
       <c r="C144" t="n">
-        <v>7.327068826638911e-69</v>
+        <v>6.511740810240215e-69</v>
       </c>
     </row>
     <row r="145">
@@ -1959,7 +1959,7 @@
         <v>3.88613398712228</v>
       </c>
       <c r="C145" t="n">
-        <v>7.603216125941841e-69</v>
+        <v>6.883797568697538e-69</v>
       </c>
     </row>
     <row r="146">
@@ -1970,7 +1970,7 @@
         <v>3.887051194605145</v>
       </c>
       <c r="C146" t="n">
-        <v>7.912358883945699e-69</v>
+        <v>7.245552189793704e-69</v>
       </c>
     </row>
     <row r="147">
@@ -1981,7 +1981,7 @@
         <v>3.88796840208801</v>
       </c>
       <c r="C147" t="n">
-        <v>8.23101037973101e-69</v>
+        <v>7.563650170147798e-69</v>
       </c>
     </row>
     <row r="148">
@@ -1992,7 +1992,7 @@
         <v>3.888885609570875</v>
       </c>
       <c r="C148" t="n">
-        <v>8.542304664600776e-69</v>
+        <v>7.816191177098951e-69</v>
       </c>
     </row>
     <row r="149">
@@ -2003,7 +2003,7 @@
         <v>3.88980281705374</v>
       </c>
       <c r="C149" t="n">
-        <v>8.850035135192434e-69</v>
+        <v>8.017016278003262e-69</v>
       </c>
     </row>
     <row r="150">
@@ -2014,7 +2014,7 @@
         <v>3.890720024536605</v>
       </c>
       <c r="C150" t="n">
-        <v>9.162013541006215e-69</v>
+        <v>8.186918433161803e-69</v>
       </c>
     </row>
     <row r="151">
@@ -2025,7 +2025,7 @@
         <v>3.89163723201947</v>
       </c>
       <c r="C151" t="n">
-        <v>9.486051631542357e-69</v>
+        <v>8.346690602875667e-69</v>
       </c>
     </row>
     <row r="152">
@@ -2036,7 +2036,7 @@
         <v>3.892554439502335</v>
       </c>
       <c r="C152" t="n">
-        <v>9.829961156301083e-69</v>
+        <v>8.517125747445928e-69</v>
       </c>
     </row>
     <row r="153">
@@ -2047,7 +2047,7 @@
         <v>3.8934716469852</v>
       </c>
       <c r="C153" t="n">
-        <v>1.020155386478263e-68</v>
+        <v>8.719016827173676e-69</v>
       </c>
     </row>
     <row r="154">
@@ -2058,7 +2058,7 @@
         <v>3.894388854468064</v>
       </c>
       <c r="C154" t="n">
-        <v>1.060864150648724e-68</v>
+        <v>8.973156802359985e-69</v>
       </c>
     </row>
     <row r="155">
@@ -2069,7 +2069,7 @@
         <v>3.895306061950929</v>
       </c>
       <c r="C155" t="n">
-        <v>1.105903583091513e-68</v>
+        <v>9.300338633305943e-69</v>
       </c>
     </row>
     <row r="156">
@@ -2080,7 +2080,7 @@
         <v>3.896223269433794</v>
       </c>
       <c r="C156" t="n">
-        <v>1.156054858756654e-68</v>
+        <v>9.721355280312633e-69</v>
       </c>
     </row>
     <row r="157">
@@ -2091,7 +2091,7 @@
         <v>3.897140476916659</v>
       </c>
       <c r="C157" t="n">
-        <v>1.212143871464499e-68</v>
+        <v>1.025548760551047e-68</v>
       </c>
     </row>
     <row r="158">
@@ -2102,7 +2102,7 @@
         <v>3.898057684399524</v>
       </c>
       <c r="C158" t="n">
-        <v>1.275293806085336e-68</v>
+        <v>1.091196404239126e-68</v>
       </c>
     </row>
     <row r="159">
@@ -2113,7 +2113,7 @@
         <v>3.898974891882389</v>
       </c>
       <c r="C159" t="n">
-        <v>1.346749125065787e-68</v>
+        <v>1.169591221420795e-68</v>
       </c>
     </row>
     <row r="160">
@@ -2124,7 +2124,7 @@
         <v>3.899892099365254</v>
       </c>
       <c r="C160" t="n">
-        <v>1.427754648603432e-68</v>
+        <v>1.261244764742816e-68</v>
       </c>
     </row>
     <row r="161">
@@ -2135,7 +2135,7 @@
         <v>3.900809306848119</v>
       </c>
       <c r="C161" t="n">
-        <v>1.519555196895805e-68</v>
+        <v>1.366668586851892e-68</v>
       </c>
     </row>
     <row r="162">
@@ -2146,7 +2146,7 @@
         <v>3.901726514330984</v>
       </c>
       <c r="C162" t="n">
-        <v>1.623395590140578e-68</v>
+        <v>1.486374240394885e-68</v>
       </c>
     </row>
     <row r="163">
@@ -2157,7 +2157,7 @@
         <v>3.902643721813849</v>
       </c>
       <c r="C163" t="n">
-        <v>1.740520648535289e-68</v>
+        <v>1.620873278018507e-68</v>
       </c>
     </row>
     <row r="164">
@@ -2168,7 +2168,7 @@
         <v>3.903560929296713</v>
       </c>
       <c r="C164" t="n">
-        <v>1.872175192277521e-68</v>
+        <v>1.770677252369517e-68</v>
       </c>
     </row>
     <row r="165">
@@ -2179,7 +2179,7 @@
         <v>3.904478136779578</v>
       </c>
       <c r="C165" t="n">
-        <v>2.019604041564856e-68</v>
+        <v>1.936297716094675e-68</v>
       </c>
     </row>
     <row r="166">
@@ -2190,7 +2190,7 @@
         <v>3.905395344262443</v>
       </c>
       <c r="C166" t="n">
-        <v>2.184052016594875e-68</v>
+        <v>2.118246221840741e-68</v>
       </c>
     </row>
     <row r="167">
@@ -2201,7 +2201,7 @@
         <v>3.906312551745308</v>
       </c>
       <c r="C167" t="n">
-        <v>2.366763937565161e-68</v>
+        <v>2.317034322254474e-68</v>
       </c>
     </row>
     <row r="168">
@@ -2212,7 +2212,7 @@
         <v>3.907229759228173</v>
       </c>
       <c r="C168" t="n">
-        <v>2.568984624673293e-68</v>
+        <v>2.533173569982632e-68</v>
       </c>
     </row>
     <row r="169">
@@ -2223,7 +2223,7 @@
         <v>3.908146966711038</v>
       </c>
       <c r="C169" t="n">
-        <v>2.791958898116856e-68</v>
+        <v>2.767175517671976e-68</v>
       </c>
     </row>
     <row r="170">
@@ -2234,7 +2234,7 @@
         <v>3.909064174193903</v>
       </c>
       <c r="C170" t="n">
-        <v>3.036929946798907e-68</v>
+        <v>3.019550316252742e-68</v>
       </c>
     </row>
     <row r="171">
@@ -2245,7 +2245,7 @@
         <v>3.909981381676768</v>
       </c>
       <c r="C171" t="n">
-        <v>3.302883850178465e-68</v>
+        <v>3.28886865841734e-68</v>
       </c>
     </row>
     <row r="172">
@@ -2256,7 +2256,7 @@
         <v>3.910898589159633</v>
       </c>
       <c r="C172" t="n">
-        <v>3.582070180132516e-68</v>
+        <v>3.567912782444211e-68</v>
       </c>
     </row>
     <row r="173">
@@ -2267,7 +2267,7 @@
         <v>3.911815796642498</v>
       </c>
       <c r="C173" t="n">
-        <v>3.865487261088391e-68</v>
+        <v>3.848389771758227e-68</v>
       </c>
     </row>
     <row r="174">
@@ -2278,7 +2278,7 @@
         <v>3.912733004125363</v>
       </c>
       <c r="C174" t="n">
-        <v>4.144133417473422e-68</v>
+        <v>4.122006709784263e-68</v>
       </c>
     </row>
     <row r="175">
@@ -2289,7 +2289,7 @@
         <v>3.913650211608228</v>
       </c>
       <c r="C175" t="n">
-        <v>4.409006973714944e-68</v>
+        <v>4.380470679947191e-68</v>
       </c>
     </row>
     <row r="176">
@@ -2300,7 +2300,7 @@
         <v>3.914567419091093</v>
       </c>
       <c r="C176" t="n">
-        <v>4.651106254240291e-68</v>
+        <v>4.615488765671891e-68</v>
       </c>
     </row>
     <row r="177">
@@ -2311,7 +2311,7 @@
         <v>3.915484626573958</v>
       </c>
       <c r="C177" t="n">
-        <v>4.86142958347679e-68</v>
+        <v>4.81876805038323e-68</v>
       </c>
     </row>
     <row r="178">
@@ -2322,7 +2322,7 @@
         <v>3.916401834056822</v>
       </c>
       <c r="C178" t="n">
-        <v>5.03097528585171e-68</v>
+        <v>4.982015617506021e-68</v>
       </c>
     </row>
     <row r="179">
@@ -2333,7 +2333,7 @@
         <v>3.917319041539687</v>
       </c>
       <c r="C179" t="n">
-        <v>5.150741685792544e-68</v>
+        <v>5.096938550465295e-68</v>
       </c>
     </row>
     <row r="180">
@@ -2344,7 +2344,7 @@
         <v>3.918236249022552</v>
       </c>
       <c r="C180" t="n">
-        <v>5.2118689620855e-68</v>
+        <v>5.155375258651066e-68</v>
       </c>
     </row>
     <row r="181">
@@ -2355,7 +2355,7 @@
         <v>3.919153456505417</v>
       </c>
       <c r="C181" t="n">
-        <v>5.211673196908788e-68</v>
+        <v>5.154881680897266e-68</v>
       </c>
     </row>
     <row r="182">
@@ -2366,7 +2366,7 @@
         <v>3.920070663988282</v>
       </c>
       <c r="C182" t="n">
-        <v>5.155898225398942e-68</v>
+        <v>5.10081600335725e-68</v>
       </c>
     </row>
     <row r="183">
@@ -2377,7 +2377,7 @@
         <v>3.920987871471147</v>
       </c>
       <c r="C183" t="n">
-        <v>5.050893795450104e-68</v>
+        <v>4.999097354254233e-68</v>
       </c>
     </row>
     <row r="184">
@@ -2388,7 +2388,7 @@
         <v>3.921905078954012</v>
       </c>
       <c r="C184" t="n">
-        <v>4.903009654956418e-68</v>
+        <v>4.855644861811444e-68</v>
       </c>
     </row>
     <row r="185">
@@ -2399,7 +2399,7 @@
         <v>3.922822286436877</v>
       </c>
       <c r="C185" t="n">
-        <v>4.718595551812024e-68</v>
+        <v>4.676377654252102e-68</v>
       </c>
     </row>
     <row r="186">
@@ -2410,7 +2410,7 @@
         <v>3.923739493919742</v>
       </c>
       <c r="C186" t="n">
-        <v>4.504001233911061e-68</v>
+        <v>4.46721485979943e-68</v>
       </c>
     </row>
     <row r="187">
@@ -2421,7 +2421,7 @@
         <v>3.924656701402607</v>
       </c>
       <c r="C187" t="n">
-        <v>4.265576449147674e-68</v>
+        <v>4.234075606676651e-68</v>
       </c>
     </row>
     <row r="188">
@@ -2432,7 +2432,7 @@
         <v>3.925573908885472</v>
       </c>
       <c r="C188" t="n">
-        <v>4.009670945416001e-68</v>
+        <v>3.982879023106986e-68</v>
       </c>
     </row>
     <row r="189">
@@ -2443,7 +2443,7 @@
         <v>3.926491116368337</v>
       </c>
       <c r="C189" t="n">
-        <v>3.74263330365609e-68</v>
+        <v>3.719543311469576e-68</v>
       </c>
     </row>
     <row r="190">
@@ -2454,7 +2454,7 @@
         <v>3.927408323851202</v>
       </c>
       <c r="C190" t="n">
-        <v>3.470070533898933e-68</v>
+        <v>3.449398322774311e-68</v>
       </c>
     </row>
     <row r="191">
@@ -2465,7 +2465,7 @@
         <v>3.928325531334067</v>
       </c>
       <c r="C191" t="n">
-        <v>3.195577937892292e-68</v>
+        <v>3.176177848492466e-68</v>
       </c>
     </row>
     <row r="192">
@@ -2476,7 +2476,7 @@
         <v>3.929242738816932</v>
       </c>
       <c r="C192" t="n">
-        <v>2.922412971160678e-68</v>
+        <v>2.903347637908626e-68</v>
       </c>
     </row>
     <row r="193">
@@ -2487,7 +2487,7 @@
         <v>3.930159946299796</v>
       </c>
       <c r="C193" t="n">
-        <v>2.653833089228599e-68</v>
+        <v>2.63437344030738e-68</v>
       </c>
     </row>
     <row r="194">
@@ -2498,7 +2498,7 @@
         <v>3.931077153782661</v>
       </c>
       <c r="C194" t="n">
-        <v>2.393095747620567e-68</v>
+        <v>2.372721004973319e-68</v>
       </c>
     </row>
     <row r="195">
@@ -2509,7 +2509,7 @@
         <v>3.931994361265526</v>
       </c>
       <c r="C195" t="n">
-        <v>2.143458401861092e-68</v>
+        <v>2.121856081191028e-68</v>
       </c>
     </row>
     <row r="196">
@@ -2520,7 +2520,7 @@
         <v>3.932911568748391</v>
       </c>
       <c r="C196" t="n">
-        <v>1.908178507474684e-68</v>
+        <v>1.885244418245096e-68</v>
       </c>
     </row>
     <row r="197">
@@ -2531,7 +2531,7 @@
         <v>3.933828776231256</v>
       </c>
       <c r="C197" t="n">
-        <v>1.690513519985852e-68</v>
+        <v>1.666351765420111e-68</v>
       </c>
     </row>
     <row r="198">
@@ -2542,7 +2542,7 @@
         <v>3.934745983714121</v>
       </c>
       <c r="C198" t="n">
-        <v>1.493720894919198e-68</v>
+        <v>1.468643872000751e-68</v>
       </c>
     </row>
     <row r="199">
@@ -2553,7 +2553,7 @@
         <v>3.935663191196986</v>
       </c>
       <c r="C199" t="n">
-        <v>1.320436019918676e-68</v>
+        <v>1.294932467679042e-68</v>
       </c>
     </row>
     <row r="200">
@@ -2564,7 +2564,7 @@
         <v>3.936580398679851</v>
       </c>
       <c r="C200" t="n">
-        <v>1.169731510091829e-68</v>
+        <v>1.144283512407833e-68</v>
       </c>
     </row>
     <row r="201">
@@ -2575,7 +2575,7 @@
         <v>3.937497606162716</v>
       </c>
       <c r="C201" t="n">
-        <v>1.039413807274841e-68</v>
+        <v>1.014431757516376e-68</v>
       </c>
     </row>
     <row r="202">
@@ -2586,7 +2586,7 @@
         <v>3.938414813645581</v>
       </c>
       <c r="C202" t="n">
-        <v>9.272878339635478e-69</v>
+        <v>9.031103569546282e-69</v>
       </c>
     </row>
     <row r="203">
@@ -2597,7 +2597,7 @@
         <v>3.939332021128445</v>
       </c>
       <c r="C203" t="n">
-        <v>8.311585126537878e-69</v>
+        <v>8.080524646725461e-69</v>
       </c>
     </row>
     <row r="204">
@@ -2608,7 +2608,7 @@
         <v>3.94024922861131</v>
       </c>
       <c r="C204" t="n">
-        <v>7.488307658413991e-69</v>
+        <v>7.269912346200859e-69</v>
       </c>
     </row>
     <row r="205">
@@ -2619,7 +2619,7 @@
         <v>3.941166436094175</v>
       </c>
       <c r="C205" t="n">
-        <v>6.781095160222192e-69</v>
+        <v>6.576598207472041e-69</v>
       </c>
     </row>
     <row r="206">
@@ -2630,7 +2630,7 @@
         <v>3.94208364357704</v>
       </c>
       <c r="C206" t="n">
-        <v>6.167996856920857e-69</v>
+        <v>5.977913770038572e-69</v>
       </c>
     </row>
     <row r="207">
@@ -2641,7 +2641,7 @@
         <v>3.943000851059905</v>
       </c>
       <c r="C207" t="n">
-        <v>5.627061973468357e-69</v>
+        <v>5.451190573400008e-69</v>
       </c>
     </row>
     <row r="208">
@@ -2652,7 +2652,7 @@
         <v>3.94391805854277</v>
       </c>
       <c r="C208" t="n">
-        <v>5.136638087506382e-69</v>
+        <v>4.974069971526387e-69</v>
       </c>
     </row>
     <row r="209">
@@ -2663,7 +2663,7 @@
         <v>3.944835266025635</v>
       </c>
       <c r="C209" t="n">
-        <v>4.684121254150017e-69</v>
+        <v>4.53358941037492e-69</v>
       </c>
     </row>
     <row r="210">
@@ -2674,7 +2674,7 @@
         <v>3.9457524735085</v>
       </c>
       <c r="C210" t="n">
-        <v>4.267368519472786e-69</v>
+        <v>4.127649205773621e-69</v>
       </c>
     </row>
     <row r="211">
@@ -2685,7 +2685,7 @@
         <v>3.946669680991365</v>
       </c>
       <c r="C211" t="n">
-        <v>3.884819649632806e-69</v>
+        <v>3.754754779938146e-69</v>
       </c>
     </row>
     <row r="212">
@@ -2696,7 +2696,7 @@
         <v>3.94758688847423</v>
       </c>
       <c r="C212" t="n">
-        <v>3.534914410788183e-69</v>
+        <v>3.413411555084145e-69</v>
       </c>
     </row>
     <row r="213">
@@ -2707,7 +2707,7 @@
         <v>3.948504095957095</v>
       </c>
       <c r="C213" t="n">
-        <v>3.21609256909703e-69</v>
+        <v>3.102124953427275e-69</v>
       </c>
     </row>
     <row r="214">
@@ -2718,7 +2718,7 @@
         <v>3.94942130343996</v>
       </c>
       <c r="C214" t="n">
-        <v>2.926793890717458e-69</v>
+        <v>2.819400397183184e-69</v>
       </c>
     </row>
     <row r="215">
@@ -2729,7 +2729,7 @@
         <v>3.950338510922824</v>
       </c>
       <c r="C215" t="n">
-        <v>2.665458141807698e-69</v>
+        <v>2.563743308567645e-69</v>
       </c>
     </row>
     <row r="216">
@@ -2740,7 +2740,7 @@
         <v>3.951255718405689</v>
       </c>
       <c r="C216" t="n">
-        <v>2.430525088525607e-69</v>
+        <v>2.333659109796063e-69</v>
       </c>
     </row>
     <row r="217">
@@ -2751,7 +2751,7 @@
         <v>3.952172925888554</v>
       </c>
       <c r="C217" t="n">
-        <v>2.220434497029431e-69</v>
+        <v>2.127653223084221e-69</v>
       </c>
     </row>
     <row r="218">
@@ -2762,7 +2762,7 @@
         <v>3.953090133371419</v>
       </c>
       <c r="C218" t="n">
-        <v>2.033626133477281e-69</v>
+        <v>1.944231070647773e-69</v>
       </c>
     </row>
     <row r="219">
@@ -2773,7 +2773,7 @@
         <v>3.954007340854284</v>
       </c>
       <c r="C219" t="n">
-        <v>1.868539764027266e-69</v>
+        <v>1.78189807470237e-69</v>
       </c>
     </row>
     <row r="220">
@@ -2784,7 +2784,7 @@
         <v>3.954924548337149</v>
       </c>
       <c r="C220" t="n">
-        <v>1.723615154837499e-69</v>
+        <v>1.639159657463665e-69</v>
       </c>
     </row>
     <row r="221">
@@ -2795,7 +2795,7 @@
         <v>3.955841755820014</v>
       </c>
       <c r="C221" t="n">
-        <v>1.597292072066091e-69</v>
+        <v>1.514521241147313e-69</v>
       </c>
     </row>
     <row r="222">
@@ -2806,7 +2806,7 @@
         <v>3.956758963302879</v>
       </c>
       <c r="C222" t="n">
-        <v>1.488010281871152e-69</v>
+        <v>1.406488247968965e-69</v>
       </c>
     </row>
     <row r="223">
@@ -2817,7 +2817,7 @@
         <v>3.957676170785744</v>
       </c>
       <c r="C223" t="n">
-        <v>1.394209550410794e-69</v>
+        <v>1.313566100144274e-69</v>
       </c>
     </row>
     <row r="224">
@@ -2828,7 +2828,7 @@
         <v>3.958593378268609</v>
       </c>
       <c r="C224" t="n">
-        <v>1.314329643843126e-69</v>
+        <v>1.234260219888892e-69</v>
       </c>
     </row>
     <row r="225">
@@ -2839,7 +2839,7 @@
         <v>3.959510585751474</v>
       </c>
       <c r="C225" t="n">
-        <v>1.246810328326262e-69</v>
+        <v>1.167076029418474e-69</v>
       </c>
     </row>
     <row r="226">
@@ -2850,7 +2850,7 @@
         <v>3.960427793234339</v>
       </c>
       <c r="C226" t="n">
-        <v>1.190091370018311e-69</v>
+        <v>1.110518950948671e-69</v>
       </c>
     </row>
     <row r="227">
@@ -2861,7 +2861,7 @@
         <v>3.961345000717204</v>
       </c>
       <c r="C227" t="n">
-        <v>1.142612535077384e-69</v>
+        <v>1.063094406695137e-69</v>
       </c>
     </row>
     <row r="228">
@@ -2872,7 +2872,7 @@
         <v>3.962262208200069</v>
       </c>
       <c r="C228" t="n">
-        <v>1.102813589661592e-69</v>
+        <v>1.023307818873524e-69</v>
       </c>
     </row>
     <row r="229">
@@ -2883,7 +2883,7 @@
         <v>3.963179415682934</v>
       </c>
       <c r="C229" t="n">
-        <v>1.069134299929047e-69</v>
+        <v>9.896646096994847e-70</v>
       </c>
     </row>
     <row r="230">
@@ -2894,7 +2894,7 @@
         <v>3.964096623165799</v>
       </c>
       <c r="C230" t="n">
-        <v>1.04001443203786e-69</v>
+        <v>9.606702013886725e-70</v>
       </c>
     </row>
     <row r="231">
@@ -2905,7 +2905,7 @@
         <v>3.965013830648664</v>
       </c>
       <c r="C231" t="n">
-        <v>1.013893752146141e-69</v>
+        <v>9.348300161567399e-70</v>
       </c>
     </row>
     <row r="232">
@@ -2916,7 +2916,7 @@
         <v>3.965931038131528</v>
       </c>
       <c r="C232" t="n">
-        <v>9.892120264120009e-70</v>
+        <v>9.106494762193398e-70</v>
       </c>
     </row>
     <row r="233">
@@ -2927,7 +2927,7 @@
         <v>3.966848245614393</v>
       </c>
       <c r="C233" t="n">
-        <v>9.644090209935517e-70</v>
+        <v>8.86634003792125e-70</v>
       </c>
     </row>
     <row r="234">
@@ -2938,7 +2938,7 @@
         <v>3.967765453097258</v>
       </c>
       <c r="C234" t="n">
-        <v>9.379245020489038e-70</v>
+        <v>8.612890210907481e-70</v>
       </c>
     </row>
     <row r="235">
@@ -2949,7 +2949,7 @@
         <v>3.968682660580123</v>
       </c>
       <c r="C235" t="n">
-        <v>9.081982357361836e-70</v>
+        <v>8.331199503308767e-70</v>
       </c>
     </row>
     <row r="236">
@@ -2960,7 +2960,7 @@
         <v>3.969599868062988</v>
       </c>
       <c r="C236" t="n">
-        <v>8.73684089324697e-70</v>
+        <v>8.006456082947582e-70</v>
       </c>
     </row>
     <row r="237">
@@ -2971,7 +2971,7 @@
         <v>3.970517075545853</v>
       </c>
       <c r="C237" t="n">
-        <v>8.33764323829152e-70</v>
+        <v>7.632666877868429e-70</v>
       </c>
     </row>
     <row r="238">
@@ -2982,7 +2982,7 @@
         <v>3.971434283028718</v>
       </c>
       <c r="C238" t="n">
-        <v>7.893096576633162e-70</v>
+        <v>7.217977589635117e-70</v>
       </c>
     </row>
     <row r="239">
@@ -2993,7 +2993,7 @@
         <v>3.972351490511583</v>
       </c>
       <c r="C239" t="n">
-        <v>7.413248074566044e-70</v>
+        <v>6.771806761361527e-70</v>
       </c>
     </row>
     <row r="240">
@@ -3004,7 +3004,7 @@
         <v>3.973268697994448</v>
       </c>
       <c r="C240" t="n">
-        <v>6.908144898384316e-70</v>
+        <v>6.303572936161548e-70</v>
       </c>
     </row>
     <row r="241">
@@ -3015,7 +3015,7 @@
         <v>3.974185905477313</v>
       </c>
       <c r="C241" t="n">
-        <v>6.387834214382126e-70</v>
+        <v>5.822694657149057e-70</v>
       </c>
     </row>
     <row r="242">
@@ -3026,7 +3026,7 @@
         <v>3.975103112960177</v>
       </c>
       <c r="C242" t="n">
-        <v>5.862363188853623e-70</v>
+        <v>5.338590467437942e-70</v>
       </c>
     </row>
     <row r="243">
@@ -3037,7 +3037,7 @@
         <v>3.976020320443042</v>
       </c>
       <c r="C243" t="n">
-        <v>5.341778988092956e-70</v>
+        <v>4.860678910142085e-70</v>
       </c>
     </row>
     <row r="244">
@@ -3048,7 +3048,7 @@
         <v>3.976937527925907</v>
       </c>
       <c r="C244" t="n">
-        <v>4.836128778394272e-70</v>
+        <v>4.398378528375365e-70</v>
       </c>
     </row>
     <row r="245">
@@ -3059,7 +3059,7 @@
         <v>3.977854735408772</v>
       </c>
       <c r="C245" t="n">
-        <v>4.355459726051723e-70</v>
+        <v>3.961107865251672e-70</v>
       </c>
     </row>
     <row r="246">
@@ -3070,7 +3070,7 @@
         <v>3.978771942891637</v>
       </c>
       <c r="C246" t="n">
-        <v>3.909818997359455e-70</v>
+        <v>3.558285463884884e-70</v>
       </c>
     </row>
     <row r="247">
@@ -3081,7 +3081,7 @@
         <v>3.979689150374502</v>
       </c>
       <c r="C247" t="n">
-        <v>3.50925375861162e-70</v>
+        <v>3.199329867388885e-70</v>
       </c>
     </row>
     <row r="248">
@@ -3092,7 +3092,7 @@
         <v>3.980606357857367</v>
       </c>
       <c r="C248" t="n">
-        <v>3.163811176102362e-70</v>
+        <v>2.893659618877558e-70</v>
       </c>
     </row>
     <row r="249">
@@ -3103,7 +3103,7 @@
         <v>3.981523565340232</v>
       </c>
       <c r="C249" t="n">
-        <v>2.883538416125834e-70</v>
+        <v>2.650693261464787e-70</v>
       </c>
     </row>
     <row r="250">
@@ -3114,7 +3114,7 @@
         <v>3.982440772823097</v>
       </c>
       <c r="C250" t="n">
-        <v>2.678391786010492e-70</v>
+        <v>2.479762351443491e-70</v>
       </c>
     </row>
     <row r="251">
@@ -3125,7 +3125,7 @@
         <v>3.983357980305962</v>
       </c>
       <c r="C251" t="n">
-        <v>2.55160368830527e-70</v>
+        <v>2.383761093582904e-70</v>
       </c>
     </row>
     <row r="252">
@@ -3136,7 +3136,7 @@
         <v>3.984275187788826</v>
       </c>
       <c r="C252" t="n">
-        <v>2.49517844626855e-70</v>
+        <v>2.35483412142851e-70</v>
       </c>
     </row>
     <row r="253">
@@ -3147,7 +3147,7 @@
         <v>3.985192395271691</v>
       </c>
       <c r="C253" t="n">
-        <v>2.500053763069307e-70</v>
+        <v>2.384104904680883e-70</v>
       </c>
     </row>
     <row r="254">
@@ -3158,7 +3158,7 @@
         <v>3.986109602754556</v>
       </c>
       <c r="C254" t="n">
-        <v>2.557167341876614e-70</v>
+        <v>2.46269691304065e-70</v>
       </c>
     </row>
     <row r="255">
@@ -3169,7 +3169,7 @@
         <v>3.987026810237421</v>
       </c>
       <c r="C255" t="n">
-        <v>2.657456885859497e-70</v>
+        <v>2.581733616208409e-70</v>
       </c>
     </row>
     <row r="256">
@@ -3180,7 +3180,7 @@
         <v>3.987944017720286</v>
       </c>
       <c r="C256" t="n">
-        <v>2.791860098186986e-70</v>
+        <v>2.732338483884759e-70</v>
       </c>
     </row>
     <row r="257">
@@ -3191,7 +3191,7 @@
         <v>3.988861225203151</v>
       </c>
       <c r="C257" t="n">
-        <v>2.951314682028107e-70</v>
+        <v>2.905634985770296e-70</v>
       </c>
     </row>
     <row r="258">
@@ -3202,7 +3202,7 @@
         <v>3.989778432686016</v>
       </c>
       <c r="C258" t="n">
-        <v>3.126758340551889e-70</v>
+        <v>3.092746591565619e-70</v>
       </c>
     </row>
     <row r="259">
@@ -3213,7 +3213,7 @@
         <v>3.990695640168881</v>
       </c>
       <c r="C259" t="n">
-        <v>3.309128776927356e-70</v>
+        <v>3.284796770971327e-70</v>
       </c>
     </row>
     <row r="260">
@@ -3224,7 +3224,7 @@
         <v>3.991612847651746</v>
       </c>
       <c r="C260" t="n">
-        <v>3.489363694323541e-70</v>
+        <v>3.472908993688015e-70</v>
       </c>
     </row>
     <row r="261">
@@ -3235,7 +3235,7 @@
         <v>3.992530055134611</v>
       </c>
       <c r="C261" t="n">
-        <v>3.658400795909467e-70</v>
+        <v>3.648206729416283e-70</v>
       </c>
     </row>
     <row r="262">
@@ -3246,7 +3246,7 @@
         <v>3.993447262617476</v>
       </c>
       <c r="C262" t="n">
-        <v>3.807177784854165e-70</v>
+        <v>3.801813447856727e-70</v>
       </c>
     </row>
     <row r="263">
@@ -3257,7 +3257,7 @@
         <v>3.994364470100341</v>
       </c>
       <c r="C263" t="n">
-        <v>3.926632364326661e-70</v>
+        <v>3.924852618709949e-70</v>
       </c>
     </row>
     <row r="264">
@@ -3268,7 +3268,7 @@
         <v>3.995281677583206</v>
       </c>
       <c r="C264" t="n">
-        <v>4.007924352830803e-70</v>
+        <v>4.008667840868349e-70</v>
       </c>
     </row>
     <row r="265">
@@ -3279,7 +3279,7 @@
         <v>3.996198885066071</v>
       </c>
       <c r="C265" t="n">
-        <v>4.047911699025074e-70</v>
+        <v>4.050249891014909e-70</v>
       </c>
     </row>
     <row r="266">
@@ -3290,7 +3290,7 @@
         <v>3.997116092548936</v>
       </c>
       <c r="C266" t="n">
-        <v>4.049498584731943e-70</v>
+        <v>4.052581713914729e-70</v>
       </c>
     </row>
     <row r="267">
@@ -3301,7 +3301,7 @@
         <v>3.998033300031801</v>
       </c>
       <c r="C267" t="n">
-        <v>4.015881004459205e-70</v>
+        <v>4.018935457645369e-70</v>
       </c>
     </row>
     <row r="268">
@@ -3312,7 +3312,7 @@
         <v>3.998950507514666</v>
       </c>
       <c r="C268" t="n">
-        <v>3.950254952714656e-70</v>
+        <v>3.952583270284389e-70</v>
       </c>
     </row>
     <row r="269">
@@ -3323,7 +3323,7 @@
         <v>3.999867714997531</v>
       </c>
       <c r="C269" t="n">
-        <v>3.855816424006082e-70</v>
+        <v>3.856797299909346e-70</v>
       </c>
     </row>
     <row r="270">
@@ -3334,7 +3334,7 @@
         <v>4.000784922480396</v>
       </c>
       <c r="C270" t="n">
-        <v>3.735761412841282e-70</v>
+        <v>3.734849694597805e-70</v>
       </c>
     </row>
     <row r="271">
@@ -3345,7 +3345,7 @@
         <v>4.00170212996326</v>
       </c>
       <c r="C271" t="n">
-        <v>3.593285913728051e-70</v>
+        <v>3.590012602427325e-70</v>
       </c>
     </row>
     <row r="272">
@@ -3356,7 +3356,7 @@
         <v>4.002619337446125</v>
       </c>
       <c r="C272" t="n">
-        <v>3.431585921174179e-70</v>
+        <v>3.425558171475465e-70</v>
       </c>
     </row>
     <row r="273">
@@ -3367,7 +3367,7 @@
         <v>4.00353654492899</v>
       </c>
       <c r="C273" t="n">
-        <v>3.253857429687461e-70</v>
+        <v>3.244758549819788e-70</v>
       </c>
     </row>
     <row r="274">
@@ -3378,7 +3378,7 @@
         <v>4.004453752411855</v>
       </c>
       <c r="C274" t="n">
-        <v>3.063296433775691e-70</v>
+        <v>3.05088588553785e-70</v>
       </c>
     </row>
     <row r="275">
@@ -3389,7 +3389,7 @@
         <v>4.00537095989472</v>
       </c>
       <c r="C275" t="n">
-        <v>2.86309892794666e-70</v>
+        <v>2.847212326707215e-70</v>
       </c>
     </row>
     <row r="276">
@@ -3400,7 +3400,7 @@
         <v>4.006288167377585</v>
       </c>
       <c r="C276" t="n">
-        <v>2.656460906708164e-70</v>
+        <v>2.637010021405442e-70</v>
       </c>
     </row>
     <row r="277">
@@ -3411,7 +3411,7 @@
         <v>4.00720537486045</v>
       </c>
       <c r="C277" t="n">
-        <v>2.446578364567996e-70</v>
+        <v>2.423551117710091e-70</v>
       </c>
     </row>
     <row r="278">
@@ -3422,7 +3422,7 @@
         <v>4.008122582343315</v>
       </c>
       <c r="C278" t="n">
-        <v>2.236647296033949e-70</v>
+        <v>2.210107763698722e-70</v>
       </c>
     </row>
     <row r="279">
@@ -3433,7 +3433,7 @@
         <v>4.009039789826179</v>
       </c>
       <c r="C279" t="n">
-        <v>2.029863695614014e-70</v>
+        <v>1.999952107449098e-70</v>
       </c>
     </row>
     <row r="280">
@@ -3444,7 +3444,7 @@
         <v>4.009956997309045</v>
       </c>
       <c r="C280" t="n">
-        <v>1.829423557815392e-70</v>
+        <v>1.796356297038175e-70</v>
       </c>
     </row>
     <row r="281">
@@ -3455,7 +3455,7 @@
         <v>4.010874204791909</v>
       </c>
       <c r="C281" t="n">
-        <v>1.638522877146649e-70</v>
+        <v>1.602592480544299e-70</v>
       </c>
     </row>
     <row r="282">
@@ -3466,7 +3466,7 @@
         <v>4.011791412274774</v>
       </c>
       <c r="C282" t="n">
-        <v>1.460357648115008e-70</v>
+        <v>1.42193280604445e-70</v>
       </c>
     </row>
     <row r="283">
@@ -3477,7 +3477,7 @@
         <v>4.012708619757639</v>
       </c>
       <c r="C283" t="n">
-        <v>1.29789231103203e-70</v>
+        <v>1.257411927177844e-70</v>
       </c>
     </row>
     <row r="284">
@@ -3488,7 +3488,7 @@
         <v>4.013625827240504</v>
       </c>
       <c r="C284" t="n">
-        <v>1.151675316883235e-70</v>
+        <v>1.109586528981241e-70</v>
       </c>
     </row>
     <row r="285">
@@ -3499,7 +3499,7 @@
         <v>4.014543034723369</v>
       </c>
       <c r="C285" t="n">
-        <v>1.02081811799306e-70</v>
+        <v>9.775394333722452e-71</v>
       </c>
     </row>
     <row r="286">
@@ -3510,7 +3510,7 @@
         <v>4.015460242206234</v>
       </c>
       <c r="C286" t="n">
-        <v>9.044131353555901e-71</v>
+        <v>8.603339427124025e-71</v>
       </c>
     </row>
     <row r="287">
@@ -3521,7 +3521,7 @@
         <v>4.016377449689099</v>
       </c>
       <c r="C287" t="n">
-        <v>8.015527899649072e-71</v>
+        <v>7.57033359363259e-71</v>
       </c>
     </row>
     <row r="288">
@@ -3532,7 +3532,7 @@
         <v>4.017294657171964</v>
       </c>
       <c r="C288" t="n">
-        <v>7.113295028150946e-71</v>
+        <v>6.667009856863602e-71</v>
       </c>
     </row>
     <row r="289">
@@ -3543,7 +3543,7 @@
         <v>4.018211864654829</v>
       </c>
       <c r="C289" t="n">
-        <v>6.32835694900236e-71</v>
+        <v>5.88400124043253e-71</v>
       </c>
     </row>
     <row r="290">
@@ -3554,7 +3554,7 @@
         <v>4.019129072137694</v>
       </c>
       <c r="C290" t="n">
-        <v>5.651637872144145e-71</v>
+        <v>5.211940767954833e-71</v>
       </c>
     </row>
     <row r="291">
@@ -3565,7 +3565,7 @@
         <v>4.020046279620558</v>
       </c>
       <c r="C291" t="n">
-        <v>5.074062007517132e-71</v>
+        <v>4.641461463045969e-71</v>
       </c>
     </row>
     <row r="292">
@@ -3576,7 +3576,7 @@
         <v>4.020963487103423</v>
       </c>
       <c r="C292" t="n">
-        <v>4.586553565062154e-71</v>
+        <v>4.163196349321404e-71</v>
       </c>
     </row>
     <row r="293">
@@ -3587,7 +3587,7 @@
         <v>4.021880694586288</v>
       </c>
       <c r="C293" t="n">
-        <v>4.180036754720045e-71</v>
+        <v>3.767778450396596e-71</v>
       </c>
     </row>
     <row r="294">
@@ -3598,7 +3598,7 @@
         <v>4.022797902069153</v>
       </c>
       <c r="C294" t="n">
-        <v>3.845435786431635e-71</v>
+        <v>3.445840789887007e-71</v>
       </c>
     </row>
     <row r="295">
@@ -3609,7 +3609,7 @@
         <v>4.023715109552018</v>
       </c>
       <c r="C295" t="n">
-        <v>3.573674870137757e-71</v>
+        <v>3.188016391408098e-71</v>
       </c>
     </row>
     <row r="296">
@@ -3620,7 +3620,7 @@
         <v>4.024632317034883</v>
       </c>
       <c r="C296" t="n">
-        <v>3.355678215779244e-71</v>
+        <v>2.984938278575331e-71</v>
       </c>
     </row>
     <row r="297">
@@ -3631,7 +3631,7 @@
         <v>4.025549524517748</v>
       </c>
       <c r="C297" t="n">
-        <v>3.182370033296927e-71</v>
+        <v>2.827239475004167e-71</v>
       </c>
     </row>
     <row r="298">
@@ -3642,7 +3642,7 @@
         <v>4.026466732000613</v>
       </c>
       <c r="C298" t="n">
-        <v>3.044674532631639e-71</v>
+        <v>2.705553004310066e-71</v>
       </c>
     </row>
     <row r="299">
@@ -3653,7 +3653,7 @@
         <v>4.027383939483478</v>
       </c>
       <c r="C299" t="n">
-        <v>2.933515923724213e-71</v>
+        <v>2.61051189010849e-71</v>
       </c>
     </row>
     <row r="300">
@@ -3664,7 +3664,7 @@
         <v>4.028301146966343</v>
       </c>
       <c r="C300" t="n">
-        <v>2.839818416515481e-71</v>
+        <v>2.532749156014901e-71</v>
       </c>
     </row>
     <row r="301">
@@ -3675,7 +3675,7 @@
         <v>4.029218354449208</v>
       </c>
       <c r="C301" t="n">
-        <v>2.754517841721868e-71</v>
+        <v>2.462909840166715e-71</v>
       </c>
     </row>
     <row r="302">
@@ -3686,7 +3686,7 @@
         <v>4.030135561932073</v>
       </c>
       <c r="C302" t="n">
-        <v>2.671111419318751e-71</v>
+        <v>2.394287157429378e-71</v>
       </c>
     </row>
     <row r="303">
@@ -3697,7 +3697,7 @@
         <v>4.031052769414938</v>
       </c>
       <c r="C303" t="n">
-        <v>2.588859951323466e-71</v>
+        <v>2.326133191973453e-71</v>
       </c>
     </row>
     <row r="304">
@@ -3708,7 +3708,7 @@
         <v>4.031969976897803</v>
       </c>
       <c r="C304" t="n">
-        <v>2.507811707303664e-71</v>
+        <v>2.258514177257251e-71</v>
       </c>
     </row>
     <row r="305">
@@ -3719,7 +3719,7 @@
         <v>4.032887184380668</v>
       </c>
       <c r="C305" t="n">
-        <v>2.428014956826989e-71</v>
+        <v>2.191496346739077e-71</v>
       </c>
     </row>
     <row r="306">
@@ -3730,7 +3730,7 @@
         <v>4.033804391863533</v>
       </c>
       <c r="C306" t="n">
-        <v>2.349517969461093e-71</v>
+        <v>2.12514593387724e-71</v>
       </c>
     </row>
     <row r="307">
@@ -3741,7 +3741,7 @@
         <v>4.034721599346398</v>
       </c>
       <c r="C307" t="n">
-        <v>2.272369014773621e-71</v>
+        <v>2.059529172130046e-71</v>
       </c>
     </row>
     <row r="308">
@@ -3752,7 +3752,7 @@
         <v>4.035638806829263</v>
       </c>
       <c r="C308" t="n">
-        <v>2.196616362332221e-71</v>
+        <v>1.994712294955804e-71</v>
       </c>
     </row>
     <row r="309">
@@ -3763,7 +3763,7 @@
         <v>4.036556014312128</v>
       </c>
       <c r="C309" t="n">
-        <v>2.122308281704541e-71</v>
+        <v>1.930761535812822e-71</v>
       </c>
     </row>
     <row r="310">
@@ -3774,7 +3774,7 @@
         <v>4.037473221794992</v>
       </c>
       <c r="C310" t="n">
-        <v>2.04949304245823e-71</v>
+        <v>1.867743128159407e-71</v>
       </c>
     </row>
     <row r="311">
@@ -3785,7 +3785,7 @@
         <v>4.038390429277857</v>
       </c>
       <c r="C311" t="n">
-        <v>1.978218914160934e-71</v>
+        <v>1.805723305453866e-71</v>
       </c>
     </row>
     <row r="312">
@@ -3796,7 +3796,7 @@
         <v>4.039307636760722</v>
       </c>
       <c r="C312" t="n">
-        <v>1.908534166380303e-71</v>
+        <v>1.744768301154508e-71</v>
       </c>
     </row>
     <row r="313">
@@ -3807,7 +3807,7 @@
         <v>4.040224844243587</v>
       </c>
       <c r="C313" t="n">
-        <v>1.840487068683982e-71</v>
+        <v>1.68494434871964e-71</v>
       </c>
     </row>
     <row r="314">
@@ -3818,7 +3818,7 @@
         <v>4.041142051726452</v>
       </c>
       <c r="C314" t="n">
-        <v>1.774125890639621e-71</v>
+        <v>1.626317681607569e-71</v>
       </c>
     </row>
     <row r="315">
@@ -3829,7 +3829,7 @@
         <v>4.042059259209317</v>
       </c>
       <c r="C315" t="n">
-        <v>1.709498901814866e-71</v>
+        <v>1.568954533276603e-71</v>
       </c>
     </row>
     <row r="316">
@@ -3840,7 +3840,7 @@
         <v>4.042976466692181</v>
       </c>
       <c r="C316" t="n">
-        <v>1.646654371777427e-71</v>
+        <v>1.512921137185104e-71</v>
       </c>
     </row>
     <row r="317">
@@ -3851,7 +3851,7 @@
         <v>4.043893674175047</v>
       </c>
       <c r="C317" t="n">
-        <v>1.585640570094769e-71</v>
+        <v>1.458283726791219e-71</v>
       </c>
     </row>
     <row r="318">
@@ -3862,7 +3862,7 @@
         <v>4.044810881657911</v>
       </c>
       <c r="C318" t="n">
-        <v>1.526505766334779e-71</v>
+        <v>1.405108535553466e-71</v>
       </c>
     </row>
     <row r="319">
@@ -3873,7 +3873,7 @@
         <v>4.045728089140776</v>
       </c>
       <c r="C319" t="n">
-        <v>1.469298230064928e-71</v>
+        <v>1.353461796929996e-71</v>
       </c>
     </row>
     <row r="320">
@@ -3884,7 +3884,7 @@
         <v>4.046645296623641</v>
       </c>
       <c r="C320" t="n">
-        <v>1.414066230852922e-71</v>
+        <v>1.30340974437917e-71</v>
       </c>
     </row>
     <row r="321">
@@ -3895,7 +3895,7 @@
         <v>4.047562504106506</v>
       </c>
       <c r="C321" t="n">
-        <v>1.36085803826641e-71</v>
+        <v>1.255018611359294e-71</v>
       </c>
     </row>
     <row r="322">
@@ -3906,7 +3906,7 @@
         <v>4.048479711589371</v>
       </c>
       <c r="C322" t="n">
-        <v>1.30972192187304e-71</v>
+        <v>1.208354631328678e-71</v>
       </c>
     </row>
     <row r="323">
@@ -3917,7 +3917,7 @@
         <v>4.049396919072236</v>
       </c>
       <c r="C323" t="n">
-        <v>1.260706151240459e-71</v>
+        <v>1.163484037745628e-71</v>
       </c>
     </row>
     <row r="324">
@@ -3928,7 +3928,7 @@
         <v>4.050314126555101</v>
       </c>
       <c r="C324" t="n">
-        <v>1.213858995936315e-71</v>
+        <v>1.120473064068452e-71</v>
       </c>
     </row>
     <row r="325">
@@ -3939,7 +3939,7 @@
         <v>4.051231334037966</v>
       </c>
       <c r="C325" t="n">
-        <v>1.169228725528255e-71</v>
+        <v>1.079387943755458e-71</v>
       </c>
     </row>
     <row r="326">
@@ -3950,7 +3950,7 @@
         <v>4.052148541520831</v>
       </c>
       <c r="C326" t="n">
-        <v>1.126863609583928e-71</v>
+        <v>1.040294910264952e-71</v>
       </c>
     </row>
     <row r="327">
@@ -3961,7 +3961,7 @@
         <v>4.053065749003696</v>
       </c>
       <c r="C327" t="n">
-        <v>1.08681191767098e-71</v>
+        <v>1.003260197055244e-71</v>
       </c>
     </row>
     <row r="328">
@@ -3972,7 +3972,7 @@
         <v>4.053982956486561</v>
       </c>
       <c r="C328" t="n">
-        <v>1.049121919357061e-71</v>
+        <v>9.683500375846398e-72</v>
       </c>
     </row>
     <row r="329">
@@ -3983,7 +3983,7 @@
         <v>4.054900163969426</v>
       </c>
       <c r="C329" t="n">
-        <v>1.013841884209817e-71</v>
+        <v>9.35630665311448e-72</v>
       </c>
     </row>
     <row r="330">
@@ -3994,7 +3994,7 @@
         <v>4.05581737145229</v>
       </c>
       <c r="C330" t="n">
-        <v>9.810200817968975e-72</v>
+        <v>9.051683136939761e-72</v>
       </c>
     </row>
     <row r="331">
@@ -4005,7 +4005,7 @@
         <v>4.056734578935155</v>
       </c>
       <c r="C331" t="n">
-        <v>9.507047816859488e-72</v>
+        <v>8.77029216190532e-72</v>
       </c>
     </row>
     <row r="332">
@@ -4016,7 +4016,7 @@
         <v>4.05765178641802</v>
       </c>
       <c r="C332" t="n">
-        <v>9.22944253444619e-72</v>
+        <v>8.512796062594226e-72</v>
       </c>
     </row>
     <row r="333">
@@ -4027,7 +4027,7 @@
         <v>4.058568993900885</v>
       </c>
       <c r="C333" t="n">
-        <v>8.97786766640556e-72</v>
+        <v>8.279857173589561e-72</v>
       </c>
     </row>
     <row r="334">
@@ -4038,7 +4038,7 @@
         <v>4.05948620138375</v>
       </c>
       <c r="C334" t="n">
-        <v>8.752805908414077e-72</v>
+        <v>8.0721378294744e-72</v>
       </c>
     </row>
     <row r="335">
@@ -4049,7 +4049,7 @@
         <v>4.060403408866615</v>
       </c>
       <c r="C335" t="n">
-        <v>8.554739956148216e-72</v>
+        <v>7.890300364831817e-72</v>
       </c>
     </row>
     <row r="336">
@@ -4060,7 +4060,7 @@
         <v>4.06132061634948</v>
       </c>
       <c r="C336" t="n">
-        <v>8.384152505284459e-72</v>
+        <v>7.735007114244894e-72</v>
       </c>
     </row>
     <row r="337">
@@ -4071,7 +4071,7 @@
         <v>4.062237823832345</v>
       </c>
       <c r="C337" t="n">
-        <v>8.241526251499282e-72</v>
+        <v>7.606920412296705e-72</v>
       </c>
     </row>
     <row r="338">
@@ -4082,7 +4082,7 @@
         <v>4.06315503131521</v>
       </c>
       <c r="C338" t="n">
-        <v>8.127343890469158e-72</v>
+        <v>7.506702593570323e-72</v>
       </c>
     </row>
     <row r="339">
@@ -4093,7 +4093,7 @@
         <v>4.064072238798075</v>
       </c>
       <c r="C339" t="n">
-        <v>8.041998067478832e-72</v>
+        <v>7.4349187854592e-72</v>
       </c>
     </row>
     <row r="340">
@@ -4104,7 +4104,7 @@
         <v>4.06498944628094</v>
       </c>
       <c r="C340" t="n">
-        <v>7.985042506215657e-72</v>
+        <v>7.391228520064804e-72</v>
       </c>
     </row>
     <row r="341">
@@ -4115,7 +4115,7 @@
         <v>4.065906653763805</v>
       </c>
       <c r="C341" t="n">
-        <v>7.955574427557932e-72</v>
+        <v>7.37479854590078e-72</v>
       </c>
     </row>
     <row r="342">
@@ -4126,7 +4126,7 @@
         <v>4.06682386124667</v>
       </c>
       <c r="C342" t="n">
-        <v>7.952686482097615e-72</v>
+        <v>7.384790677968747e-72</v>
       </c>
     </row>
     <row r="343">
@@ -4137,7 +4137,7 @@
         <v>4.067741068729535</v>
       </c>
       <c r="C343" t="n">
-        <v>7.975471320426651e-72</v>
+        <v>7.420366731270307e-72</v>
       </c>
     </row>
     <row r="344">
@@ -4148,7 +4148,7 @@
         <v>4.0686582762124</v>
       </c>
       <c r="C344" t="n">
-        <v>8.023021593136995e-72</v>
+        <v>7.480688520807079e-72</v>
       </c>
     </row>
     <row r="345">
@@ -4159,7 +4159,7 @@
         <v>4.069575483695265</v>
       </c>
       <c r="C345" t="n">
-        <v>8.094429950820599e-72</v>
+        <v>7.564917861580669e-72</v>
       </c>
     </row>
     <row r="346">
@@ -4170,7 +4170,7 @@
         <v>4.07049269117813</v>
       </c>
       <c r="C346" t="n">
-        <v>8.188789044069419e-72</v>
+        <v>7.672216568592692e-72</v>
       </c>
     </row>
     <row r="347">
@@ -4181,7 +4181,7 @@
         <v>4.071409898660995</v>
       </c>
       <c r="C347" t="n">
-        <v>8.305191523475403e-72</v>
+        <v>7.801746456844757e-72</v>
       </c>
     </row>
     <row r="348">
@@ -4192,7 +4192,7 @@
         <v>4.07232710614386</v>
       </c>
       <c r="C348" t="n">
-        <v>8.442730039630506e-72</v>
+        <v>7.95266934133848e-72</v>
       </c>
     </row>
     <row r="349">
@@ -4203,7 +4203,7 @@
         <v>4.073244313626724</v>
       </c>
       <c r="C349" t="n">
-        <v>8.600497243126679e-72</v>
+        <v>8.124147037075467e-72</v>
       </c>
     </row>
     <row r="350">
@@ -4214,7 +4214,7 @@
         <v>4.074161521109589</v>
       </c>
       <c r="C350" t="n">
-        <v>8.777585784555875e-72</v>
+        <v>8.315341359057332e-72</v>
       </c>
     </row>
     <row r="351">
@@ -4225,7 +4225,7 @@
         <v>4.075078728592454</v>
       </c>
       <c r="C351" t="n">
-        <v>8.973088314510048e-72</v>
+        <v>8.525414122285687e-72</v>
       </c>
     </row>
     <row r="352">
@@ -4236,7 +4236,7 @@
         <v>4.075995936075319</v>
       </c>
       <c r="C352" t="n">
-        <v>9.186097483581147e-72</v>
+        <v>8.753527141762142e-72</v>
       </c>
     </row>
     <row r="353">
@@ -4247,7 +4247,7 @@
         <v>4.076913143558183</v>
       </c>
       <c r="C353" t="n">
-        <v>9.415705942360896e-72</v>
+        <v>8.998842232488064e-72</v>
       </c>
     </row>
     <row r="354">
@@ -4258,7 +4258,7 @@
         <v>4.077830351041049</v>
       </c>
       <c r="C354" t="n">
-        <v>9.66100634144194e-72</v>
+        <v>9.260521209465801e-72</v>
       </c>
     </row>
     <row r="355">
@@ -4269,7 +4269,7 @@
         <v>4.078747558523913</v>
       </c>
       <c r="C355" t="n">
-        <v>9.921091331415282e-72</v>
+        <v>9.537725887695954e-72</v>
       </c>
     </row>
     <row r="356">
@@ -4280,7 +4280,7 @@
         <v>4.079664766006778</v>
       </c>
       <c r="C356" t="n">
-        <v>1.01950535628736e-71</v>
+        <v>9.829618082180913e-72</v>
       </c>
     </row>
     <row r="357">
@@ -4291,7 +4291,7 @@
         <v>4.080581973489643</v>
       </c>
       <c r="C357" t="n">
-        <v>1.048198568640862e-71</v>
+        <v>1.013535960792203e-71</v>
       </c>
     </row>
     <row r="358">
@@ -4302,7 +4302,7 @@
         <v>4.081499180972508</v>
       </c>
       <c r="C358" t="n">
-        <v>1.078098035261228e-71</v>
+        <v>1.045411227992092e-71</v>
       </c>
     </row>
     <row r="359">
@@ -4313,7 +4313,7 @@
         <v>4.082416388455373</v>
       </c>
       <c r="C359" t="n">
-        <v>1.109113021207653e-71</v>
+        <v>1.07850379131792e-71</v>
       </c>
     </row>
     <row r="360">
@@ -4324,7 +4324,7 @@
         <v>4.083333595938238</v>
       </c>
       <c r="C360" t="n">
-        <v>1.141152791539334e-71</v>
+        <v>1.112729832269846e-71</v>
       </c>
     </row>
     <row r="361">
@@ -4335,7 +4335,7 @@
         <v>4.084250803421103</v>
       </c>
       <c r="C361" t="n">
-        <v>1.174126611315464e-71</v>
+        <v>1.148005532348033e-71</v>
       </c>
     </row>
     <row r="362">
@@ -4346,7 +4346,7 @@
         <v>4.085168010903968</v>
       </c>
       <c r="C362" t="n">
-        <v>1.207943020986153e-71</v>
+        <v>1.184246291944147e-71</v>
       </c>
     </row>
     <row r="363">
@@ -4357,7 +4357,7 @@
         <v>4.086085218386833</v>
       </c>
       <c r="C363" t="n">
-        <v>1.242321303537867e-71</v>
+        <v>1.221163497154104e-71</v>
       </c>
     </row>
     <row r="364">
@@ -4368,7 +4368,7 @@
         <v>4.087002425869698</v>
       </c>
       <c r="C364" t="n">
-        <v>1.276539472647794e-71</v>
+        <v>1.257992857999356e-71</v>
       </c>
     </row>
     <row r="365">
@@ -4379,7 +4379,7 @@
         <v>4.087919633352563</v>
       </c>
       <c r="C365" t="n">
-        <v>1.309812773346825e-71</v>
+        <v>1.293902421641867e-71</v>
       </c>
     </row>
     <row r="366">
@@ -4390,7 +4390,7 @@
         <v>4.088836840835428</v>
       </c>
       <c r="C366" t="n">
-        <v>1.341356450665854e-71</v>
+        <v>1.328060235243602e-71</v>
       </c>
     </row>
     <row r="367">
@@ -4401,7 +4401,7 @@
         <v>4.089754048318293</v>
       </c>
       <c r="C367" t="n">
-        <v>1.370385749635772e-71</v>
+        <v>1.359634345966525e-71</v>
       </c>
     </row>
     <row r="368">
@@ -4412,7 +4412,7 @@
         <v>4.090671255801158</v>
       </c>
       <c r="C368" t="n">
-        <v>1.396115915287471e-71</v>
+        <v>1.387792800972601e-71</v>
       </c>
     </row>
     <row r="369">
@@ -4423,7 +4423,7 @@
         <v>4.091588463284022</v>
       </c>
       <c r="C369" t="n">
-        <v>1.417762192651843e-71</v>
+        <v>1.411703647423794e-71</v>
       </c>
     </row>
     <row r="370">
@@ -4434,7 +4434,7 @@
         <v>4.092505670766887</v>
       </c>
       <c r="C370" t="n">
-        <v>1.434539826759782e-71</v>
+        <v>1.430534932482069e-71</v>
       </c>
     </row>
     <row r="371">
@@ -4445,7 +4445,7 @@
         <v>4.093422878249752</v>
       </c>
       <c r="C371" t="n">
-        <v>1.445664062642178e-71</v>
+        <v>1.443454703309391e-71</v>
       </c>
     </row>
     <row r="372">
@@ -4456,7 +4456,7 @@
         <v>4.094340085732617</v>
       </c>
       <c r="C372" t="n">
-        <v>1.450350145329924e-71</v>
+        <v>1.449631007067723e-71</v>
       </c>
     </row>
     <row r="373">
@@ -4467,7 +4467,7 @@
         <v>4.095257293215482</v>
       </c>
       <c r="C373" t="n">
-        <v>1.447813319853912e-71</v>
+        <v>1.448231890919032e-71</v>
       </c>
     </row>
     <row r="374">
@@ -4478,7 +4478,7 @@
         <v>4.096174500698347</v>
       </c>
       <c r="C374" t="n">
-        <v>1.437268831245033e-71</v>
+        <v>1.43842540202528e-71</v>
       </c>
     </row>
     <row r="375">
@@ -4489,7 +4489,7 @@
         <v>4.097091708181212</v>
       </c>
       <c r="C375" t="n">
-        <v>1.417931924534182e-71</v>
+        <v>1.419379587548434e-71</v>
       </c>
     </row>
     <row r="376">
@@ -4500,7 +4500,7 @@
         <v>4.098008915664077</v>
       </c>
       <c r="C376" t="n">
-        <v>1.389035086971259e-71</v>
+        <v>1.390280822022651e-71</v>
       </c>
     </row>
     <row r="377">
@@ -4511,7 +4511,7 @@
         <v>4.098926123146942</v>
       </c>
       <c r="C377" t="n">
-        <v>1.35069432309543e-71</v>
+        <v>1.35125460215605e-71</v>
       </c>
     </row>
     <row r="378">
@@ -4522,7 +4522,7 @@
         <v>4.099843330629807</v>
       </c>
       <c r="C378" t="n">
-        <v>1.304314666655851e-71</v>
+        <v>1.303796579976504e-71</v>
       </c>
     </row>
     <row r="379">
@@ -4533,7 +4533,7 @@
         <v>4.100760538112672</v>
       </c>
       <c r="C379" t="n">
-        <v>1.251403141112532e-71</v>
+        <v>1.249510816028784e-71</v>
       </c>
     </row>
     <row r="380">
@@ -4544,7 +4544,7 @@
         <v>4.101677745595537</v>
       </c>
       <c r="C380" t="n">
-        <v>1.193466769925486e-71</v>
+        <v>1.190001370857661e-71</v>
       </c>
     </row>
     <row r="381">
@@ -4555,7 +4555,7 @@
         <v>4.102594953078402</v>
       </c>
       <c r="C381" t="n">
-        <v>1.132012576554724e-71</v>
+        <v>1.126872305007903e-71</v>
       </c>
     </row>
     <row r="382">
@@ -4566,7 +4566,7 @@
         <v>4.103512160561267</v>
       </c>
       <c r="C382" t="n">
-        <v>1.068547584460258e-71</v>
+        <v>1.061727679024282e-71</v>
       </c>
     </row>
     <row r="383">
@@ -4577,7 +4577,7 @@
         <v>4.104429368044132</v>
       </c>
       <c r="C383" t="n">
-        <v>1.0045788171021e-71</v>
+        <v>9.961715534515679e-72</v>
       </c>
     </row>
     <row r="384">
@@ -4588,7 +4588,7 @@
         <v>4.105346575526997</v>
       </c>
       <c r="C384" t="n">
-        <v>9.41613297940261e-72</v>
+        <v>9.318079888345308e-72</v>
       </c>
     </row>
     <row r="385">
@@ -4599,7 +4599,7 @@
         <v>4.106263783009862</v>
       </c>
       <c r="C385" t="n">
-        <v>8.81158050434753e-72</v>
+        <v>8.702410457179406e-72</v>
       </c>
     </row>
     <row r="386">
@@ -4610,7 +4610,7 @@
         <v>4.107180990492727</v>
       </c>
       <c r="C386" t="n">
-        <v>8.245590125489129e-72</v>
+        <v>8.129012120407804e-72</v>
       </c>
     </row>
     <row r="387">
@@ -4621,7 +4621,7 @@
         <v>4.108098197975592</v>
       </c>
       <c r="C387" t="n">
-        <v>7.720653467578074e-72</v>
+        <v>7.600371798423851e-72</v>
       </c>
     </row>
     <row r="388">
@@ -4632,7 +4632,7 @@
         <v>4.109015405458456</v>
       </c>
       <c r="C388" t="n">
-        <v>7.234690655074504e-72</v>
+        <v>7.114050535398859e-72</v>
       </c>
     </row>
     <row r="389">
@@ -4643,7 +4643,7 @@
         <v>4.109932612941321</v>
       </c>
       <c r="C389" t="n">
-        <v>6.785606678204212e-72</v>
+        <v>6.667593068086361e-72</v>
       </c>
     </row>
     <row r="390">
@@ -4654,7 +4654,7 @@
         <v>4.110849820424186</v>
       </c>
       <c r="C390" t="n">
-        <v>6.371306527192986e-72</v>
+        <v>6.258544133239887e-72</v>
       </c>
     </row>
     <row r="391">
@@ -4665,7 +4665,7 @@
         <v>4.111767027907051</v>
       </c>
       <c r="C391" t="n">
-        <v>5.989695192266616e-72</v>
+        <v>5.884448467612967e-72</v>
       </c>
     </row>
     <row r="392">
@@ -4676,7 +4676,7 @@
         <v>4.112684235389915</v>
       </c>
       <c r="C392" t="n">
-        <v>5.638677663651218e-72</v>
+        <v>5.542850807959453e-72</v>
       </c>
     </row>
     <row r="393">
@@ -4687,7 +4687,7 @@
         <v>4.11360144287278</v>
       </c>
       <c r="C393" t="n">
-        <v>5.316158931571903e-72</v>
+        <v>5.231295891032214e-72</v>
       </c>
     </row>
     <row r="394">
@@ -4698,7 +4698,7 @@
         <v>4.114518650355645</v>
       </c>
       <c r="C394" t="n">
-        <v>5.020043986254815e-72</v>
+        <v>4.947328453585123e-72</v>
       </c>
     </row>
     <row r="395">
@@ -4709,7 +4709,7 @@
         <v>4.11543585783851</v>
       </c>
       <c r="C395" t="n">
-        <v>4.748237817925747e-72</v>
+        <v>4.68849323237172e-72</v>
       </c>
     </row>
     <row r="396">
@@ -4720,7 +4720,7 @@
         <v>4.116353065321375</v>
       </c>
       <c r="C396" t="n">
-        <v>4.498645416810484e-72</v>
+        <v>4.45233496414553e-72</v>
       </c>
     </row>
     <row r="397">
@@ -4731,7 +4731,7 @@
         <v>4.11727027280424</v>
       </c>
       <c r="C397" t="n">
-        <v>4.269171773134819e-72</v>
+        <v>4.236398385660087e-72</v>
       </c>
     </row>
     <row r="398">
@@ -4742,7 +4742,7 @@
         <v>4.118187480287105</v>
       </c>
       <c r="C398" t="n">
-        <v>4.057721877124541e-72</v>
+        <v>4.038228233668919e-72</v>
       </c>
     </row>
     <row r="399">
@@ -4753,7 +4753,7 @@
         <v>4.11910468776997</v>
       </c>
       <c r="C399" t="n">
-        <v>3.86220071900544e-72</v>
+        <v>3.855369244925562e-72</v>
       </c>
     </row>
     <row r="400">
@@ -4764,7 +4764,7 @@
         <v>4.120021895252835</v>
       </c>
       <c r="C400" t="n">
-        <v>3.680513289003305e-72</v>
+        <v>3.685366156183545e-72</v>
       </c>
     </row>
     <row r="401">
@@ -4775,7 +4775,7 @@
         <v>4.1209391027357</v>
       </c>
       <c r="C401" t="n">
-        <v>3.510564577343927e-72</v>
+        <v>3.525763704196399e-72</v>
       </c>
     </row>
     <row r="402">
@@ -4786,7 +4786,7 @@
         <v>4.121856310218565</v>
       </c>
       <c r="C402" t="n">
-        <v>3.350259574253095e-72</v>
+        <v>3.374106625717655e-72</v>
       </c>
     </row>
     <row r="403">
@@ -4797,7 +4797,7 @@
         <v>4.12277351770143</v>
       </c>
       <c r="C403" t="n">
-        <v>3.1975032699566e-72</v>
+        <v>3.227939657500846e-72</v>
       </c>
     </row>
     <row r="404">
@@ -4808,7 +4808,7 @@
         <v>4.123690725184295</v>
       </c>
       <c r="C404" t="n">
-        <v>3.050229119147462e-72</v>
+        <v>3.084844286769268e-72</v>
       </c>
     </row>
     <row r="405">
@@ -4819,7 +4819,7 @@
         <v>4.12460793266716</v>
       </c>
       <c r="C405" t="n">
-        <v>2.907361274657529e-72</v>
+        <v>2.943681090978263e-72</v>
       </c>
     </row>
     <row r="406">
@@ -4830,7 +4830,7 @@
         <v>4.125525140150025</v>
       </c>
       <c r="C406" t="n">
-        <v>2.769047560529709e-72</v>
+        <v>2.804890529317055e-72</v>
       </c>
     </row>
     <row r="407">
@@ -4841,7 +4841,7 @@
         <v>4.12644234763289</v>
       </c>
       <c r="C407" t="n">
-        <v>2.635511512385881e-72</v>
+        <v>2.669010812184153e-72</v>
       </c>
     </row>
     <row r="408">
@@ -4852,7 +4852,7 @@
         <v>4.127359555115754</v>
       </c>
       <c r="C408" t="n">
-        <v>2.506976665847924e-72</v>
+        <v>2.536580149978068e-72</v>
       </c>
     </row>
     <row r="409">
@@ -4863,7 +4863,7 @@
         <v>4.128276762598619</v>
       </c>
       <c r="C409" t="n">
-        <v>2.383666556537718e-72</v>
+        <v>2.408136753097312e-72</v>
       </c>
     </row>
     <row r="410">
@@ -4874,7 +4874,7 @@
         <v>4.129193970081484</v>
       </c>
       <c r="C410" t="n">
-        <v>2.26580472007714e-72</v>
+        <v>2.284218831940392e-72</v>
       </c>
     </row>
     <row r="411">
@@ -4885,7 +4885,7 @@
         <v>4.130111177564349</v>
       </c>
       <c r="C411" t="n">
-        <v>2.153614692088069e-72</v>
+        <v>2.165364596905822e-72</v>
       </c>
     </row>
     <row r="412">
@@ -4896,7 +4896,7 @@
         <v>4.131028385047214</v>
       </c>
       <c r="C412" t="n">
-        <v>2.047320008192383e-72</v>
+        <v>2.05211225839211e-72</v>
       </c>
     </row>
     <row r="413">
@@ -4907,7 +4907,7 @@
         <v>4.131945592530079</v>
       </c>
       <c r="C413" t="n">
-        <v>1.947144204011961e-72</v>
+        <v>1.945000026797767e-72</v>
       </c>
     </row>
     <row r="414">
@@ -4918,7 +4918,7 @@
         <v>4.132862800012944</v>
       </c>
       <c r="C414" t="n">
-        <v>1.853310815168681e-72</v>
+        <v>1.844566112521304e-72</v>
       </c>
     </row>
     <row r="415">
@@ -4929,7 +4929,7 @@
         <v>4.133780007495809</v>
       </c>
       <c r="C415" t="n">
-        <v>1.766043377284423e-72</v>
+        <v>1.751348725961232e-72</v>
       </c>
     </row>
     <row r="416">
@@ -4940,7 +4940,7 @@
         <v>4.134697214978674</v>
       </c>
       <c r="C416" t="n">
-        <v>1.685457237824023e-72</v>
+        <v>1.665722479910741e-72</v>
       </c>
     </row>
     <row r="417">
@@ -4951,7 +4951,7 @@
         <v>4.135614422461539</v>
       </c>
       <c r="C417" t="n">
-        <v>1.611128297939048e-72</v>
+        <v>1.587246259014371e-72</v>
       </c>
     </row>
     <row r="418">
@@ -4962,7 +4962,7 @@
         <v>4.136531629944404</v>
       </c>
       <c r="C418" t="n">
-        <v>1.542464657197485e-72</v>
+        <v>1.515225205381497e-72</v>
       </c>
     </row>
     <row r="419">
@@ -4973,7 +4973,7 @@
         <v>4.137448837427269</v>
       </c>
       <c r="C419" t="n">
-        <v>1.478874361787697e-72</v>
+        <v>1.448964380403061e-72</v>
       </c>
     </row>
     <row r="420">
@@ -4984,7 +4984,7 @@
         <v>4.138366044910134</v>
       </c>
       <c r="C420" t="n">
-        <v>1.419765457898048e-72</v>
+        <v>1.387768845470004e-72</v>
       </c>
     </row>
     <row r="421">
@@ -4995,7 +4995,7 @@
         <v>4.139283252392999</v>
       </c>
       <c r="C421" t="n">
-        <v>1.3645459917169e-72</v>
+        <v>1.330943661973264e-72</v>
       </c>
     </row>
     <row r="422">
@@ -5006,7 +5006,7 @@
         <v>4.140200459875864</v>
       </c>
       <c r="C422" t="n">
-        <v>1.312624009432615e-72</v>
+        <v>1.277793891303784e-72</v>
       </c>
     </row>
     <row r="423">
@@ -5017,7 +5017,7 @@
         <v>4.141117667358729</v>
       </c>
       <c r="C423" t="n">
-        <v>1.263421461629978e-72</v>
+        <v>1.227640989013029e-72</v>
       </c>
     </row>
     <row r="424">
@@ -5028,7 +5028,7 @@
         <v>4.142034874841594</v>
       </c>
       <c r="C424" t="n">
-        <v>1.216620941954463e-72</v>
+        <v>1.180113725263443e-72</v>
       </c>
     </row>
     <row r="425">
@@ -5039,7 +5039,7 @@
         <v>4.142952082324459</v>
       </c>
       <c r="C425" t="n">
-        <v>1.172136526503077e-72</v>
+        <v>1.135113802630679e-72</v>
       </c>
     </row>
     <row r="426">
@@ -5050,7 +5050,7 @@
         <v>4.143869289807323</v>
       </c>
       <c r="C426" t="n">
-        <v>1.12989033789853e-72</v>
+        <v>1.092552411051802e-72</v>
       </c>
     </row>
     <row r="427">
@@ -5061,7 +5061,7 @@
         <v>4.144786497290188</v>
       </c>
       <c r="C427" t="n">
-        <v>1.089804498763535e-72</v>
+        <v>1.052340740463877e-72</v>
       </c>
     </row>
     <row r="428">
@@ -5072,7 +5072,7 @@
         <v>4.145703704773053</v>
       </c>
       <c r="C428" t="n">
-        <v>1.051801131720804e-72</v>
+        <v>1.014389980803973e-72</v>
       </c>
     </row>
     <row r="429">
@@ -5083,7 +5083,7 @@
         <v>4.146620912255917</v>
       </c>
       <c r="C429" t="n">
-        <v>1.015802359393081e-72</v>
+        <v>9.786113220091878e-73</v>
       </c>
     </row>
     <row r="430">
@@ -5094,7 +5094,7 @@
         <v>4.147538119738782</v>
       </c>
       <c r="C430" t="n">
-        <v>9.817303044030087e-73</v>
+        <v>9.4491595401652e-73</v>
       </c>
     </row>
     <row r="431">
@@ -5105,7 +5105,7 @@
         <v>4.148455327221647</v>
       </c>
       <c r="C431" t="n">
-        <v>9.49507089373336e-73</v>
+        <v>9.132150667630716e-73</v>
       </c>
     </row>
     <row r="432">
@@ -5116,7 +5116,7 @@
         <v>4.149372534704512</v>
       </c>
       <c r="C432" t="n">
-        <v>9.190548369267734e-73</v>
+        <v>8.834198501859084e-73</v>
       </c>
     </row>
     <row r="433">
@@ -5127,7 +5127,7 @@
         <v>4.150289742187377</v>
       </c>
       <c r="C433" t="n">
-        <v>8.902956696860335e-73</v>
+        <v>8.554414942220975e-73</v>
       </c>
     </row>
     <row r="434">
@@ -5138,7 +5138,7 @@
         <v>4.151206949670242</v>
       </c>
       <c r="C434" t="n">
-        <v>8.631517102738277e-73</v>
+        <v>8.291911888087046e-73</v>
       </c>
     </row>
     <row r="435">
@@ -5149,7 +5149,7 @@
         <v>4.152124157153107</v>
       </c>
       <c r="C435" t="n">
-        <v>8.375450813128678e-73</v>
+        <v>8.045801238827966e-73</v>
       </c>
     </row>
     <row r="436">
@@ -5160,7 +5160,7 @@
         <v>4.153041364635972</v>
       </c>
       <c r="C436" t="n">
-        <v>8.133979054258657e-73</v>
+        <v>7.815194893814399e-73</v>
       </c>
     </row>
     <row r="437">
@@ -5171,7 +5171,7 @@
         <v>4.153958572118837</v>
       </c>
       <c r="C437" t="n">
-        <v>7.906323052355331e-73</v>
+        <v>7.599204752417009e-73</v>
       </c>
     </row>
     <row r="438">
@@ -5182,7 +5182,7 @@
         <v>4.154875779601702</v>
       </c>
       <c r="C438" t="n">
-        <v>7.691704033645817e-73</v>
+        <v>7.396942714006455e-73</v>
       </c>
     </row>
     <row r="439">
@@ -5193,7 +5193,7 @@
         <v>4.155792987084567</v>
       </c>
       <c r="C439" t="n">
-        <v>7.489343224357234e-73</v>
+        <v>7.207520677953407e-73</v>
       </c>
     </row>
     <row r="440">
@@ -5204,7 +5204,7 @@
         <v>4.156710194567432</v>
       </c>
       <c r="C440" t="n">
-        <v>7.298461850716701e-73</v>
+        <v>7.03005054362853e-73</v>
       </c>
     </row>
     <row r="441">
@@ -5215,7 +5215,7 @@
         <v>4.157627402050297</v>
       </c>
       <c r="C441" t="n">
-        <v>7.118281138951334e-73</v>
+        <v>6.863644210402483e-73</v>
       </c>
     </row>
     <row r="442">
@@ -5226,7 +5226,7 @@
         <v>4.158544609533162</v>
       </c>
       <c r="C442" t="n">
-        <v>6.948022315288253e-73</v>
+        <v>6.707413577645937e-73</v>
       </c>
     </row>
     <row r="443">
@@ -5237,7 +5237,7 @@
         <v>4.159461817016027</v>
       </c>
       <c r="C443" t="n">
-        <v>6.786906605954575e-73</v>
+        <v>6.560470544729548e-73</v>
       </c>
     </row>
     <row r="444">
@@ -5248,7 +5248,7 @@
         <v>4.160379024498892</v>
       </c>
       <c r="C444" t="n">
-        <v>6.63415523717742e-73</v>
+        <v>6.421927011023986e-73</v>
       </c>
     </row>
     <row r="445">
@@ -5259,7 +5259,7 @@
         <v>4.161296231981757</v>
       </c>
       <c r="C445" t="n">
-        <v>6.488989435183901e-73</v>
+        <v>6.290894875899916e-73</v>
       </c>
     </row>
     <row r="446">
@@ -5270,7 +5270,7 @@
         <v>4.162213439464622</v>
       </c>
       <c r="C446" t="n">
-        <v>6.350630426201139e-73</v>
+        <v>6.166486038727997e-73</v>
       </c>
     </row>
     <row r="447">
@@ -5281,7 +5281,7 @@
         <v>4.163130646947486</v>
       </c>
       <c r="C447" t="n">
-        <v>6.218299436456252e-73</v>
+        <v>6.047812398878895e-73</v>
       </c>
     </row>
     <row r="448">
@@ -5292,7 +5292,7 @@
         <v>4.164047854430351</v>
       </c>
       <c r="C448" t="n">
-        <v>6.091217692176358e-73</v>
+        <v>5.933985855723279e-73</v>
       </c>
     </row>
     <row r="449">
@@ -5303,7 +5303,7 @@
         <v>4.164965061913216</v>
       </c>
       <c r="C449" t="n">
-        <v>5.968606419588574e-73</v>
+        <v>5.824118308631805e-73</v>
       </c>
     </row>
     <row r="450">
@@ -5314,7 +5314,7 @@
         <v>4.165882269396081</v>
       </c>
       <c r="C450" t="n">
-        <v>5.849686844920023e-73</v>
+        <v>5.717321656975144e-73</v>
       </c>
     </row>
     <row r="451">
@@ -5325,7 +5325,7 @@
         <v>4.166799476878946</v>
       </c>
       <c r="C451" t="n">
-        <v>5.733710099486083e-73</v>
+        <v>5.612742814336561e-73</v>
       </c>
     </row>
     <row r="452">
@@ -5336,7 +5336,7 @@
         <v>4.167716684361811</v>
       </c>
       <c r="C452" t="n">
-        <v>5.620359914409692e-73</v>
+        <v>5.510035201469492e-73</v>
       </c>
     </row>
     <row r="453">
@@ -5347,7 +5347,7 @@
         <v>4.168633891844676</v>
       </c>
       <c r="C453" t="n">
-        <v>5.509645592467471e-73</v>
+        <v>5.409233432956242e-73</v>
       </c>
     </row>
     <row r="454">
@@ -5358,7 +5358,7 @@
         <v>4.169551099327541</v>
       </c>
       <c r="C454" t="n">
-        <v>5.401584392331286e-73</v>
+        <v>5.310381438496478e-73</v>
       </c>
     </row>
     <row r="455">
@@ -5369,7 +5369,7 @@
         <v>4.170468306810406</v>
       </c>
       <c r="C455" t="n">
-        <v>5.296193572672999e-73</v>
+        <v>5.213523147789878e-73</v>
       </c>
     </row>
     <row r="456">
@@ -5380,7 +5380,7 @@
         <v>4.171385514293271</v>
       </c>
       <c r="C456" t="n">
-        <v>5.193490392164469e-73</v>
+        <v>5.11870249053611e-73</v>
       </c>
     </row>
     <row r="457">
@@ -5391,7 +5391,7 @@
         <v>4.172302721776136</v>
       </c>
       <c r="C457" t="n">
-        <v>5.093492109477561e-73</v>
+        <v>5.025963396434848e-73</v>
       </c>
     </row>
     <row r="458">
@@ -5402,7 +5402,7 @@
         <v>4.173219929259001</v>
       </c>
       <c r="C458" t="n">
-        <v>4.996215983284136e-73</v>
+        <v>4.935349795185761e-73</v>
       </c>
     </row>
     <row r="459">
@@ -5413,7 +5413,7 @@
         <v>4.174137136741866</v>
       </c>
       <c r="C459" t="n">
-        <v>4.901679272256055e-73</v>
+        <v>4.846905616488522e-73</v>
       </c>
     </row>
     <row r="460">
@@ -5424,7 +5424,7 @@
         <v>4.175054344224731</v>
       </c>
       <c r="C460" t="n">
-        <v>4.809899235065181e-73</v>
+        <v>4.760674790042804e-73</v>
       </c>
     </row>
     <row r="461">
@@ -5435,7 +5435,7 @@
         <v>4.175971551707596</v>
       </c>
       <c r="C461" t="n">
-        <v>4.720893130383375e-73</v>
+        <v>4.676701245548276e-73</v>
       </c>
     </row>
     <row r="462">
@@ -5446,7 +5446,7 @@
         <v>4.176888759190461</v>
       </c>
       <c r="C462" t="n">
-        <v>4.6346782168825e-73</v>
+        <v>4.595028912704611e-73</v>
       </c>
     </row>
     <row r="463">
@@ -5457,7 +5457,7 @@
         <v>4.177805966673326</v>
       </c>
       <c r="C463" t="n">
-        <v>4.551271753234418e-73</v>
+        <v>4.515701721211484e-73</v>
       </c>
     </row>
     <row r="464">
@@ -5468,7 +5468,7 @@
         <v>4.178723174156191</v>
       </c>
       <c r="C464" t="n">
-        <v>4.470690998110989e-73</v>
+        <v>4.438763600768559e-73</v>
       </c>
     </row>
     <row r="465">
@@ -5479,7 +5479,7 @@
         <v>4.179640381639055</v>
       </c>
       <c r="C465" t="n">
-        <v>4.392953210184077e-73</v>
+        <v>4.364258481075516e-73</v>
       </c>
     </row>
     <row r="466">
@@ -5490,7 +5490,7 @@
         <v>4.18055758912192</v>
       </c>
       <c r="C466" t="n">
-        <v>4.318075648125615e-73</v>
+        <v>4.292230291832091e-73</v>
       </c>
     </row>
     <row r="467">
@@ -5501,7 +5501,7 @@
         <v>4.181474796604784</v>
       </c>
       <c r="C467" t="n">
-        <v>4.246075570607318e-73</v>
+        <v>4.222722962737817e-73</v>
       </c>
     </row>
     <row r="468">
@@ -5512,7 +5512,7 @@
         <v>4.182392004087649</v>
       </c>
       <c r="C468" t="n">
-        <v>4.176970236301125e-73</v>
+        <v>4.155780423492437e-73</v>
       </c>
     </row>
     <row r="469">
@@ -5523,7 +5523,7 @@
         <v>4.183309211570514</v>
       </c>
       <c r="C469" t="n">
-        <v>4.110776903878894e-73</v>
+        <v>4.091446603795622e-73</v>
       </c>
     </row>
     <row r="470">
@@ -5534,7 +5534,7 @@
         <v>4.184226419053379</v>
       </c>
       <c r="C470" t="n">
-        <v>4.04751283201249e-73</v>
+        <v>4.029765433347044e-73</v>
       </c>
     </row>
     <row r="471">
@@ -5545,7 +5545,7 @@
         <v>4.185143626536244</v>
       </c>
       <c r="C471" t="n">
-        <v>3.987195279373772e-73</v>
+        <v>3.970780841846373e-73</v>
       </c>
     </row>
     <row r="472">
@@ -5556,7 +5556,7 @@
         <v>4.186060834019109</v>
       </c>
       <c r="C472" t="n">
-        <v>3.929841504634606e-73</v>
+        <v>3.914536758993286e-73</v>
       </c>
     </row>
     <row r="473">
@@ -5567,7 +5567,7 @@
         <v>4.186978041501974</v>
       </c>
       <c r="C473" t="n">
-        <v>3.875468766466852e-73</v>
+        <v>3.86107711448745e-73</v>
       </c>
     </row>
     <row r="474">
@@ -5578,7 +5578,7 @@
         <v>4.187895248984839</v>
       </c>
       <c r="C474" t="n">
-        <v>3.82409432354237e-73</v>
+        <v>3.810445838028538e-73</v>
       </c>
     </row>
     <row r="475">
@@ -5589,7 +5589,7 @@
         <v>4.188812456467704</v>
       </c>
       <c r="C475" t="n">
-        <v>3.775735434533024e-73</v>
+        <v>3.762686859316221e-73</v>
       </c>
     </row>
     <row r="476">
@@ -5600,7 +5600,7 @@
         <v>4.189729663950569</v>
       </c>
       <c r="C476" t="n">
-        <v>3.730409358110677e-73</v>
+        <v>3.717844108050173e-73</v>
       </c>
     </row>
     <row r="477">
@@ -5611,7 +5611,7 @@
         <v>4.190646871433434</v>
       </c>
       <c r="C477" t="n">
-        <v>3.688133352947187e-73</v>
+        <v>3.675961513930063e-73</v>
       </c>
     </row>
     <row r="478">
@@ -5622,7 +5622,7 @@
         <v>4.191564078916299</v>
       </c>
       <c r="C478" t="n">
-        <v>3.64892467771442e-73</v>
+        <v>3.637083006655564e-73</v>
       </c>
     </row>
     <row r="479">
@@ -5633,7 +5633,7 @@
         <v>4.192481286399164</v>
       </c>
       <c r="C479" t="n">
-        <v>3.612800591084236e-73</v>
+        <v>3.601252515926349e-73</v>
       </c>
     </row>
     <row r="480">
@@ -5644,7 +5644,7 @@
         <v>4.193398493882029</v>
       </c>
       <c r="C480" t="n">
-        <v>3.579778351728496e-73</v>
+        <v>3.568513971442087e-73</v>
       </c>
     </row>
     <row r="481">
@@ -5655,7 +5655,7 @@
         <v>4.194315701364894</v>
       </c>
       <c r="C481" t="n">
-        <v>3.549875218319066e-73</v>
+        <v>3.538911302902453e-73</v>
       </c>
     </row>
     <row r="482">
@@ -5666,7 +5666,7 @@
         <v>4.195232908847759</v>
       </c>
       <c r="C482" t="n">
-        <v>3.523108449527803e-73</v>
+        <v>3.512488440007115e-73</v>
       </c>
     </row>
     <row r="483">
@@ -5677,7 +5677,7 @@
         <v>4.196150116330624</v>
       </c>
       <c r="C483" t="n">
-        <v>3.499495304026572e-73</v>
+        <v>3.489289312455748e-73</v>
       </c>
     </row>
     <row r="484">
@@ -5688,7 +5688,7 @@
         <v>4.197067323813489</v>
       </c>
       <c r="C484" t="n">
-        <v>3.479053040487233e-73</v>
+        <v>3.469357849948022e-73</v>
       </c>
     </row>
     <row r="485">
@@ -5699,7 +5699,7 @@
         <v>4.197984531296354</v>
       </c>
       <c r="C485" t="n">
-        <v>3.461798917581649e-73</v>
+        <v>3.452737982183609e-73</v>
       </c>
     </row>
     <row r="486">
@@ -5710,7 +5710,7 @@
         <v>4.198901738779218</v>
       </c>
       <c r="C486" t="n">
-        <v>3.447750193981682e-73</v>
+        <v>3.43947363886218e-73</v>
       </c>
     </row>
     <row r="487">
@@ -5721,7 +5721,7 @@
         <v>4.199818946262083</v>
       </c>
       <c r="C487" t="n">
-        <v>3.436924128359194e-73</v>
+        <v>3.429608749683409e-73</v>
       </c>
     </row>
     <row r="488">
@@ -5732,7 +5732,7 @@
         <v>4.200736153744948</v>
       </c>
       <c r="C488" t="n">
-        <v>3.429335789720054e-73</v>
+        <v>3.423184723781532e-73</v>
       </c>
     </row>
     <row r="489">
@@ -5743,7 +5743,7 @@
         <v>4.201653361227813</v>
       </c>
       <c r="C489" t="n">
-        <v>3.424863959970394e-73</v>
+        <v>3.420086087664002e-73</v>
       </c>
     </row>
     <row r="490">
@@ -5754,7 +5754,7 @@
         <v>4.202570568710678</v>
       </c>
       <c r="C490" t="n">
-        <v>3.423173305026552e-73</v>
+        <v>3.419950894922053e-73</v>
       </c>
     </row>
     <row r="491">
@@ -5765,7 +5765,7 @@
         <v>4.203487776193543</v>
       </c>
       <c r="C491" t="n">
-        <v>3.423909732537294e-73</v>
+        <v>3.422395606154653e-73</v>
       </c>
     </row>
     <row r="492">
@@ -5776,7 +5776,7 @@
         <v>4.204404983676408</v>
       </c>
       <c r="C492" t="n">
-        <v>3.426719150151384e-73</v>
+        <v>3.427036681960766e-73</v>
       </c>
     </row>
     <row r="493">
@@ -5787,7 +5787,7 @@
         <v>4.205322191159273</v>
       </c>
       <c r="C493" t="n">
-        <v>3.431247465517584e-73</v>
+        <v>3.433490582939358e-73</v>
       </c>
     </row>
     <row r="494">
@@ -5798,7 +5798,7 @@
         <v>4.206239398642138</v>
       </c>
       <c r="C494" t="n">
-        <v>3.437140586284663e-73</v>
+        <v>3.441373769689393e-73</v>
       </c>
     </row>
     <row r="495">
@@ -5809,7 +5809,7 @@
         <v>4.207156606125003</v>
       </c>
       <c r="C495" t="n">
-        <v>3.444044420101381e-73</v>
+        <v>3.450302702809838e-73</v>
       </c>
     </row>
     <row r="496">
@@ -5820,7 +5820,7 @@
         <v>4.208073813607868</v>
       </c>
       <c r="C496" t="n">
-        <v>3.451604874616505e-73</v>
+        <v>3.459893842899657e-73</v>
       </c>
     </row>
     <row r="497">
@@ -5831,7 +5831,7 @@
         <v>4.208991021090733</v>
       </c>
       <c r="C497" t="n">
-        <v>3.459467857478799e-73</v>
+        <v>3.469763650557819e-73</v>
       </c>
     </row>
     <row r="498">
@@ -5842,7 +5842,7 @@
         <v>4.209908228573598</v>
       </c>
       <c r="C498" t="n">
-        <v>3.467279276337029e-73</v>
+        <v>3.479528586383287e-73</v>
       </c>
     </row>
     <row r="499">
@@ -5853,7 +5853,7 @@
         <v>4.210825436056463</v>
       </c>
       <c r="C499" t="n">
-        <v>3.474685038839956e-73</v>
+        <v>3.488805110975026e-73</v>
       </c>
     </row>
     <row r="500">
@@ -5864,7 +5864,7 @@
         <v>4.211742643539328</v>
       </c>
       <c r="C500" t="n">
-        <v>3.481331052636347e-73</v>
+        <v>3.497209684932001e-73</v>
       </c>
     </row>
     <row r="501">
@@ -5875,7 +5875,7 @@
         <v>4.212659851022193</v>
       </c>
       <c r="C501" t="n">
-        <v>3.486863225374964e-73</v>
+        <v>3.50435876885318e-73</v>
       </c>
     </row>
     <row r="502">
@@ -5886,7 +5886,7 @@
         <v>4.213577058505058</v>
       </c>
       <c r="C502" t="n">
-        <v>3.490927464704575e-73</v>
+        <v>3.509868823337527e-73</v>
       </c>
     </row>
     <row r="503">
@@ -5897,7 +5897,7 @@
         <v>4.214494265987922</v>
       </c>
       <c r="C503" t="n">
-        <v>3.493169678273941e-73</v>
+        <v>3.513356308984006e-73</v>
       </c>
     </row>
     <row r="504">
@@ -5908,7 +5908,7 @@
         <v>4.215411473470787</v>
       </c>
       <c r="C504" t="n">
-        <v>3.49323577373183e-73</v>
+        <v>3.514437686391588e-73</v>
       </c>
     </row>
     <row r="505">
@@ -5919,7 +5919,7 @@
         <v>4.216328680953652</v>
       </c>
       <c r="C505" t="n">
-        <v>3.490771658727006e-73</v>
+        <v>3.512729416159236e-73</v>
       </c>
     </row>
     <row r="506">
@@ -5930,7 +5930,7 @@
         <v>4.217245888436516</v>
       </c>
       <c r="C506" t="n">
-        <v>3.485423240908233e-73</v>
+        <v>3.507847958885914e-73</v>
       </c>
     </row>
     <row r="507">
@@ -5941,7 +5941,7 @@
         <v>4.218163095919381</v>
       </c>
       <c r="C507" t="n">
-        <v>3.476849087428716e-73</v>
+        <v>3.499423447353451e-73</v>
       </c>
     </row>
     <row r="508">
@@ -5952,7 +5952,7 @@
         <v>4.219080303402246</v>
       </c>
       <c r="C508" t="n">
-        <v>3.465071954065489e-73</v>
+        <v>3.487479335700267e-73</v>
       </c>
     </row>
     <row r="509">
@@ -5963,7 +5963,7 @@
         <v>4.219997510885111</v>
       </c>
       <c r="C509" t="n">
-        <v>3.450524663263505e-73</v>
+        <v>3.47248194741207e-73</v>
       </c>
     </row>
     <row r="510">
@@ -5974,7 +5974,7 @@
         <v>4.220914718367976</v>
       </c>
       <c r="C510" t="n">
-        <v>3.433661913091399e-73</v>
+        <v>3.454921231506555e-73</v>
       </c>
     </row>
     <row r="511">
@@ -5985,7 +5985,7 @@
         <v>4.221831925850841</v>
       </c>
       <c r="C511" t="n">
-        <v>3.414938401617803e-73</v>
+        <v>3.435287137001414e-73</v>
       </c>
     </row>
     <row r="512">
@@ -5996,7 +5996,7 @@
         <v>4.222749133333706</v>
       </c>
       <c r="C512" t="n">
-        <v>3.394808826911352e-73</v>
+        <v>3.414069612914343e-73</v>
       </c>
     </row>
     <row r="513">
@@ -6007,7 +6007,7 @@
         <v>4.223666340816571</v>
       </c>
       <c r="C513" t="n">
-        <v>3.373727887040679e-73</v>
+        <v>3.391758608263035e-73</v>
       </c>
     </row>
     <row r="514">
@@ -6018,7 +6018,7 @@
         <v>4.224583548299436</v>
       </c>
       <c r="C514" t="n">
-        <v>3.352150280074418e-73</v>
+        <v>3.368844072065186e-73</v>
       </c>
     </row>
     <row r="515">
@@ -6029,7 +6029,7 @@
         <v>4.225500755782301</v>
       </c>
       <c r="C515" t="n">
-        <v>3.330530704081204e-73</v>
+        <v>3.345815953338488e-73</v>
       </c>
     </row>
     <row r="516">
@@ -6040,7 +6040,7 @@
         <v>4.226417963265166</v>
       </c>
       <c r="C516" t="n">
-        <v>3.309323857129667e-73</v>
+        <v>3.323164201100635e-73</v>
       </c>
     </row>
     <row r="517">
@@ -6051,7 +6051,7 @@
         <v>4.227335170748031</v>
       </c>
       <c r="C517" t="n">
-        <v>3.288984437288444e-73</v>
+        <v>3.301378764369324e-73</v>
       </c>
     </row>
     <row r="518">
@@ -6062,7 +6062,7 @@
         <v>4.228252378230896</v>
       </c>
       <c r="C518" t="n">
-        <v>3.269967142626166e-73</v>
+        <v>3.280949592162247e-73</v>
       </c>
     </row>
     <row r="519">
@@ -6073,7 +6073,7 @@
         <v>4.229169585713761</v>
       </c>
       <c r="C519" t="n">
-        <v>3.252726671211468e-73</v>
+        <v>3.262366633497098e-73</v>
       </c>
     </row>
     <row r="520">
@@ -6084,7 +6084,7 @@
         <v>4.230086793196626</v>
       </c>
       <c r="C520" t="n">
-        <v>3.237717721112983e-73</v>
+        <v>3.246119837391573e-73</v>
       </c>
     </row>
     <row r="521">
@@ -6095,7 +6095,7 @@
         <v>4.231004000679491</v>
       </c>
       <c r="C521" t="n">
-        <v>3.225394990399345e-73</v>
+        <v>3.232699152863365e-73</v>
       </c>
     </row>
     <row r="522">
@@ -6106,7 +6106,7 @@
         <v>4.231921208162356</v>
       </c>
       <c r="C522" t="n">
-        <v>3.216196698034819e-73</v>
+        <v>3.222577501535787e-73</v>
       </c>
     </row>
     <row r="523">
@@ -6117,7 +6117,7 @@
         <v>4.232838415645221</v>
       </c>
       <c r="C523" t="n">
-        <v>3.209962309190723e-73</v>
+        <v>3.215609129602883e-73</v>
       </c>
     </row>
     <row r="524">
@@ -6128,7 +6128,7 @@
         <v>4.233755623128086</v>
       </c>
       <c r="C524" t="n">
-        <v>3.205776878519593e-73</v>
+        <v>3.210868772118969e-73</v>
       </c>
     </row>
     <row r="525">
@@ -6139,7 +6139,7 @@
         <v>4.23467283061095</v>
       </c>
       <c r="C525" t="n">
-        <v>3.202677328159038e-73</v>
+        <v>3.207381430166428e-73</v>
       </c>
     </row>
     <row r="526">
@@ -6150,7 +6150,7 @@
         <v>4.235590038093815</v>
       </c>
       <c r="C526" t="n">
-        <v>3.199700580246671e-73</v>
+        <v>3.204172104827646e-73</v>
       </c>
     </row>
     <row r="527">
@@ -6161,7 +6161,7 @@
         <v>4.23650724557668</v>
       </c>
       <c r="C527" t="n">
-        <v>3.195883556920101e-73</v>
+        <v>3.200265797185006e-73</v>
       </c>
     </row>
     <row r="528">
@@ -6172,7 +6172,7 @@
         <v>4.237424453059545</v>
       </c>
       <c r="C528" t="n">
-        <v>3.190263180316941e-73</v>
+        <v>3.194687508320892e-73</v>
       </c>
     </row>
     <row r="529">
@@ -6183,7 +6183,7 @@
         <v>4.23834166054241</v>
       </c>
       <c r="C529" t="n">
-        <v>3.181876372574799e-73</v>
+        <v>3.186462239317688e-73</v>
       </c>
     </row>
     <row r="530">
@@ -6194,7 +6194,7 @@
         <v>4.239258868025275</v>
       </c>
       <c r="C530" t="n">
-        <v>3.169760055831288e-73</v>
+        <v>3.174614991257781e-73</v>
       </c>
     </row>
     <row r="531">
@@ -6205,7 +6205,7 @@
         <v>4.24017607550814</v>
       </c>
       <c r="C531" t="n">
-        <v>3.152951152224018e-73</v>
+        <v>3.158170765223551e-73</v>
       </c>
     </row>
     <row r="532">
@@ -6216,7 +6216,7 @@
         <v>4.241093282991005</v>
       </c>
       <c r="C532" t="n">
-        <v>3.130504888599029e-73</v>
+        <v>3.136172892779402e-73</v>
       </c>
     </row>
     <row r="533">
@@ -6227,7 +6227,7 @@
         <v>4.24201049047387</v>
       </c>
       <c r="C533" t="n">
-        <v>3.102132051133979e-73</v>
+        <v>3.108321187868822e-73</v>
       </c>
     </row>
     <row r="534">
@@ -6238,7 +6238,7 @@
         <v>4.242927697956735</v>
       </c>
       <c r="C534" t="n">
-        <v>3.068363950809369e-73</v>
+        <v>3.075137144562027e-73</v>
       </c>
     </row>
     <row r="535">
@@ -6249,7 +6249,7 @@
         <v>4.2438449054396</v>
       </c>
       <c r="C535" t="n">
-        <v>3.029783718345276e-73</v>
+        <v>3.037194149632572e-73</v>
       </c>
     </row>
     <row r="536">
@@ -6260,7 +6260,7 @@
         <v>4.244762112922465</v>
       </c>
       <c r="C536" t="n">
-        <v>2.986974484461779e-73</v>
+        <v>2.995065589854016e-73</v>
       </c>
     </row>
     <row r="537">
@@ -6271,7 +6271,7 @@
         <v>4.24567932040533</v>
       </c>
       <c r="C537" t="n">
-        <v>2.940519379878953e-73</v>
+        <v>2.949324851999916e-73</v>
       </c>
     </row>
     <row r="538">
@@ -6282,7 +6282,7 @@
         <v>4.246596527888195</v>
       </c>
       <c r="C538" t="n">
-        <v>2.891001535316877e-73</v>
+        <v>2.900545322843828e-73</v>
       </c>
     </row>
     <row r="539">
@@ -6293,7 +6293,7 @@
         <v>4.24751373537106</v>
       </c>
       <c r="C539" t="n">
-        <v>2.839004081495629e-73</v>
+        <v>2.849300389159312e-73</v>
       </c>
     </row>
     <row r="540">
@@ -6304,7 +6304,7 @@
         <v>4.248430942853924</v>
       </c>
       <c r="C540" t="n">
-        <v>2.785110149135339e-73</v>
+        <v>2.796163437719977e-73</v>
       </c>
     </row>
     <row r="541">
@@ -6315,7 +6315,7 @@
         <v>4.249348150336789</v>
       </c>
       <c r="C541" t="n">
-        <v>2.729902868955979e-73</v>
+        <v>2.741707855299276e-73</v>
       </c>
     </row>
     <row r="542">
@@ -6326,7 +6326,7 @@
         <v>4.250265357819654</v>
       </c>
       <c r="C542" t="n">
-        <v>2.673965371677677e-73</v>
+        <v>2.686507028670817e-73</v>
       </c>
     </row>
     <row r="543">
@@ -6337,7 +6337,7 @@
         <v>4.251182565302519</v>
       </c>
       <c r="C543" t="n">
-        <v>2.617880788020512e-73</v>
+        <v>2.631134344608159e-73</v>
       </c>
     </row>
     <row r="544">
@@ -6348,7 +6348,7 @@
         <v>4.252099772785384</v>
       </c>
       <c r="C544" t="n">
-        <v>2.562232248704561e-73</v>
+        <v>2.576163189884858e-73</v>
       </c>
     </row>
     <row r="545">
@@ -6359,7 +6359,7 @@
         <v>4.253016980268248</v>
       </c>
       <c r="C545" t="n">
-        <v>2.50749708361454e-73</v>
+        <v>2.522059223000052e-73</v>
       </c>
     </row>
     <row r="546">
@@ -6370,7 +6370,7 @@
         <v>4.253934187751113</v>
       </c>
       <c r="C546" t="n">
-        <v>2.453569675121045e-73</v>
+        <v>2.468694535024427e-73</v>
       </c>
     </row>
     <row r="547">
@@ -6381,7 +6381,7 @@
         <v>4.254851395233978</v>
       </c>
       <c r="C547" t="n">
-        <v>2.40014471056829e-73</v>
+        <v>2.415737884034848e-73</v>
       </c>
     </row>
     <row r="548">
@@ -6392,7 +6392,7 @@
         <v>4.255768602716843</v>
       </c>
       <c r="C548" t="n">
-        <v>2.3469167006043e-73</v>
+        <v>2.362857848193008e-73</v>
       </c>
     </row>
     <row r="549">
@@ -6403,7 +6403,7 @@
         <v>4.256685810199708</v>
       </c>
       <c r="C549" t="n">
-        <v>2.293580155877099e-73</v>
+        <v>2.309723005660603e-73</v>
       </c>
     </row>
     <row r="550">
@@ -6414,7 +6414,7 @@
         <v>4.257603017682573</v>
       </c>
       <c r="C550" t="n">
-        <v>2.23982958703471e-73</v>
+        <v>2.256001934599326e-73</v>
       </c>
     </row>
     <row r="551">
@@ -6425,7 +6425,7 @@
         <v>4.258520225165438</v>
       </c>
       <c r="C551" t="n">
-        <v>2.185359504725159e-73</v>
+        <v>2.201363213170871e-73</v>
       </c>
     </row>
     <row r="552">
@@ -6436,7 +6436,7 @@
         <v>4.259437432648303</v>
       </c>
       <c r="C552" t="n">
-        <v>2.12986441959647e-73</v>
+        <v>2.145475419536931e-73</v>
       </c>
     </row>
     <row r="553">
@@ -6447,7 +6447,7 @@
         <v>4.260354640131168</v>
       </c>
       <c r="C553" t="n">
-        <v>2.073038842296666e-73</v>
+        <v>2.088007131859201e-73</v>
       </c>
     </row>
     <row r="554">
@@ -6458,7 +6458,7 @@
         <v>4.261271847614033</v>
       </c>
       <c r="C554" t="n">
-        <v>2.014577283473774e-73</v>
+        <v>2.028626928299374e-73</v>
       </c>
     </row>
     <row r="555">
@@ -6469,7 +6469,7 @@
         <v>4.262189055096898</v>
       </c>
       <c r="C555" t="n">
-        <v>1.954174268222054e-73</v>
+        <v>1.967003407436591e-73</v>
       </c>
     </row>
     <row r="556">
@@ -6480,7 +6480,7 @@
         <v>4.263106262579763</v>
       </c>
       <c r="C556" t="n">
-        <v>1.891623350603761e-73</v>
+        <v>1.902945129446505e-73</v>
       </c>
     </row>
     <row r="557">
@@ -6491,7 +6491,7 @@
         <v>4.264023470062628</v>
       </c>
       <c r="C557" t="n">
-        <v>1.827053569688233e-73</v>
+        <v>1.836734808867397e-73</v>
       </c>
     </row>
     <row r="558">
@@ -6502,7 +6502,7 @@
         <v>4.264940677545493</v>
       </c>
       <c r="C558" t="n">
-        <v>1.760664938916767e-73</v>
+        <v>1.768755471152748e-73</v>
       </c>
     </row>
     <row r="559">
@@ -6513,7 +6513,7 @@
         <v>4.265857885028358</v>
       </c>
       <c r="C559" t="n">
-        <v>1.692657471730652e-73</v>
+        <v>1.69939014175603e-73</v>
       </c>
     </row>
     <row r="560">
@@ -6524,7 +6524,7 @@
         <v>4.266775092511223</v>
       </c>
       <c r="C560" t="n">
-        <v>1.623231181571182e-73</v>
+        <v>1.629021846130726e-73</v>
       </c>
     </row>
     <row r="561">
@@ -6535,7 +6535,7 @@
         <v>4.267692299994088</v>
       </c>
       <c r="C561" t="n">
-        <v>1.552598553429811e-73</v>
+        <v>1.558040008781536e-73</v>
       </c>
     </row>
     <row r="562">
@@ -6546,7 +6546,7 @@
         <v>4.268609507476953</v>
       </c>
       <c r="C562" t="n">
-        <v>1.481340397729471e-73</v>
+        <v>1.48702303900439e-73</v>
       </c>
     </row>
     <row r="563">
@@ -6557,7 +6557,7 @@
         <v>4.269526714959818</v>
       </c>
       <c r="C563" t="n">
-        <v>1.41045776079104e-73</v>
+        <v>1.41676496572572e-73</v>
       </c>
     </row>
     <row r="564">
@@ -6568,7 +6568,7 @@
         <v>4.270443922442682</v>
       </c>
       <c r="C564" t="n">
-        <v>1.340974599189799e-73</v>
+        <v>1.348071572937655e-73</v>
       </c>
     </row>
     <row r="565">
@@ -6579,7 +6579,7 @@
         <v>4.271361129925547</v>
       </c>
       <c r="C565" t="n">
-        <v>1.273914869501028e-73</v>
+        <v>1.281748644632322e-73</v>
       </c>
     </row>
     <row r="566">
@@ -6590,7 +6590,7 @@
         <v>4.272278337408412</v>
       </c>
       <c r="C566" t="n">
-        <v>1.210162984427444e-73</v>
+        <v>1.218490253000111e-73</v>
       </c>
     </row>
     <row r="567">
@@ -6601,7 +6601,7 @@
         <v>4.273195544891277</v>
       </c>
       <c r="C567" t="n">
-        <v>1.149778895368096e-73</v>
+        <v>1.158330448003222e-73</v>
       </c>
     </row>
     <row r="568">
@@ -6612,7 +6612,7 @@
         <v>4.274112752374142</v>
       </c>
       <c r="C568" t="n">
-        <v>1.092520844707475e-73</v>
+        <v>1.101061746550497e-73</v>
       </c>
     </row>
     <row r="569">
@@ -6623,7 +6623,7 @@
         <v>4.275029959857007</v>
       </c>
       <c r="C569" t="n">
-        <v>1.038146624050716e-73</v>
+        <v>1.046476304679512e-73</v>
       </c>
     </row>
     <row r="570">
@@ -6634,7 +6634,7 @@
         <v>4.275947167339872</v>
       </c>
       <c r="C570" t="n">
-        <v>9.864140250029571e-74</v>
+        <v>9.943662784278442e-74</v>
       </c>
     </row>
     <row r="571">
@@ -6645,7 +6645,7 @@
         <v>4.276864374822737</v>
       </c>
       <c r="C571" t="n">
-        <v>9.370808391693351e-74</v>
+        <v>9.4452382383307e-74</v>
       </c>
     </row>
     <row r="572">
@@ -6656,7 +6656,7 @@
         <v>4.277781582305602</v>
       </c>
       <c r="C572" t="n">
-        <v>8.899048581549871e-74</v>
+        <v>8.967410969327666e-74</v>
       </c>
     </row>
     <row r="573">
@@ -6667,7 +6667,7 @@
         <v>4.278698789788467</v>
       </c>
       <c r="C573" t="n">
-        <v>8.446438735650502e-74</v>
+        <v>8.508102537645108e-74</v>
       </c>
     </row>
     <row r="574">
@@ -6678,7 +6678,7 @@
         <v>4.279615997271332</v>
       </c>
       <c r="C574" t="n">
-        <v>8.010556770046619e-74</v>
+        <v>8.065234503658798e-74</v>
       </c>
     </row>
     <row r="575">
@@ -6689,7 +6689,7 @@
         <v>4.280533204754196</v>
       </c>
       <c r="C575" t="n">
-        <v>7.588980600789988e-74</v>
+        <v>7.636728427744904e-74</v>
       </c>
     </row>
     <row r="576">
@@ -6700,7 +6700,7 @@
         <v>4.281450412237062</v>
       </c>
       <c r="C576" t="n">
-        <v>7.179288143930778e-74</v>
+        <v>7.220505870277976e-74</v>
       </c>
     </row>
     <row r="577">
@@ -6711,7 +6711,7 @@
         <v>4.282367619719926</v>
       </c>
       <c r="C577" t="n">
-        <v>6.779324189426324e-74</v>
+        <v>6.814726737176302e-74</v>
       </c>
     </row>
     <row r="578">
@@ -6722,7 +6722,7 @@
         <v>4.283284827202792</v>
       </c>
       <c r="C578" t="n">
-        <v>6.389236852905654e-74</v>
+        <v>6.419608038458659e-74</v>
       </c>
     </row>
     <row r="579">
@@ -6733,7 +6733,7 @@
         <v>4.284202034685656</v>
       </c>
       <c r="C579" t="n">
-        <v>6.010352016824338e-74</v>
+        <v>6.036418649713411e-74</v>
       </c>
     </row>
     <row r="580">
@@ -6744,7 +6744,7 @@
         <v>4.285119242168521</v>
       </c>
       <c r="C580" t="n">
-        <v>5.644005055150447e-74</v>
+        <v>5.666435923414669e-74</v>
       </c>
     </row>
     <row r="581">
@@ -6755,7 +6755,7 @@
         <v>4.286036449651386</v>
       </c>
       <c r="C581" t="n">
-        <v>5.291531341853538e-74</v>
+        <v>5.310937212038057e-74</v>
       </c>
     </row>
     <row r="582">
@@ -6766,7 +6766,7 @@
         <v>4.286953657134251</v>
       </c>
       <c r="C582" t="n">
-        <v>4.954266250902796e-74</v>
+        <v>4.97119986805881e-74</v>
       </c>
     </row>
     <row r="583">
@@ -6777,7 +6777,7 @@
         <v>4.287870864617116</v>
       </c>
       <c r="C583" t="n">
-        <v>4.633545156267408e-74</v>
+        <v>4.648501243952178e-74</v>
       </c>
     </row>
     <row r="584">
@@ -6788,7 +6788,7 @@
         <v>4.28878807209998</v>
       </c>
       <c r="C584" t="n">
-        <v>4.33070343191656e-74</v>
+        <v>4.3441186921934e-74</v>
       </c>
     </row>
     <row r="585">
@@ -6799,7 +6799,7 @@
         <v>4.289705279582845</v>
       </c>
       <c r="C585" t="n">
-        <v>4.047076451819437e-74</v>
+        <v>4.059329565257722e-74</v>
       </c>
     </row>
     <row r="586">
@@ -6810,7 +6810,7 @@
         <v>4.29062248706571</v>
       </c>
       <c r="C586" t="n">
-        <v>3.7839681637771e-74</v>
+        <v>3.795379982148769e-74</v>
       </c>
     </row>
     <row r="587">
@@ -6821,7 +6821,7 @@
         <v>4.291539694548575</v>
       </c>
       <c r="C587" t="n">
-        <v>3.541523972012563e-74</v>
+        <v>3.552364622158694e-74</v>
       </c>
     </row>
     <row r="588">
@@ -6832,7 +6832,7 @@
         <v>4.29245690203144</v>
       </c>
       <c r="C588" t="n">
-        <v>3.318419837960188e-74</v>
+        <v>3.328917732004944e-74</v>
       </c>
     </row>
     <row r="589">
@@ -6843,7 +6843,7 @@
         <v>4.293374109514305</v>
       </c>
       <c r="C589" t="n">
-        <v>3.113237013463981e-74</v>
+        <v>3.123579429547439e-74</v>
       </c>
     </row>
     <row r="590">
@@ -6854,7 +6854,7 @@
         <v>4.29429131699717</v>
       </c>
       <c r="C590" t="n">
-        <v>2.924556750367945e-74</v>
+        <v>2.9348898326461e-74</v>
       </c>
     </row>
     <row r="591">
@@ -6865,7 +6865,7 @@
         <v>4.295208524480035</v>
       </c>
       <c r="C591" t="n">
-        <v>2.750960300516085e-74</v>
+        <v>2.761389059160847e-74</v>
       </c>
     </row>
     <row r="592">
@@ -6876,7 +6876,7 @@
         <v>4.2961257319629</v>
       </c>
       <c r="C592" t="n">
-        <v>2.591028915752404e-74</v>
+        <v>2.601617226951597e-74</v>
       </c>
     </row>
     <row r="593">
@@ -6887,7 +6887,7 @@
         <v>4.297042939445765</v>
       </c>
       <c r="C593" t="n">
-        <v>2.443343847920906e-74</v>
+        <v>2.454114453878271e-74</v>
       </c>
     </row>
     <row r="594">
@@ -6898,7 +6898,7 @@
         <v>4.29796014692863</v>
       </c>
       <c r="C594" t="n">
-        <v>2.306486348865594e-74</v>
+        <v>2.317420857800788e-74</v>
       </c>
     </row>
     <row r="595">
@@ -6909,7 +6909,7 @@
         <v>4.298877354411495</v>
       </c>
       <c r="C595" t="n">
-        <v>2.179037670430473e-74</v>
+        <v>2.190076556579068e-74</v>
       </c>
     </row>
     <row r="596">
@@ -6920,7 +6920,7 @@
         <v>4.29979456189436</v>
       </c>
       <c r="C596" t="n">
-        <v>2.059579064459546e-74</v>
+        <v>2.070621668073029e-74</v>
       </c>
     </row>
     <row r="597">
@@ -6931,7 +6931,7 @@
         <v>4.300711769377225</v>
       </c>
       <c r="C597" t="n">
-        <v>1.946691782796817e-74</v>
+        <v>1.957596310142593e-74</v>
       </c>
     </row>
     <row r="598">
@@ -6942,7 +6942,7 @@
         <v>4.30162897686009</v>
       </c>
       <c r="C598" t="n">
-        <v>1.83895707728629e-74</v>
+        <v>1.849540600647676e-74</v>
       </c>
     </row>
     <row r="599">
@@ -6953,7 +6953,7 @@
         <v>4.302546184342955</v>
       </c>
       <c r="C599" t="n">
-        <v>1.734956199771969e-74</v>
+        <v>1.744994657448201e-74</v>
       </c>
     </row>
     <row r="600">
@@ -6964,7 +6964,7 @@
         <v>4.30346339182582</v>
       </c>
       <c r="C600" t="n">
-        <v>1.633271209895065e-74</v>
+        <v>1.64249944747477e-74</v>
       </c>
     </row>
     <row r="601">
@@ -6975,7 +6975,7 @@
         <v>4.304380599308685</v>
       </c>
       <c r="C601" t="n">
-        <v>1.533241228377836e-74</v>
+        <v>1.541391679909412e-74</v>
       </c>
     </row>
     <row r="602">
@@ -6986,7 +6986,7 @@
         <v>4.305297806791549</v>
       </c>
       <c r="C602" t="n">
-        <v>1.436367112357543e-74</v>
+        <v>1.443280251799765e-74</v>
       </c>
     </row>
     <row r="603">
@@ -6997,7 +6997,7 @@
         <v>4.306215014274414</v>
       </c>
       <c r="C603" t="n">
-        <v>1.344533060752142e-74</v>
+        <v>1.350176988384166e-74</v>
       </c>
     </row>
     <row r="604">
@@ -7008,7 +7008,7 @@
         <v>4.307132221757279</v>
       </c>
       <c r="C604" t="n">
-        <v>1.259623272479587e-74</v>
+        <v>1.264093714900952e-74</v>
       </c>
     </row>
     <row r="605">
@@ -7019,7 +7019,7 @@
         <v>4.308049429240144</v>
       </c>
       <c r="C605" t="n">
-        <v>1.183521946457831e-74</v>
+        <v>1.187042256588459e-74</v>
       </c>
     </row>
     <row r="606">
@@ -7030,7 +7030,7 @@
         <v>4.308966636723009</v>
       </c>
       <c r="C606" t="n">
-        <v>1.118113281604832e-74</v>
+        <v>1.121034438685024e-74</v>
       </c>
     </row>
     <row r="607">
@@ -7041,7 +7041,7 @@
         <v>4.309883844205874</v>
       </c>
       <c r="C607" t="n">
-        <v>1.065281476838541e-74</v>
+        <v>1.068082086428985e-74</v>
       </c>
     </row>
     <row r="608">
@@ -7052,7 +7052,7 @@
         <v>4.310801051688739</v>
       </c>
       <c r="C608" t="n">
-        <v>1.025399208080712e-74</v>
+        <v>1.028597223593572e-74</v>
       </c>
     </row>
     <row r="609">
@@ -7063,7 +7063,7 @@
         <v>4.311718259171604</v>
       </c>
       <c r="C609" t="n">
-        <v>9.911273674292975e-75</v>
+        <v>9.948296937596761e-75</v>
       </c>
     </row>
     <row r="610">
@@ -7074,7 +7074,7 @@
         <v>4.312635466654469</v>
       </c>
       <c r="C610" t="n">
-        <v>9.543751464970502e-75</v>
+        <v>9.582311670042897e-75</v>
       </c>
     </row>
     <row r="611">
@@ -7085,7 +7085,7 @@
         <v>4.313552674137334</v>
       </c>
       <c r="C611" t="n">
-        <v>9.147927935750153e-75</v>
+        <v>9.184347771334609e-75</v>
       </c>
     </row>
     <row r="612">
@@ -7096,7 +7096,7 @@
         <v>4.314469881620198</v>
       </c>
       <c r="C612" t="n">
-        <v>8.742315449489881e-75</v>
+        <v>8.773998658097472e-75</v>
       </c>
     </row>
     <row r="613">
@@ -7107,7 +7107,7 @@
         <v>4.315387089103064</v>
       </c>
       <c r="C613" t="n">
-        <v>8.345427904495298e-75</v>
+        <v>8.370859369760332e-75</v>
       </c>
     </row>
     <row r="614">
@@ -7118,7 +7118,7 @@
         <v>4.316304296585928</v>
       </c>
       <c r="C614" t="n">
-        <v>7.975779199074692e-75</v>
+        <v>7.994524945754754e-75</v>
       </c>
     </row>
     <row r="615">
@@ -7129,7 +7129,7 @@
         <v>4.317221504068794</v>
       </c>
       <c r="C615" t="n">
-        <v>7.651883231533429e-75</v>
+        <v>7.664590425509344e-75</v>
       </c>
     </row>
     <row r="616">
@@ -7140,7 +7140,7 @@
         <v>4.318138711551658</v>
       </c>
       <c r="C616" t="n">
-        <v>7.392253900179519e-75</v>
+        <v>7.400650848455385e-75</v>
       </c>
     </row>
     <row r="617">
@@ -7151,7 +7151,7 @@
         <v>4.319055919034523</v>
       </c>
       <c r="C617" t="n">
-        <v>7.214589105835701e-75</v>
+        <v>7.221441763798685e-75</v>
       </c>
     </row>
     <row r="618">
@@ -7162,7 +7162,7 @@
         <v>4.319973126517388</v>
       </c>
       <c r="C618" t="n">
-        <v>7.116164123161388e-75</v>
+        <v>7.124187566747164e-75</v>
       </c>
     </row>
     <row r="619">
@@ -7173,7 +7173,7 @@
         <v>4.320890334000253</v>
       </c>
       <c r="C619" t="n">
-        <v>7.072867705453306e-75</v>
+        <v>7.083586227609623e-75</v>
       </c>
     </row>
     <row r="620">
@@ -7184,7 +7184,7 @@
         <v>4.321807541483118</v>
       </c>
       <c r="C620" t="n">
-        <v>7.05957970094703e-75</v>
+        <v>7.07327303690207e-75</v>
       </c>
     </row>
     <row r="621">
@@ -7195,7 +7195,7 @@
         <v>4.322724748965983</v>
       </c>
       <c r="C621" t="n">
-        <v>7.051179957878129e-75</v>
+        <v>7.066883285140502e-75</v>
       </c>
     </row>
     <row r="622">
@@ -7206,7 +7206,7 @@
         <v>4.323641956448848</v>
       </c>
       <c r="C622" t="n">
-        <v>7.024879209748578e-75</v>
+        <v>7.040555270267264e-75</v>
       </c>
     </row>
     <row r="623">
@@ -7217,7 +7217,7 @@
         <v>4.324559163931712</v>
       </c>
       <c r="C623" t="n">
-        <v>6.974540110146048e-75</v>
+        <v>6.988308856614181e-75</v>
       </c>
     </row>
     <row r="624">
@@ -7228,7 +7228,7 @@
         <v>4.325476371414577</v>
       </c>
       <c r="C624" t="n">
-        <v>6.90126962673297e-75</v>
+        <v>6.911943172550338e-75</v>
       </c>
     </row>
     <row r="625">
@@ -7239,7 +7239,7 @@
         <v>4.326393578897442</v>
       </c>
       <c r="C625" t="n">
-        <v>6.806204456807617e-75</v>
+        <v>6.813289271439313e-75</v>
       </c>
     </row>
     <row r="626">
@@ -7250,7 +7250,7 @@
         <v>4.327310786380307</v>
       </c>
       <c r="C626" t="n">
-        <v>6.690481297668275e-75</v>
+        <v>6.694178206644702e-75</v>
       </c>
     </row>
     <row r="627">
@@ -7261,7 +7261,7 @@
         <v>4.328227993863172</v>
       </c>
       <c r="C627" t="n">
-        <v>6.555234861416438e-75</v>
+        <v>6.556434860273664e-75</v>
       </c>
     </row>
     <row r="628">
@@ -7272,7 +7272,7 @@
         <v>4.329145201346037</v>
       </c>
       <c r="C628" t="n">
-        <v>6.4014437242464e-75</v>
+        <v>6.40139874455538e-75</v>
       </c>
     </row>
     <row r="629">
@@ -7283,7 +7283,7 @@
         <v>4.330062408828902</v>
       </c>
       <c r="C629" t="n">
-        <v>6.229820354243459e-75</v>
+        <v>6.22958213817164e-75</v>
       </c>
     </row>
     <row r="630">
@@ -7294,7 +7294,7 @@
         <v>4.330979616311767</v>
       </c>
       <c r="C630" t="n">
-        <v>6.041051260255613e-75</v>
+        <v>6.041416621955366e-75</v>
       </c>
     </row>
     <row r="631">
@@ -7305,7 +7305,7 @@
         <v>4.331896823794632</v>
       </c>
       <c r="C631" t="n">
-        <v>5.835822951130862e-75</v>
+        <v>5.837333776739484e-75</v>
       </c>
     </row>
     <row r="632">
@@ -7316,7 +7316,7 @@
         <v>4.332814031277497</v>
       </c>
       <c r="C632" t="n">
-        <v>5.614821935717206e-75</v>
+        <v>5.617765183356921e-75</v>
       </c>
     </row>
     <row r="633">
@@ -7327,7 +7327,7 @@
         <v>4.333731238760362</v>
       </c>
       <c r="C633" t="n">
-        <v>5.37882278190081e-75</v>
+        <v>5.38323921026679e-75</v>
       </c>
     </row>
     <row r="634">
@@ -7338,7 +7338,7 @@
         <v>4.334648446243227</v>
       </c>
       <c r="C634" t="n">
-        <v>5.129925620795134e-75</v>
+        <v>5.135741181634295e-75</v>
       </c>
     </row>
     <row r="635">
@@ -7349,7 +7349,7 @@
         <v>4.335565653726092</v>
       </c>
       <c r="C635" t="n">
-        <v>4.871255080451716e-75</v>
+        <v>4.878382468748666e-75</v>
       </c>
     </row>
     <row r="636">
@@ -7360,7 +7360,7 @@
         <v>4.336482861208957</v>
       </c>
       <c r="C636" t="n">
-        <v>4.605962379040574e-75</v>
+        <v>4.614303668683345e-75</v>
       </c>
     </row>
     <row r="637">
@@ -7371,7 +7371,7 @@
         <v>4.337400068691822</v>
       </c>
       <c r="C637" t="n">
-        <v>4.337198734731725e-75</v>
+        <v>4.346645378511773e-75</v>
       </c>
     </row>
     <row r="638">
@@ -7382,7 +7382,7 @@
         <v>4.338317276174687</v>
       </c>
       <c r="C638" t="n">
-        <v>4.068115365695188e-75</v>
+        <v>4.078548195307397e-75</v>
       </c>
     </row>
     <row r="639">
@@ -7393,7 +7393,7 @@
         <v>4.339234483657552</v>
       </c>
       <c r="C639" t="n">
-        <v>3.801863490100985e-75</v>
+        <v>3.813152716143663e-75</v>
       </c>
     </row>
     <row r="640">
@@ -7404,7 +7404,7 @@
         <v>4.340151691140417</v>
       </c>
       <c r="C640" t="n">
-        <v>3.541594326119132e-75</v>
+        <v>3.553599538094015e-75</v>
       </c>
     </row>
     <row r="641">
@@ -7415,7 +7415,7 @@
         <v>4.341068898623281</v>
       </c>
       <c r="C641" t="n">
-        <v>3.290459091919647e-75</v>
+        <v>3.303029258231894e-75</v>
       </c>
     </row>
     <row r="642">
@@ -7426,7 +7426,7 @@
         <v>4.341986106106146</v>
       </c>
       <c r="C642" t="n">
-        <v>3.051598843691665e-75</v>
+        <v>3.064572379652234e-75</v>
       </c>
     </row>
     <row r="643">
@@ -7437,7 +7437,7 @@
         <v>4.342903313589011</v>
       </c>
       <c r="C643" t="n">
-        <v>2.82698445486243e-75</v>
+        <v>2.840197053366379e-75</v>
       </c>
     </row>
     <row r="644">
@@ -7448,7 +7448,7 @@
         <v>4.343820521071876</v>
       </c>
       <c r="C644" t="n">
-        <v>2.61634540644544e-75</v>
+        <v>2.629645037016106e-75</v>
       </c>
     </row>
     <row r="645">
@@ -7459,7 +7459,7 @@
         <v>4.344737728554741</v>
       </c>
       <c r="C645" t="n">
-        <v>2.419157969776606e-75</v>
+        <v>2.432406573004796e-75</v>
       </c>
     </row>
     <row r="646">
@@ -7470,7 +7470,7 @@
         <v>4.345654936037606</v>
       </c>
       <c r="C646" t="n">
-        <v>2.234898416191842e-75</v>
+        <v>2.247971903735826e-75</v>
       </c>
     </row>
     <row r="647">
@@ -7481,7 +7481,7 @@
         <v>4.346572143520471</v>
       </c>
       <c r="C647" t="n">
-        <v>2.063043017027056e-75</v>
+        <v>2.075831271612574e-75</v>
       </c>
     </row>
     <row r="648">
@@ -7492,7 +7492,7 @@
         <v>4.347489351003336</v>
       </c>
       <c r="C648" t="n">
-        <v>1.903068043618162e-75</v>
+        <v>1.915474919038419e-75</v>
       </c>
     </row>
     <row r="649">
@@ -7503,7 +7503,7 @@
         <v>4.3484065584862</v>
       </c>
       <c r="C649" t="n">
-        <v>1.754449767301209e-75</v>
+        <v>1.766393088416879e-75</v>
       </c>
     </row>
     <row r="650">
@@ -7514,7 +7514,7 @@
         <v>4.349323765969066</v>
       </c>
       <c r="C650" t="n">
-        <v>1.616664459411692e-75</v>
+        <v>1.628076022150913e-75</v>
       </c>
     </row>
     <row r="651">
@@ -7525,7 +7525,7 @@
         <v>4.35024097345193</v>
       </c>
       <c r="C651" t="n">
-        <v>1.489188391286057e-75</v>
+        <v>1.500013962644438e-75</v>
       </c>
     </row>
     <row r="652">
@@ -7536,7 +7536,7 @@
         <v>4.351158180934796</v>
       </c>
       <c r="C652" t="n">
-        <v>1.37149783425972e-75</v>
+        <v>1.381697152300335e-75</v>
       </c>
     </row>
     <row r="653">
@@ -7547,7 +7547,7 @@
         <v>4.35207538841766</v>
       </c>
       <c r="C653" t="n">
-        <v>1.26306905966905e-75</v>
+        <v>1.272615833522441e-75</v>
       </c>
     </row>
     <row r="654">
@@ -7558,7 +7558,7 @@
         <v>4.352992595900525</v>
       </c>
       <c r="C654" t="n">
-        <v>1.163378338849631e-75</v>
+        <v>1.172260248713804e-75</v>
       </c>
     </row>
     <row r="655">
@@ -7569,7 +7569,7 @@
         <v>4.35390980338339</v>
       </c>
       <c r="C655" t="n">
-        <v>1.071901943137482e-75</v>
+        <v>1.080120640277914e-75</v>
       </c>
     </row>
     <row r="656">
@@ -7580,7 +7580,7 @@
         <v>4.354827010866255</v>
       </c>
       <c r="C656" t="n">
-        <v>9.881162049120288e-76</v>
+        <v>9.956873047114122e-76</v>
       </c>
     </row>
     <row r="657">
@@ -7591,7 +7591,7 @@
         <v>4.35574421834912</v>
       </c>
       <c r="C657" t="n">
-        <v>9.115264891450969e-76</v>
+        <v>9.184762655308245e-76</v>
       </c>
     </row>
     <row r="658">
@@ -7602,7 +7602,7 @@
         <v>4.356661425831985</v>
       </c>
       <c r="C658" t="n">
-        <v>8.417135575884196e-76</v>
+        <v>8.480703585589628e-76</v>
       </c>
     </row>
     <row r="659">
@@ -7613,7 +7613,7 @@
         <v>4.35757863331485</v>
       </c>
       <c r="C659" t="n">
-        <v>7.782702530706805e-76</v>
+        <v>7.840631251768145e-76</v>
       </c>
     </row>
     <row r="660">
@@ -7624,7 +7624,7 @@
         <v>4.358495840797715</v>
       </c>
       <c r="C660" t="n">
-        <v>7.207894184205641e-76</v>
+        <v>7.260481067653678e-76</v>
       </c>
     </row>
     <row r="661">
@@ -7635,7 +7635,7 @@
         <v>4.35941304828058</v>
       </c>
       <c r="C661" t="n">
-        <v>6.688638964667547e-76</v>
+        <v>6.736188447056102e-76</v>
       </c>
     </row>
     <row r="662">
@@ -7646,7 +7646,7 @@
         <v>4.360330255763444</v>
       </c>
       <c r="C662" t="n">
-        <v>6.220865300379365e-76</v>
+        <v>6.263688803785292e-76</v>
       </c>
     </row>
     <row r="663">
@@ -7657,7 +7657,7 @@
         <v>4.361247463246309</v>
       </c>
       <c r="C663" t="n">
-        <v>5.800501619627938e-76</v>
+        <v>5.838917551651129e-76</v>
       </c>
     </row>
     <row r="664">
@@ -7668,7 +7668,7 @@
         <v>4.362164670729174</v>
       </c>
       <c r="C664" t="n">
-        <v>5.42347635070011e-76</v>
+        <v>5.457810104463488e-76</v>
       </c>
     </row>
     <row r="665">
@@ -7679,7 +7679,7 @@
         <v>4.363081878212039</v>
       </c>
       <c r="C665" t="n">
-        <v>5.08571792188272e-76</v>
+        <v>5.116301876032245e-76</v>
       </c>
     </row>
     <row r="666">
@@ -7690,7 +7690,7 @@
         <v>4.363999085694904</v>
       </c>
       <c r="C666" t="n">
-        <v>4.783154761462612e-76</v>
+        <v>4.810328280167279e-76</v>
       </c>
     </row>
     <row r="667">
@@ -7701,7 +7701,7 @@
         <v>4.364916293177769</v>
       </c>
       <c r="C667" t="n">
-        <v>4.511715297726633e-76</v>
+        <v>4.535824730678466e-76</v>
       </c>
     </row>
     <row r="668">
@@ -7712,7 +7712,7 @@
         <v>4.365833500660634</v>
       </c>
       <c r="C668" t="n">
-        <v>4.26732795896162e-76</v>
+        <v>4.288726641375684e-76</v>
       </c>
     </row>
     <row r="669">
@@ -7723,7 +7723,7 @@
         <v>4.366750708143499</v>
       </c>
       <c r="C669" t="n">
-        <v>4.045921173454417e-76</v>
+        <v>4.064969426068809e-76</v>
       </c>
     </row>
     <row r="670">
@@ -7734,7 +7734,7 @@
         <v>4.367667915626364</v>
       </c>
       <c r="C670" t="n">
-        <v>3.843654840093601e-76</v>
+        <v>3.86070768301532e-76</v>
       </c>
     </row>
     <row r="671">
@@ -7745,7 +7745,7 @@
         <v>4.368585123109229</v>
       </c>
       <c r="C671" t="n">
-        <v>3.658482374244604e-76</v>
+        <v>3.673794329461366e-76</v>
       </c>
     </row>
     <row r="672">
@@ -7756,7 +7756,7 @@
         <v>4.369502330592094</v>
       </c>
       <c r="C672" t="n">
-        <v>3.489194635482735e-76</v>
+        <v>3.50287527642926e-76</v>
       </c>
     </row>
     <row r="673">
@@ -7767,7 +7767,7 @@
         <v>4.370419538074959</v>
       </c>
       <c r="C673" t="n">
-        <v>3.334587209141006e-76</v>
+        <v>3.346600909862026e-76</v>
       </c>
     </row>
     <row r="674">
@@ -7778,7 +7778,7 @@
         <v>4.371336745557824</v>
       </c>
       <c r="C674" t="n">
-        <v>3.193455680552424e-76</v>
+        <v>3.203621615702695e-76</v>
       </c>
     </row>
     <row r="675">
@@ -7789,7 +7789,7 @@
         <v>4.372253953040689</v>
       </c>
       <c r="C675" t="n">
-        <v>3.064595635050003e-76</v>
+        <v>3.072587779894295e-76</v>
       </c>
     </row>
     <row r="676">
@@ -7800,7 +7800,7 @@
         <v>4.373171160523554</v>
       </c>
       <c r="C676" t="n">
-        <v>2.946802657966753e-76</v>
+        <v>2.952149788379853e-76</v>
       </c>
     </row>
     <row r="677">
@@ -7811,7 +7811,7 @@
         <v>4.374088368006419</v>
       </c>
       <c r="C677" t="n">
-        <v>2.838872334635683e-76</v>
+        <v>2.840958027102398e-76</v>
       </c>
     </row>
     <row r="678">
@@ -7822,7 +7822,7 @@
         <v>4.375005575489284</v>
       </c>
       <c r="C678" t="n">
-        <v>2.739600250389805e-76</v>
+        <v>2.737662882004957e-76</v>
       </c>
     </row>
     <row r="679">
@@ -7833,7 +7833,7 @@
         <v>4.375922782972149</v>
       </c>
       <c r="C679" t="n">
-        <v>2.647328756763849e-76</v>
+        <v>2.640628045643872e-76</v>
       </c>
     </row>
     <row r="680">
@@ -7844,7 +7844,7 @@
         <v>4.376839990455013</v>
       </c>
       <c r="C680" t="n">
-        <v>2.558015742279808e-76</v>
+        <v>2.546708916668133e-76</v>
       </c>
     </row>
     <row r="681">
@@ -7855,7 +7855,7 @@
         <v>4.377757197937878</v>
       </c>
       <c r="C681" t="n">
-        <v>2.466837720391444e-76</v>
+        <v>2.452266634328085e-76</v>
       </c>
     </row>
     <row r="682">
@@ -7866,7 +7866,7 @@
         <v>4.378674405420743</v>
       </c>
       <c r="C682" t="n">
-        <v>2.368970751318717e-76</v>
+        <v>2.353662051180685e-76</v>
       </c>
     </row>
     <row r="683">
@@ -7877,7 +7877,7 @@
         <v>4.379591612903608</v>
       </c>
       <c r="C683" t="n">
-        <v>2.259591805393544e-76</v>
+        <v>2.247256816880001e-76</v>
       </c>
     </row>
     <row r="684">
@@ -7888,7 +7888,7 @@
         <v>4.380508820386473</v>
       </c>
       <c r="C684" t="n">
-        <v>2.142064229861156e-76</v>
+        <v>2.136582399441858e-76</v>
       </c>
     </row>
     <row r="685">
@@ -7899,7 +7899,7 @@
         <v>4.381426027869338</v>
       </c>
       <c r="C685" t="n">
-        <v>2.045067206129542e-76</v>
+        <v>2.047082366353994e-76</v>
       </c>
     </row>
     <row r="686">
@@ -7910,7 +7910,7 @@
         <v>4.382343235352202</v>
       </c>
       <c r="C686" t="n">
-        <v>1.968133752312314e-76</v>
+        <v>1.975447289154224e-76</v>
       </c>
     </row>
     <row r="687">
@@ -7921,7 +7921,7 @@
         <v>4.383260442835068</v>
       </c>
       <c r="C687" t="n">
-        <v>1.887185053705767e-76</v>
+        <v>1.895553592609585e-76</v>
       </c>
     </row>
     <row r="688">
@@ -7932,7 +7932,7 @@
         <v>4.384177650317932</v>
       </c>
       <c r="C688" t="n">
-        <v>1.790859010342318e-76</v>
+        <v>1.795679321010653e-76</v>
       </c>
     </row>
     <row r="689">
@@ -7943,7 +7943,7 @@
         <v>4.385094857800798</v>
       </c>
       <c r="C689" t="n">
-        <v>1.6893349888097e-76</v>
+        <v>1.688376931926714e-76</v>
       </c>
     </row>
     <row r="690">
@@ -7954,7 +7954,7 @@
         <v>4.386012065283662</v>
       </c>
       <c r="C690" t="n">
-        <v>1.594784665806481e-76</v>
+        <v>1.588443955651514e-76</v>
       </c>
     </row>
     <row r="691">
@@ -7965,7 +7965,7 @@
         <v>4.386929272766527</v>
       </c>
       <c r="C691" t="n">
-        <v>1.518631310924846e-76</v>
+        <v>1.509775592555812e-76</v>
       </c>
     </row>
     <row r="692">
@@ -7976,7 +7976,7 @@
         <v>4.387846480249392</v>
       </c>
       <c r="C692" t="n">
-        <v>1.459949640182745e-76</v>
+        <v>1.45137879662429e-76</v>
       </c>
     </row>
     <row r="693">
@@ -7987,7 +7987,7 @@
         <v>4.388763687732257</v>
       </c>
       <c r="C693" t="n">
-        <v>1.407683540826381e-76</v>
+        <v>1.4000461135758e-76</v>
       </c>
     </row>
     <row r="694">
@@ -7998,7 +7998,7 @@
         <v>4.389680895215122</v>
       </c>
       <c r="C694" t="n">
-        <v>1.351270339838895e-76</v>
+        <v>1.343172324239961e-76</v>
       </c>
     </row>
     <row r="695">
@@ -8009,7 +8009,7 @@
         <v>4.390598102697987</v>
       </c>
       <c r="C695" t="n">
-        <v>1.288954330948913e-76</v>
+        <v>1.278851691409408e-76</v>
       </c>
     </row>
     <row r="696">
@@ -8020,7 +8020,7 @@
         <v>4.391515310180852</v>
       </c>
       <c r="C696" t="n">
-        <v>1.224472966672981e-76</v>
+        <v>1.211852052907755e-76</v>
       </c>
     </row>
     <row r="697">
@@ -8031,7 +8031,7 @@
         <v>4.392432517663717</v>
       </c>
       <c r="C697" t="n">
-        <v>1.161645491745048e-76</v>
+        <v>1.147040511049173e-76</v>
       </c>
     </row>
     <row r="698">
@@ -8042,7 +8042,7 @@
         <v>4.393349725146582</v>
       </c>
       <c r="C698" t="n">
-        <v>1.103192268768223e-76</v>
+        <v>1.087879589630849e-76</v>
       </c>
     </row>
     <row r="699">
@@ -8053,7 +8053,7 @@
         <v>4.394266932629447</v>
       </c>
       <c r="C699" t="n">
-        <v>1.048830814058497e-76</v>
+        <v>1.033993608818893e-76</v>
       </c>
     </row>
     <row r="700">
@@ -8064,7 +8064,7 @@
         <v>4.395184140112312</v>
       </c>
       <c r="C700" t="n">
-        <v>9.97770398368656e-77</v>
+        <v>9.843572551386497e-77</v>
       </c>
     </row>
     <row r="701">
@@ -8075,7 +8075,7 @@
         <v>4.396101347595176</v>
       </c>
       <c r="C701" t="n">
-        <v>9.492202924514858e-77</v>
+        <v>9.379452151154629e-77</v>
       </c>
     </row>
     <row r="702">
@@ -8086,7 +8086,7 @@
         <v>4.397018555078041</v>
       </c>
       <c r="C702" t="n">
-        <v>9.023897670597719e-77</v>
+        <v>8.93732175274677e-77</v>
       </c>
     </row>
     <row r="703">
@@ -8097,7 +8097,7 @@
         <v>4.397935762560906</v>
       </c>
       <c r="C703" t="n">
-        <v>8.564880929463015e-77</v>
+        <v>8.506928221416362e-77</v>
       </c>
     </row>
     <row r="704">
@@ -8108,7 +8108,7 @@
         <v>4.398852970043771</v>
       </c>
       <c r="C704" t="n">
-        <v>8.107245408638601e-77</v>
+        <v>8.078018422416846e-77</v>
       </c>
     </row>
     <row r="705">
@@ -8119,7 +8119,7 @@
         <v>4.399770177526636</v>
       </c>
       <c r="C705" t="n">
-        <v>7.643083815652341e-77</v>
+        <v>7.640339221001665e-77</v>
       </c>
     </row>
     <row r="706">
@@ -8130,7 +8130,7 @@
         <v>4.400687385009501</v>
       </c>
       <c r="C706" t="n">
-        <v>7.164488858032094e-77</v>
+        <v>7.183637482424263e-77</v>
       </c>
     </row>
     <row r="707">
@@ -8141,7 +8141,7 @@
         <v>4.401604592492366</v>
       </c>
       <c r="C707" t="n">
-        <v>6.667233918908044e-77</v>
+        <v>6.701612799363937e-77</v>
       </c>
     </row>
     <row r="708">
@@ -8152,7 +8152,7 @@
         <v>4.402521799975231</v>
       </c>
       <c r="C708" t="n">
-        <v>6.175611563929928e-77</v>
+        <v>6.218591901223739e-77</v>
       </c>
     </row>
     <row r="709">
@@ -8163,7 +8163,7 @@
         <v>4.403439007458096</v>
       </c>
       <c r="C709" t="n">
-        <v>5.727230781863539e-77</v>
+        <v>5.773202204713141e-77</v>
       </c>
     </row>
     <row r="710">
@@ -8174,7 +8174,7 @@
         <v>4.404356214940961</v>
       </c>
       <c r="C710" t="n">
-        <v>5.359775707004768e-77</v>
+        <v>5.404151826345083e-77</v>
       </c>
     </row>
     <row r="711">
@@ -8185,7 +8185,7 @@
         <v>4.405273422423826</v>
       </c>
       <c r="C711" t="n">
-        <v>5.110930473649516e-77</v>
+        <v>5.150148882632517e-77</v>
       </c>
     </row>
     <row r="712">
@@ -8196,7 +8196,7 @@
         <v>4.406190629906691</v>
       </c>
       <c r="C712" t="n">
-        <v>5.018371455841284e-77</v>
+        <v>5.049893684611368e-77</v>
       </c>
     </row>
     <row r="713">
@@ -8207,7 +8207,7 @@
         <v>4.407107837389556</v>
       </c>
       <c r="C713" t="n">
-        <v>5.104108063669721e-77</v>
+        <v>5.126328276590971e-77</v>
       </c>
     </row>
     <row r="714">
@@ -8218,7 +8218,7 @@
         <v>4.408025044872421</v>
       </c>
       <c r="C714" t="n">
-        <v>5.34162487111892e-77</v>
+        <v>5.35358707732743e-77</v>
       </c>
     </row>
     <row r="715">
@@ -8229,7 +8229,7 @@
         <v>4.408942252355286</v>
       </c>
       <c r="C715" t="n">
-        <v>5.695040222417151e-77</v>
+        <v>5.69638369200061e-77</v>
       </c>
     </row>
     <row r="716">
@@ -8240,7 +8240,7 @@
         <v>4.409859459838151</v>
       </c>
       <c r="C716" t="n">
-        <v>6.128472461792676e-77</v>
+        <v>6.119431725790377e-77</v>
       </c>
     </row>
     <row r="717">
@@ -8251,7 +8251,7 @@
         <v>4.410776667321016</v>
       </c>
       <c r="C717" t="n">
-        <v>6.606039933473767e-77</v>
+        <v>6.587444783876598e-77</v>
       </c>
     </row>
     <row r="718">
@@ -8262,7 +8262,7 @@
         <v>4.411693874803881</v>
       </c>
       <c r="C718" t="n">
-        <v>7.091860981688692e-77</v>
+        <v>7.065136471439142e-77</v>
       </c>
     </row>
     <row r="719">
@@ -8273,7 +8273,7 @@
         <v>4.412611082286745</v>
       </c>
       <c r="C719" t="n">
-        <v>7.550053950665719e-77</v>
+        <v>7.517220393657873e-77</v>
       </c>
     </row>
     <row r="720">
@@ -8284,7 +8284,7 @@
         <v>4.41352828976961</v>
       </c>
       <c r="C720" t="n">
-        <v>7.944737184633114e-77</v>
+        <v>7.908410155712661e-77</v>
       </c>
     </row>
     <row r="721">
@@ -8295,7 +8295,7 @@
         <v>4.414445497252475</v>
       </c>
       <c r="C721" t="n">
-        <v>8.242693668971867e-77</v>
+        <v>8.206014963907265e-77</v>
       </c>
     </row>
     <row r="722">
@@ -8306,7 +8306,7 @@
         <v>4.41536270473534</v>
       </c>
       <c r="C722" t="n">
-        <v>8.440574276729579e-77</v>
+        <v>8.406438044472549e-77</v>
       </c>
     </row>
     <row r="723">
@@ -8317,7 +8317,7 @@
         <v>4.416279912218204</v>
       </c>
       <c r="C723" t="n">
-        <v>8.553785831481289e-77</v>
+        <v>8.524352613284707e-77</v>
       </c>
     </row>
     <row r="724">
@@ -8328,7 +8328,7 @@
         <v>4.41719711970107</v>
       </c>
       <c r="C724" t="n">
-        <v>8.598025468314352e-77</v>
+        <v>8.574714675850702e-77</v>
       </c>
     </row>
     <row r="725">
@@ -8339,7 +8339,7 @@
         <v>4.418114327183934</v>
       </c>
       <c r="C725" t="n">
-        <v>8.588990322315718e-77</v>
+        <v>8.572480237677059e-77</v>
       </c>
     </row>
     <row r="726">
@@ -8350,7 +8350,7 @@
         <v>4.4190315346668</v>
       </c>
       <c r="C726" t="n">
-        <v>8.542312409515907e-77</v>
+        <v>8.532542061923025e-77</v>
       </c>
     </row>
     <row r="727">
@@ -8361,7 +8361,7 @@
         <v>4.419948742149664</v>
       </c>
       <c r="C727" t="n">
-        <v>8.466305506515681e-77</v>
+        <v>8.462685581494011e-77</v>
       </c>
     </row>
     <row r="728">
@@ -8372,7 +8372,7 @@
         <v>4.420865949632529</v>
       </c>
       <c r="C728" t="n">
-        <v>8.355362531447464e-77</v>
+        <v>8.357176565242356e-77</v>
       </c>
     </row>
     <row r="729">
@@ -8383,7 +8383,7 @@
         <v>4.421783157115394</v>
       </c>
       <c r="C729" t="n">
-        <v>8.202317031002697e-77</v>
+        <v>8.208766351134947e-77</v>
       </c>
     </row>
     <row r="730">
@@ -8394,7 +8394,7 @@
         <v>4.422700364598259</v>
       </c>
       <c r="C730" t="n">
-        <v>8.000002551872771e-77</v>
+        <v>8.010206277138627e-77</v>
       </c>
     </row>
     <row r="731">
@@ -8405,7 +8405,7 @@
         <v>4.423617572081124</v>
       </c>
       <c r="C731" t="n">
-        <v>7.741352431304035e-77</v>
+        <v>7.754348646182415e-77</v>
       </c>
     </row>
     <row r="732">
@@ -8416,7 +8416,7 @@
         <v>4.424534779563989</v>
       </c>
       <c r="C732" t="n">
-        <v>7.426684882480786e-77</v>
+        <v>7.441517547679255e-77</v>
       </c>
     </row>
     <row r="733">
@@ -8427,7 +8427,7 @@
         <v>4.425451987046854</v>
       </c>
       <c r="C733" t="n">
-        <v>7.068649936972801e-77</v>
+        <v>7.084514019159981e-77</v>
       </c>
     </row>
     <row r="734">
@@ -8438,7 +8438,7 @@
         <v>4.426369194529719</v>
       </c>
       <c r="C734" t="n">
-        <v>6.681069096989467e-77</v>
+        <v>6.697324355506375e-77</v>
       </c>
     </row>
     <row r="735">
@@ -8449,7 +8449,7 @@
         <v>4.427286402012584</v>
       </c>
       <c r="C735" t="n">
-        <v>6.277763864740171e-77</v>
+        <v>6.293934851600222e-77</v>
       </c>
     </row>
     <row r="736">
@@ -8460,7 +8460,7 @@
         <v>4.428203609495449</v>
       </c>
       <c r="C736" t="n">
-        <v>5.872555742434303e-77</v>
+        <v>5.88833180232331e-77</v>
       </c>
     </row>
     <row r="737">
@@ -8471,7 +8471,7 @@
         <v>4.429120816978314</v>
       </c>
       <c r="C737" t="n">
-        <v>5.479266232281243e-77</v>
+        <v>5.494501502557421e-77</v>
       </c>
     </row>
     <row r="738">
@@ -8482,7 +8482,7 @@
         <v>4.430038024461179</v>
       </c>
       <c r="C738" t="n">
-        <v>5.110555053491634e-77</v>
+        <v>5.125255738768908e-77</v>
       </c>
     </row>
     <row r="739">
@@ -8493,7 +8493,7 @@
         <v>4.430955231944044</v>
       </c>
       <c r="C739" t="n">
-        <v>4.769465473452381e-77</v>
+        <v>4.783684513230533e-77</v>
       </c>
     </row>
     <row r="740">
@@ -8504,7 +8504,7 @@
         <v>4.431872439426908</v>
       </c>
       <c r="C740" t="n">
-        <v>4.454291714827326e-77</v>
+        <v>4.468076765539398e-77</v>
       </c>
     </row>
     <row r="741">
@@ -8515,7 +8515,7 @@
         <v>4.432789646909773</v>
       </c>
       <c r="C741" t="n">
-        <v>4.163294407497902e-77</v>
+        <v>4.176687474556664e-77</v>
       </c>
     </row>
     <row r="742">
@@ -8526,7 +8526,7 @@
         <v>4.433706854392638</v>
       </c>
       <c r="C742" t="n">
-        <v>3.894734181345544e-77</v>
+        <v>3.907771619143487e-77</v>
       </c>
     </row>
     <row r="743">
@@ -8537,7 +8537,7 @@
         <v>4.434624061875503</v>
       </c>
       <c r="C743" t="n">
-        <v>3.646871666251682e-77</v>
+        <v>3.659584178161026e-77</v>
       </c>
     </row>
     <row r="744">
@@ -8548,7 +8548,7 @@
         <v>4.435541269358368</v>
       </c>
       <c r="C744" t="n">
-        <v>3.41796749209775e-77</v>
+        <v>3.430380130470443e-77</v>
       </c>
     </row>
     <row r="745">
@@ -8559,7 +8559,7 @@
         <v>4.436458476841233</v>
       </c>
       <c r="C745" t="n">
-        <v>3.206282288765178e-77</v>
+        <v>3.218414454932893e-77</v>
       </c>
     </row>
     <row r="746">
@@ -8570,7 +8570,7 @@
         <v>4.437375684324098</v>
       </c>
       <c r="C746" t="n">
-        <v>3.010076686135397e-77</v>
+        <v>3.021942130409535e-77</v>
       </c>
     </row>
     <row r="747">
@@ -8581,7 +8581,7 @@
         <v>4.438292891806963</v>
       </c>
       <c r="C747" t="n">
-        <v>2.827611314089842e-77</v>
+        <v>2.839218135761528e-77</v>
       </c>
     </row>
     <row r="748">
@@ -8592,7 +8592,7 @@
         <v>4.439210099289828</v>
       </c>
       <c r="C748" t="n">
-        <v>2.657146802509945e-77</v>
+        <v>2.668497449850033e-77</v>
       </c>
     </row>
     <row r="749">
@@ -8603,7 +8603,7 @@
         <v>4.440127306772693</v>
       </c>
       <c r="C749" t="n">
-        <v>2.496943781277136e-77</v>
+        <v>2.508035051536205e-77</v>
       </c>
     </row>
     <row r="750">
@@ -8614,7 +8614,7 @@
         <v>4.441044514255558</v>
       </c>
       <c r="C750" t="n">
-        <v>2.345323064237165e-77</v>
+        <v>2.356146360558495e-77</v>
       </c>
     </row>
     <row r="751">
@@ -8625,7 +8625,7 @@
         <v>4.441961721738423</v>
       </c>
       <c r="C751" t="n">
-        <v>2.201442575161167e-77</v>
+        <v>2.211987480030956e-77</v>
       </c>
     </row>
     <row r="752">
@@ -8636,7 +8636,7 @@
         <v>4.442878929221288</v>
       </c>
       <c r="C752" t="n">
-        <v>2.065073676545075e-77</v>
+        <v>2.075330570436268e-77</v>
       </c>
     </row>
     <row r="753">
@@ -8647,7 +8647,7 @@
         <v>4.443796136704153</v>
       </c>
       <c r="C753" t="n">
-        <v>1.936001820962259e-77</v>
+        <v>1.945961942482198e-77</v>
       </c>
     </row>
     <row r="754">
@@ -8658,7 +8658,7 @@
         <v>4.444713344187018</v>
       </c>
       <c r="C754" t="n">
-        <v>1.814012460986093e-77</v>
+        <v>1.823667906876515e-77</v>
       </c>
     </row>
     <row r="755">
@@ -8669,7 +8669,7 @@
         <v>4.445630551669883</v>
       </c>
       <c r="C755" t="n">
-        <v>1.698891049189948e-77</v>
+        <v>1.708234774326983e-77</v>
       </c>
     </row>
     <row r="756">
@@ -8680,7 +8680,7 @@
         <v>4.446547759152748</v>
       </c>
       <c r="C756" t="n">
-        <v>1.590423038147199e-77</v>
+        <v>1.59944885554137e-77</v>
       </c>
     </row>
     <row r="757">
@@ -8691,7 +8691,7 @@
         <v>4.447464966635613</v>
       </c>
       <c r="C757" t="n">
-        <v>1.488393880431215e-77</v>
+        <v>1.497096461227444e-77</v>
       </c>
     </row>
     <row r="758">
@@ -8702,7 +8702,7 @@
         <v>4.448382174118477</v>
       </c>
       <c r="C758" t="n">
-        <v>1.392589028615372e-77</v>
+        <v>1.400963902092971e-77</v>
       </c>
     </row>
     <row r="759">
@@ -8713,7 +8713,7 @@
         <v>4.449299381601342</v>
       </c>
       <c r="C759" t="n">
-        <v>1.302793935273039e-77</v>
+        <v>1.310837488845718e-77</v>
       </c>
     </row>
     <row r="760">
@@ -8724,7 +8724,7 @@
         <v>4.450216589084206</v>
       </c>
       <c r="C760" t="n">
-        <v>1.218794052977668e-77</v>
+        <v>1.226503532193531e-77</v>
       </c>
     </row>
     <row r="761">
@@ -8735,7 +8735,7 @@
         <v>4.451133796567072</v>
       </c>
       <c r="C761" t="n">
-        <v>1.140374834302397e-77</v>
+        <v>1.147748342843941e-77</v>
       </c>
     </row>
     <row r="762">
@@ -8746,7 +8746,7 @@
         <v>4.452051004049936</v>
       </c>
       <c r="C762" t="n">
-        <v>1.067321731820901e-77</v>
+        <v>1.074358231505018e-77</v>
       </c>
     </row>
     <row r="763">
@@ -8757,7 +8757,7 @@
         <v>4.452968211532802</v>
       </c>
       <c r="C763" t="n">
-        <v>9.994201981062702e-78</v>
+        <v>1.006119508884247e-77</v>
       </c>
     </row>
     <row r="764">
@@ -8768,7 +8768,7 @@
         <v>4.453885419015666</v>
       </c>
       <c r="C764" t="n">
-        <v>9.364556857321394e-78</v>
+        <v>9.428184856896585e-78</v>
       </c>
     </row>
     <row r="765">
@@ -8779,7 +8779,7 @@
         <v>4.454802626498531</v>
       </c>
       <c r="C765" t="n">
-        <v>8.782136472716913e-78</v>
+        <v>8.842414726288287e-78</v>
       </c>
     </row>
     <row r="766">
@@ -8790,7 +8790,7 @@
         <v>4.455719833981396</v>
       </c>
       <c r="C766" t="n">
-        <v>8.244795352983618e-78</v>
+        <v>8.301747804095879e-78</v>
       </c>
     </row>
     <row r="767">
@@ -8801,7 +8801,7 @@
         <v>4.456637041464261</v>
       </c>
       <c r="C767" t="n">
-        <v>7.750388023855229e-78</v>
+        <v>7.80404719739703e-78</v>
       </c>
     </row>
     <row r="768">
@@ -8812,7 +8812,7 @@
         <v>4.457554248947126</v>
       </c>
       <c r="C768" t="n">
-        <v>7.296769011065474e-78</v>
+        <v>7.347176013269415e-78</v>
       </c>
     </row>
     <row r="769">
@@ -8823,7 +8823,7 @@
         <v>4.458471456429991</v>
       </c>
       <c r="C769" t="n">
-        <v>6.881792840348076e-78</v>
+        <v>6.9289973587907e-78</v>
       </c>
     </row>
     <row r="770">
@@ -8834,7 +8834,7 @@
         <v>4.459388663912856</v>
       </c>
       <c r="C770" t="n">
-        <v>6.503314037436759e-78</v>
+        <v>6.547374341038556e-78</v>
       </c>
     </row>
     <row r="771">
@@ -8845,7 +8845,7 @@
         <v>4.460305871395721</v>
       </c>
       <c r="C771" t="n">
-        <v>6.159187128065247e-78</v>
+        <v>6.200170067090654e-78</v>
       </c>
     </row>
     <row r="772">
@@ -8856,7 +8856,7 @@
         <v>4.461223078878586</v>
       </c>
       <c r="C772" t="n">
-        <v>5.847266637967263e-78</v>
+        <v>5.88524764402466e-78</v>
       </c>
     </row>
     <row r="773">
@@ -8867,7 +8867,7 @@
         <v>4.462140286361451</v>
       </c>
       <c r="C773" t="n">
-        <v>5.565407092876532e-78</v>
+        <v>5.600470178918248e-78</v>
       </c>
     </row>
     <row r="774">
@@ -8878,7 +8878,7 @@
         <v>4.463057493844316</v>
       </c>
       <c r="C774" t="n">
-        <v>5.311463018526778e-78</v>
+        <v>5.343700778849085e-78</v>
       </c>
     </row>
     <row r="775">
@@ -8889,7 +8889,7 @@
         <v>4.463974701327181</v>
       </c>
       <c r="C775" t="n">
-        <v>5.083288940651725e-78</v>
+        <v>5.112802550894842e-78</v>
       </c>
     </row>
     <row r="776">
@@ -8900,7 +8900,7 @@
         <v>4.464891908810046</v>
       </c>
       <c r="C776" t="n">
-        <v>4.878739384985095e-78</v>
+        <v>4.905638602133188e-78</v>
       </c>
     </row>
     <row r="777">
@@ -8911,7 +8911,7 @@
         <v>4.465809116292911</v>
       </c>
       <c r="C777" t="n">
-        <v>4.695668877260616e-78</v>
+        <v>4.720072039641793e-78</v>
       </c>
     </row>
     <row r="778">
@@ -8922,7 +8922,7 @@
         <v>4.466726323775775</v>
       </c>
       <c r="C778" t="n">
-        <v>4.531931943212008e-78</v>
+        <v>4.553965970498327e-78</v>
       </c>
     </row>
     <row r="779">
@@ -8933,7 +8933,7 @@
         <v>4.46764353125864</v>
       </c>
       <c r="C779" t="n">
-        <v>4.385383108572998e-78</v>
+        <v>4.405183501780457e-78</v>
       </c>
     </row>
     <row r="780">
@@ -8944,7 +8944,7 @@
         <v>4.468560738741505</v>
       </c>
       <c r="C780" t="n">
-        <v>4.253876899077307e-78</v>
+        <v>4.271587740565858e-78</v>
       </c>
     </row>
     <row r="781">
@@ -8955,7 +8955,7 @@
         <v>4.46947794622437</v>
       </c>
       <c r="C781" t="n">
-        <v>4.135267840458662e-78</v>
+        <v>4.151041793932196e-78</v>
       </c>
     </row>
     <row r="782">
@@ -8966,7 +8966,7 @@
         <v>4.470395153707235</v>
       </c>
       <c r="C782" t="n">
-        <v>4.027410458450787e-78</v>
+        <v>4.041408768957142e-78</v>
       </c>
     </row>
     <row r="783">
@@ -8977,7 +8977,7 @@
         <v>4.4713123611901</v>
       </c>
       <c r="C783" t="n">
-        <v>3.928159278787403e-78</v>
+        <v>3.940551772718364e-78</v>
       </c>
     </row>
     <row r="784">
@@ -8988,7 +8988,7 @@
         <v>4.472229568672965</v>
       </c>
       <c r="C784" t="n">
-        <v>3.835368827202237e-78</v>
+        <v>3.846333912293535e-78</v>
       </c>
     </row>
     <row r="785">
@@ -8999,7 +8999,7 @@
         <v>4.47314677615583</v>
       </c>
       <c r="C785" t="n">
-        <v>3.746893629429012e-78</v>
+        <v>3.756618294760323e-78</v>
       </c>
     </row>
     <row r="786">
@@ -9010,7 +9010,7 @@
         <v>4.474063983638695</v>
       </c>
       <c r="C786" t="n">
-        <v>3.660588211201451e-78</v>
+        <v>3.669268027196396e-78</v>
       </c>
     </row>
     <row r="787">
@@ -9021,7 +9021,7 @@
         <v>4.47498119112156</v>
       </c>
       <c r="C787" t="n">
-        <v>3.574313394972311e-78</v>
+        <v>3.582152448197271e-78</v>
       </c>
     </row>
     <row r="788">
@@ -9032,7 +9032,7 @@
         <v>4.475898398604425</v>
       </c>
       <c r="C788" t="n">
-        <v>3.486731500961119e-78</v>
+        <v>3.493934094786306e-78</v>
       </c>
     </row>
     <row r="789">
@@ -9043,7 +9043,7 @@
         <v>4.47681560608729</v>
       </c>
       <c r="C789" t="n">
-        <v>3.398083241310599e-78</v>
+        <v>3.404837551997349e-78</v>
       </c>
     </row>
     <row r="790">
@@ -9054,7 +9054,7 @@
         <v>4.477732813570155</v>
       </c>
       <c r="C790" t="n">
-        <v>3.308793750142058e-78</v>
+        <v>3.315269917192467e-78</v>
       </c>
     </row>
     <row r="791">
@@ -9065,7 +9065,7 @@
         <v>4.47865002105302</v>
       </c>
       <c r="C791" t="n">
-        <v>3.219288161576803e-78</v>
+        <v>3.22563828773372e-78</v>
       </c>
     </row>
     <row r="792">
@@ -9076,7 +9076,7 @@
         <v>4.479567228535885</v>
       </c>
       <c r="C792" t="n">
-        <v>3.129991609736145e-78</v>
+        <v>3.136349760983175e-78</v>
       </c>
     </row>
     <row r="793">
@@ -9087,7 +9087,7 @@
         <v>4.48048443601875</v>
       </c>
       <c r="C793" t="n">
-        <v>3.041329228741388e-78</v>
+        <v>3.047811434302897e-78</v>
       </c>
     </row>
     <row r="794">
@@ -9098,7 +9098,7 @@
         <v>4.481401643501615</v>
       </c>
       <c r="C794" t="n">
-        <v>2.953726152713842e-78</v>
+        <v>2.960430405054948e-78</v>
       </c>
     </row>
     <row r="795">
@@ -9109,7 +9109,7 @@
         <v>4.48231885098448</v>
       </c>
       <c r="C795" t="n">
-        <v>2.867607515774813e-78</v>
+        <v>2.874613770601392e-78</v>
       </c>
     </row>
     <row r="796">
@@ -9120,7 +9120,7 @@
         <v>4.483236058467345</v>
       </c>
       <c r="C796" t="n">
-        <v>2.78339845204561e-78</v>
+        <v>2.790768628304296e-78</v>
       </c>
     </row>
     <row r="797">
@@ -9131,7 +9131,7 @@
         <v>4.484153265950209</v>
       </c>
       <c r="C797" t="n">
-        <v>2.701524095647619e-78</v>
+        <v>2.709302075525799e-78</v>
       </c>
     </row>
     <row r="798">
@@ -9142,7 +9142,7 @@
         <v>4.485070473433074</v>
       </c>
       <c r="C798" t="n">
-        <v>2.622409580701912e-78</v>
+        <v>2.630621209627735e-78</v>
       </c>
     </row>
     <row r="799">
@@ -9153,7 +9153,7 @@
         <v>4.485987680915938</v>
       </c>
       <c r="C799" t="n">
-        <v>2.546480041330105e-78</v>
+        <v>2.55513312797247e-78</v>
       </c>
     </row>
     <row r="800">
@@ -9164,7 +9164,7 @@
         <v>4.486904888398804</v>
       </c>
       <c r="C800" t="n">
-        <v>2.47416061165321e-78</v>
+        <v>2.483244927921779e-78</v>
       </c>
     </row>
     <row r="801">
@@ -9175,7 +9175,7 @@
         <v>4.487822095881668</v>
       </c>
       <c r="C801" t="n">
-        <v>2.405876425792815e-78</v>
+        <v>2.415363706838002e-78</v>
       </c>
     </row>
     <row r="802">
@@ -9186,7 +9186,7 @@
         <v>4.488739303364533</v>
       </c>
       <c r="C802" t="n">
-        <v>2.342052617870023e-78</v>
+        <v>2.351896562083e-78</v>
       </c>
     </row>
     <row r="803">
@@ -9197,7 +9197,7 @@
         <v>4.489656510847398</v>
       </c>
       <c r="C803" t="n">
-        <v>2.283114322006211e-78</v>
+        <v>2.293250591018907e-78</v>
       </c>
     </row>
     <row r="804">
@@ -9208,7 +9208,7 @@
         <v>4.490573718330263</v>
       </c>
       <c r="C804" t="n">
-        <v>2.229486672322686e-78</v>
+        <v>2.239832891007785e-78</v>
       </c>
     </row>
     <row r="805">
@@ -9219,7 +9219,7 @@
         <v>4.491490925813128</v>
       </c>
       <c r="C805" t="n">
-        <v>2.181594802940756e-78</v>
+        <v>2.1920505594117e-78</v>
       </c>
     </row>
     <row r="806">
@@ -9230,7 +9230,7 @@
         <v>4.492408133295993</v>
       </c>
       <c r="C806" t="n">
-        <v>2.139863847981728e-78</v>
+        <v>2.150310693592716e-78</v>
       </c>
     </row>
     <row r="807">
@@ -9241,7 +9241,7 @@
         <v>4.493325340778858</v>
       </c>
       <c r="C807" t="n">
-        <v>2.10471894156691e-78</v>
+        <v>2.115020390912896e-78</v>
       </c>
     </row>
     <row r="808">
@@ -9252,7 +9252,7 @@
         <v>4.494242548261723</v>
       </c>
       <c r="C808" t="n">
-        <v>2.07658521781761e-78</v>
+        <v>2.086586748734305e-78</v>
       </c>
     </row>
     <row r="809">
@@ -9263,7 +9263,7 @@
         <v>4.495159755744588</v>
       </c>
       <c r="C809" t="n">
-        <v>2.055887810855135e-78</v>
+        <v>2.065416864419008e-78</v>
       </c>
     </row>
     <row r="810">
@@ -9274,7 +9274,7 @@
         <v>4.496076963227453</v>
       </c>
       <c r="C810" t="n">
-        <v>2.043051854800795e-78</v>
+        <v>2.051917835329068e-78</v>
       </c>
     </row>
     <row r="811">
@@ -9285,7 +9285,7 @@
         <v>4.496994170710318</v>
       </c>
       <c r="C811" t="n">
-        <v>2.038502483775894e-78</v>
+        <v>2.04649675882655e-78</v>
       </c>
     </row>
     <row r="812">
@@ -9296,7 +9296,7 @@
         <v>4.497911378193183</v>
       </c>
       <c r="C812" t="n">
-        <v>2.042664831901743e-78</v>
+        <v>2.049560732273518e-78</v>
       </c>
     </row>
     <row r="813">
@@ -9307,7 +9307,7 @@
         <v>4.498828585676048</v>
       </c>
       <c r="C813" t="n">
-        <v>2.055964033299649e-78</v>
+        <v>2.061516853032036e-78</v>
       </c>
     </row>
     <row r="814">
@@ -9318,7 +9318,7 @@
         <v>4.499745793158913</v>
       </c>
       <c r="C814" t="n">
-        <v>2.078825222090918e-78</v>
+        <v>2.082772218464169e-78</v>
       </c>
     </row>
     <row r="815">
@@ -9329,7 +9329,7 @@
         <v>4.500663000641778</v>
       </c>
       <c r="C815" t="n">
-        <v>2.111544192243677e-78</v>
+        <v>2.113611913736294e-78</v>
       </c>
     </row>
     <row r="816">
@@ -9340,7 +9340,7 @@
         <v>4.501580208124643</v>
       </c>
       <c r="C816" t="n">
-        <v>2.152992922996806e-78</v>
+        <v>2.152977877612904e-78</v>
       </c>
     </row>
     <row r="817">
@@ -9351,7 +9351,7 @@
         <v>4.502497415607507</v>
       </c>
       <c r="C817" t="n">
-        <v>2.201161312905981e-78</v>
+        <v>2.198979943759789e-78</v>
       </c>
     </row>
     <row r="818">
@@ -9362,7 +9362,7 @@
         <v>4.503414623090372</v>
       </c>
       <c r="C818" t="n">
-        <v>2.254026115735015e-78</v>
+        <v>2.249715545788479e-78</v>
       </c>
     </row>
     <row r="819">
@@ -9373,7 +9373,7 @@
         <v>4.504331830573237</v>
       </c>
       <c r="C819" t="n">
-        <v>2.309564085247722e-78</v>
+        <v>2.303282117310504e-78</v>
       </c>
     </row>
     <row r="820">
@@ -9384,7 +9384,7 @@
         <v>4.505249038056102</v>
       </c>
       <c r="C820" t="n">
-        <v>2.365751975207914e-78</v>
+        <v>2.357777091937395e-78</v>
       </c>
     </row>
     <row r="821">
@@ -9395,7 +9395,7 @@
         <v>4.506166245538967</v>
       </c>
       <c r="C821" t="n">
-        <v>2.420566539379404e-78</v>
+        <v>2.411297903280682e-78</v>
       </c>
     </row>
     <row r="822">
@@ -9406,7 +9406,7 @@
         <v>4.507083453021832</v>
       </c>
       <c r="C822" t="n">
-        <v>2.471984531526004e-78</v>
+        <v>2.461941984951897e-78</v>
       </c>
     </row>
     <row r="823">
@@ -9417,7 +9417,7 @@
         <v>4.508000660504697</v>
       </c>
       <c r="C823" t="n">
-        <v>2.517982705411526e-78</v>
+        <v>2.507806770562569e-78</v>
       </c>
     </row>
     <row r="824">
@@ -9428,7 +9428,7 @@
         <v>4.508917867987562</v>
       </c>
       <c r="C824" t="n">
-        <v>2.556537814799785e-78</v>
+        <v>2.546989693724229e-78</v>
       </c>
     </row>
     <row r="825">
@@ -9439,7 +9439,7 @@
         <v>4.509835075470427</v>
       </c>
       <c r="C825" t="n">
-        <v>2.585809381865063e-78</v>
+        <v>2.577748710869045e-78</v>
       </c>
     </row>
     <row r="826">
@@ -9450,7 +9450,7 @@
         <v>4.510752282953292</v>
       </c>
       <c r="C826" t="n">
-        <v>2.605408419015228e-78</v>
+        <v>2.599616601063033e-78</v>
       </c>
     </row>
     <row r="827">
@@ -9461,7 +9461,7 @@
         <v>4.511669490436157</v>
       </c>
       <c r="C827" t="n">
-        <v>2.615638114066898e-78</v>
+        <v>2.612734070905756e-78</v>
       </c>
     </row>
     <row r="828">
@@ -9472,7 +9472,7 @@
         <v>4.512586697919022</v>
       </c>
       <c r="C828" t="n">
-        <v>2.616805917656759e-78</v>
+        <v>2.617245570969268e-78</v>
       </c>
     </row>
     <row r="829">
@@ -9483,7 +9483,7 @@
         <v>4.513503905401887</v>
       </c>
       <c r="C829" t="n">
-        <v>2.609219280421499e-78</v>
+        <v>2.613295551825628e-78</v>
       </c>
     </row>
     <row r="830">
@@ -9494,7 +9494,7 @@
         <v>4.514421112884752</v>
       </c>
       <c r="C830" t="n">
-        <v>2.593185652997803e-78</v>
+        <v>2.601028464046889e-78</v>
       </c>
     </row>
     <row r="831">
@@ -9505,7 +9505,7 @@
         <v>4.515338320367617</v>
       </c>
       <c r="C831" t="n">
-        <v>2.569012486022358e-78</v>
+        <v>2.580588758205105e-78</v>
       </c>
     </row>
     <row r="832">
@@ -9516,7 +9516,7 @@
         <v>4.516255527850482</v>
       </c>
       <c r="C832" t="n">
-        <v>2.537007230131849e-78</v>
+        <v>2.552120884872333e-78</v>
       </c>
     </row>
     <row r="833">
@@ -9527,7 +9527,7 @@
         <v>4.517172735333347</v>
       </c>
       <c r="C833" t="n">
-        <v>2.497477335962962e-78</v>
+        <v>2.515769294620629e-78</v>
       </c>
     </row>
     <row r="834">
@@ -9538,7 +9538,7 @@
         <v>4.518089942816211</v>
       </c>
       <c r="C834" t="n">
-        <v>2.450730254152434e-78</v>
+        <v>2.471678438022092e-78</v>
       </c>
     </row>
     <row r="835">
@@ -9549,7 +9549,7 @@
         <v>4.519007150299077</v>
       </c>
       <c r="C835" t="n">
-        <v>2.397073435336805e-78</v>
+        <v>2.41999276564864e-78</v>
       </c>
     </row>
     <row r="836">
@@ -9560,7 +9560,7 @@
         <v>4.519924357781941</v>
       </c>
       <c r="C836" t="n">
-        <v>2.336814330152968e-78</v>
+        <v>2.360856728072529e-78</v>
       </c>
     </row>
     <row r="837">
@@ -9571,7 +9571,7 @@
         <v>4.520841565264806</v>
       </c>
       <c r="C837" t="n">
-        <v>2.270260389237375e-78</v>
+        <v>2.294414775865584e-78</v>
       </c>
     </row>
     <row r="838">
@@ -9582,7 +9582,7 @@
         <v>4.52175877274767</v>
       </c>
       <c r="C838" t="n">
-        <v>2.197719063226972e-78</v>
+        <v>2.220811359600117e-78</v>
       </c>
     </row>
     <row r="839">
@@ -9593,7 +9593,7 @@
         <v>4.522675980230535</v>
       </c>
       <c r="C839" t="n">
-        <v>2.119567517688343e-78</v>
+        <v>2.140313619014638e-78</v>
       </c>
     </row>
     <row r="840">
@@ -9604,7 +9604,7 @@
         <v>4.5235931877134</v>
       </c>
       <c r="C840" t="n">
-        <v>2.036614598774301e-78</v>
+        <v>2.053948395267371e-78</v>
       </c>
     </row>
     <row r="841">
@@ -9615,7 +9615,7 @@
         <v>4.524510395196265</v>
       </c>
       <c r="C841" t="n">
-        <v>1.949834176467763e-78</v>
+        <v>1.963032949892321e-78</v>
       </c>
     </row>
     <row r="842">
@@ -9626,7 +9626,7 @@
         <v>4.52542760267913</v>
       </c>
       <c r="C842" t="n">
-        <v>1.860200452150704e-78</v>
+        <v>1.868885127642534e-78</v>
       </c>
     </row>
     <row r="843">
@@ -9637,7 +9637,7 @@
         <v>4.526344810161995</v>
       </c>
       <c r="C843" t="n">
-        <v>1.768687627205098e-78</v>
+        <v>1.77282277327105e-78</v>
       </c>
     </row>
     <row r="844">
@@ -9648,7 +9648,7 @@
         <v>4.52726201764486</v>
       </c>
       <c r="C844" t="n">
-        <v>1.67626990301292e-78</v>
+        <v>1.676163731530913e-78</v>
       </c>
     </row>
     <row r="845">
@@ -9659,7 +9659,7 @@
         <v>4.528179225127725</v>
       </c>
       <c r="C845" t="n">
-        <v>1.583921480956146e-78</v>
+        <v>1.580225847175167e-78</v>
       </c>
     </row>
     <row r="846">
@@ -9670,7 +9670,7 @@
         <v>4.52909643261059</v>
       </c>
       <c r="C846" t="n">
-        <v>1.49261656241675e-78</v>
+        <v>1.486326964956852e-78</v>
       </c>
     </row>
     <row r="847">
@@ -9681,7 +9681,7 @@
         <v>4.530013640093455</v>
       </c>
       <c r="C847" t="n">
-        <v>1.403329348776707e-78</v>
+        <v>1.395784929629013e-78</v>
       </c>
     </row>
     <row r="848">
@@ -9692,7 +9692,7 @@
         <v>4.53093084757632</v>
       </c>
       <c r="C848" t="n">
-        <v>1.317018037818966e-78</v>
+        <v>1.309883735230278e-78</v>
       </c>
     </row>
     <row r="849">
@@ -9703,7 +9703,7 @@
         <v>4.531848055059185</v>
       </c>
       <c r="C849" t="n">
-        <v>1.234293682520185e-78</v>
+        <v>1.229173097236137e-78</v>
       </c>
     </row>
     <row r="850">
@@ -9714,7 +9714,7 @@
         <v>4.53276526254205</v>
       </c>
       <c r="C850" t="n">
-        <v>1.155431439581345e-78</v>
+        <v>1.153492245381838e-78</v>
       </c>
     </row>
     <row r="851">
@@ -9725,7 +9725,7 @@
         <v>4.533682470024915</v>
       </c>
       <c r="C851" t="n">
-        <v>1.080692712575752e-78</v>
+        <v>1.0826513188714e-78</v>
       </c>
     </row>
     <row r="852">
@@ -9736,7 +9736,7 @@
         <v>4.53459967750778</v>
       </c>
       <c r="C852" t="n">
-        <v>1.010338905076711e-78</v>
+        <v>1.01646045690884e-78</v>
       </c>
     </row>
     <row r="853">
@@ -9747,7 +9747,7 @@
         <v>4.535516884990645</v>
       </c>
       <c r="C853" t="n">
-        <v>9.446314206575254e-79</v>
+        <v>9.547297986981773e-79</v>
       </c>
     </row>
     <row r="854">
@@ -9758,7 +9758,7 @@
         <v>4.53643409247351</v>
       </c>
       <c r="C854" t="n">
-        <v>8.83831662891502e-79</v>
+        <v>8.972694834434296e-79</v>
       </c>
     </row>
     <row r="855">
@@ -9769,7 +9769,7 @@
         <v>4.537351299956375</v>
       </c>
       <c r="C855" t="n">
-        <v>8.282010353519454e-79</v>
+        <v>8.438896503486155e-79</v>
       </c>
     </row>
     <row r="856">
@@ -9780,7 +9780,7 @@
         <v>4.538268507439239</v>
       </c>
       <c r="C856" t="n">
-        <v>7.780009416121605e-79</v>
+        <v>7.94400438617753e-79</v>
       </c>
     </row>
     <row r="857">
@@ -9791,7 +9791,7 @@
         <v>4.539185714922104</v>
       </c>
       <c r="C857" t="n">
-        <v>7.334918782877582e-79</v>
+        <v>7.486119550856917e-79</v>
       </c>
     </row>
     <row r="858">
@@ -9802,7 +9802,7 @@
         <v>4.540102922404969</v>
       </c>
       <c r="C858" t="n">
-        <v>6.946386705985634e-79</v>
+        <v>7.063237541244501e-79</v>
       </c>
     </row>
     <row r="859">
@@ -9813,7 +9813,7 @@
         <v>4.541020129887834</v>
       </c>
       <c r="C859" t="n">
-        <v>6.606865405972081e-79</v>
+        <v>6.673097075889575e-79</v>
       </c>
     </row>
     <row r="860">
@@ -9824,7 +9824,7 @@
         <v>4.541937337370699</v>
       </c>
       <c r="C860" t="n">
-        <v>6.307733236811623e-79</v>
+        <v>6.313398547223209e-79</v>
       </c>
     </row>
     <row r="861">
@@ -9835,7 +9835,7 @@
         <v>4.542854544853564</v>
       </c>
       <c r="C861" t="n">
-        <v>6.040368552478963e-79</v>
+        <v>5.981842347676475e-79</v>
       </c>
     </row>
     <row r="862">
@@ -9846,7 +9846,7 @@
         <v>4.543771752336429</v>
       </c>
       <c r="C862" t="n">
-        <v>5.796149706948799e-79</v>
+        <v>5.67612886968044e-79</v>
       </c>
     </row>
     <row r="863">
@@ -9857,7 +9857,7 @@
         <v>4.544688959819294</v>
       </c>
       <c r="C863" t="n">
-        <v>5.566455054195834e-79</v>
+        <v>5.393958505666173e-79</v>
       </c>
     </row>
     <row r="864">
@@ -9868,7 +9868,7 @@
         <v>4.545606167302159</v>
       </c>
       <c r="C864" t="n">
-        <v>5.342662948194765e-79</v>
+        <v>5.133031648064742e-79</v>
       </c>
     </row>
     <row r="865">
@@ -9879,7 +9879,7 @@
         <v>4.546523374785024</v>
       </c>
       <c r="C865" t="n">
-        <v>5.117245431702832e-79</v>
+        <v>4.891220097248412e-79</v>
       </c>
     </row>
     <row r="866">
@@ -9890,7 +9890,7 @@
         <v>4.547440582267889</v>
       </c>
       <c r="C866" t="n">
-        <v>4.891079759829373e-79</v>
+        <v>4.667712957165715e-79</v>
       </c>
     </row>
     <row r="867">
@@ -9901,7 +9901,7 @@
         <v>4.548357789750754</v>
       </c>
       <c r="C867" t="n">
-        <v>4.668940294026049e-79</v>
+        <v>4.462310104212898e-79</v>
       </c>
     </row>
     <row r="868">
@@ -9912,7 +9912,7 @@
         <v>4.549274997233619</v>
       </c>
       <c r="C868" t="n">
-        <v>4.455622739352408e-79</v>
+        <v>4.274814759854697e-79</v>
       </c>
     </row>
     <row r="869">
@@ -9923,7 +9923,7 @@
         <v>4.550192204716484</v>
       </c>
       <c r="C869" t="n">
-        <v>4.255922800868002e-79</v>
+        <v>4.105030145555852e-79</v>
       </c>
     </row>
     <row r="870">
@@ -9934,7 +9934,7 @@
         <v>4.551109412199349</v>
       </c>
       <c r="C870" t="n">
-        <v>4.074636183632388e-79</v>
+        <v>3.952759482781102e-79</v>
       </c>
     </row>
     <row r="871">
@@ -9945,7 +9945,7 @@
         <v>4.552026619682213</v>
       </c>
       <c r="C871" t="n">
-        <v>3.916454933663714e-79</v>
+        <v>3.817790856205851e-79</v>
       </c>
     </row>
     <row r="872">
@@ -9956,7 +9956,7 @@
         <v>4.552943827165079</v>
       </c>
       <c r="C872" t="n">
-        <v>3.782752656941897e-79</v>
+        <v>3.699427776005588e-79</v>
       </c>
     </row>
     <row r="873">
@@ -9967,7 +9967,7 @@
         <v>4.553861034647943</v>
       </c>
       <c r="C873" t="n">
-        <v>3.670963726822177e-79</v>
+        <v>3.59639852675181e-79</v>
       </c>
     </row>
     <row r="874">
@@ -9978,7 +9978,7 @@
         <v>4.554778242130809</v>
       </c>
       <c r="C874" t="n">
-        <v>3.578293553344423e-79</v>
+        <v>3.507397958695953e-79</v>
       </c>
     </row>
     <row r="875">
@@ -9989,7 +9989,7 @@
         <v>4.555695449613673</v>
       </c>
       <c r="C875" t="n">
-        <v>3.5019475465493e-79</v>
+        <v>3.431120922090202e-79</v>
       </c>
     </row>
     <row r="876">
@@ -10000,7 +10000,7 @@
         <v>4.556612657096538</v>
       </c>
       <c r="C876" t="n">
-        <v>3.439131116476867e-79</v>
+        <v>3.366262267186154e-79</v>
       </c>
     </row>
     <row r="877">
@@ -10011,7 +10011,7 @@
         <v>4.557529864579402</v>
       </c>
       <c r="C877" t="n">
-        <v>3.387049673167507e-79</v>
+        <v>3.311516844235725e-79</v>
       </c>
     </row>
     <row r="878">
@@ -10022,7 +10022,7 @@
         <v>4.558447072062267</v>
       </c>
       <c r="C878" t="n">
-        <v>3.342908626661525e-79</v>
+        <v>3.265579503490754e-79</v>
       </c>
     </row>
     <row r="879">
@@ -10033,7 +10033,7 @@
         <v>4.559364279545132</v>
       </c>
       <c r="C879" t="n">
-        <v>3.30396469801365e-79</v>
+        <v>3.227155553959084e-79</v>
       </c>
     </row>
     <row r="880">
@@ -10044,7 +10044,7 @@
         <v>4.560281487027997</v>
       </c>
       <c r="C880" t="n">
-        <v>3.268697827923367e-79</v>
+        <v>3.195199634270061e-79</v>
       </c>
     </row>
     <row r="881">
@@ -10055,7 +10055,7 @@
         <v>4.561198694510862</v>
       </c>
       <c r="C881" t="n">
-        <v>3.236835591902879e-79</v>
+        <v>3.168920689233428e-79</v>
       </c>
     </row>
     <row r="882">
@@ -10066,7 +10066,7 @@
         <v>4.562115901993727</v>
       </c>
       <c r="C882" t="n">
-        <v>3.20816176011029e-79</v>
+        <v>3.147539117848567e-79</v>
       </c>
     </row>
     <row r="883">
@@ -10077,7 +10077,7 @@
         <v>4.563033109476592</v>
       </c>
       <c r="C883" t="n">
-        <v>3.182460102703706e-79</v>
+        <v>3.130275319114866e-79</v>
       </c>
     </row>
     <row r="884">
@@ -10088,7 +10088,7 @@
         <v>4.563950316959457</v>
       </c>
       <c r="C884" t="n">
-        <v>3.159514389841234e-79</v>
+        <v>3.116349692031713e-79</v>
       </c>
     </row>
     <row r="885">
@@ -10099,7 +10099,7 @@
         <v>4.564867524442322</v>
       </c>
       <c r="C885" t="n">
-        <v>3.139108391680979e-79</v>
+        <v>3.104982635598494e-79</v>
       </c>
     </row>
     <row r="886">
@@ -10110,7 +10110,7 @@
         <v>4.565784731925187</v>
       </c>
       <c r="C886" t="n">
-        <v>3.121025878381046e-79</v>
+        <v>3.095394548814595e-79</v>
       </c>
     </row>
     <row r="887">
@@ -10121,7 +10121,7 @@
         <v>4.566701939408052</v>
       </c>
       <c r="C887" t="n">
-        <v>3.105050620099541e-79</v>
+        <v>3.086805830679403e-79</v>
       </c>
     </row>
     <row r="888">
@@ -10132,7 +10132,7 @@
         <v>4.567619146890917</v>
       </c>
       <c r="C888" t="n">
-        <v>3.090916694293651e-79</v>
+        <v>3.078455547312901e-79</v>
       </c>
     </row>
     <row r="889">
@@ -10143,7 +10143,7 @@
         <v>4.568536354373782</v>
       </c>
       <c r="C889" t="n">
-        <v>3.077994470787763e-79</v>
+        <v>3.06971939202816e-79</v>
       </c>
     </row>
     <row r="890">
@@ -10154,7 +10154,7 @@
         <v>4.569453561856647</v>
       </c>
       <c r="C890" t="n">
-        <v>3.0654926843645e-79</v>
+        <v>3.060033776528704e-79</v>
       </c>
     </row>
     <row r="891">
@@ -10165,7 +10165,7 @@
         <v>4.570370769339512</v>
       </c>
       <c r="C891" t="n">
-        <v>3.052619336483921e-79</v>
+        <v>3.048835387991535e-79</v>
       </c>
     </row>
     <row r="892">
@@ -10176,7 +10176,7 @@
         <v>4.571287976822377</v>
       </c>
       <c r="C892" t="n">
-        <v>3.038582428606077e-79</v>
+        <v>3.035560913593644e-79</v>
       </c>
     </row>
     <row r="893">
@@ -10187,7 +10187,7 @@
         <v>4.572205184305242</v>
       </c>
       <c r="C893" t="n">
-        <v>3.02258996219103e-79</v>
+        <v>3.019647040512034e-79</v>
       </c>
     </row>
     <row r="894">
@@ -10198,7 +10198,7 @@
         <v>4.573122391788107</v>
       </c>
       <c r="C894" t="n">
-        <v>3.003849938698833e-79</v>
+        <v>3.000530455923701e-79</v>
       </c>
     </row>
     <row r="895">
@@ -10209,7 +10209,7 @@
         <v>4.574039599270971</v>
       </c>
       <c r="C895" t="n">
-        <v>2.981570359589542e-79</v>
+        <v>2.977647847005643e-79</v>
       </c>
     </row>
     <row r="896">
@@ -10220,7 +10220,7 @@
         <v>4.574956806753836</v>
       </c>
       <c r="C896" t="n">
-        <v>2.954959226323214e-79</v>
+        <v>2.950435900934856e-79</v>
       </c>
     </row>
     <row r="897">
@@ -10231,7 +10231,7 @@
         <v>4.575874014236701</v>
       </c>
       <c r="C897" t="n">
-        <v>2.923225632503547e-79</v>
+        <v>2.918331440925061e-79</v>
       </c>
     </row>
     <row r="898">
@@ -10242,7 +10242,7 @@
         <v>4.576791221719566</v>
       </c>
       <c r="C898" t="n">
-        <v>2.885685297313419e-79</v>
+        <v>2.88078457140478e-79</v>
       </c>
     </row>
     <row r="899">
@@ -10253,7 +10253,7 @@
         <v>4.577708429202431</v>
       </c>
       <c r="C899" t="n">
-        <v>2.841848543752642e-79</v>
+        <v>2.83726963653107e-79</v>
       </c>
     </row>
     <row r="900">
@@ -10264,7 +10264,7 @@
         <v>4.578625636685296</v>
       </c>
       <c r="C900" t="n">
-        <v>2.791246405100448e-79</v>
+        <v>2.787263560120312e-79</v>
       </c>
     </row>
     <row r="901">
@@ -10275,7 +10275,7 @@
         <v>4.579542844168161</v>
       </c>
       <c r="C901" t="n">
-        <v>2.733409914636066e-79</v>
+        <v>2.73024326598889e-79</v>
       </c>
     </row>
     <row r="902">
@@ -10286,7 +10286,7 @@
         <v>4.580460051651026</v>
       </c>
       <c r="C902" t="n">
-        <v>2.667870105638725e-79</v>
+        <v>2.665685677953181e-79</v>
       </c>
     </row>
     <row r="903">
@@ -10297,7 +10297,7 @@
         <v>4.581377259133891</v>
       </c>
       <c r="C903" t="n">
-        <v>2.594158011387655e-79</v>
+        <v>2.593067719829569e-79</v>
       </c>
     </row>
     <row r="904">
@@ -10308,7 +10308,7 @@
         <v>4.582294466616756</v>
       </c>
       <c r="C904" t="n">
-        <v>2.511804665162087e-79</v>
+        <v>2.511866315434435e-79</v>
       </c>
     </row>
     <row r="905">
@@ -10319,7 +10319,7 @@
         <v>4.583211674099621</v>
       </c>
       <c r="C905" t="n">
-        <v>2.42034110024125e-79</v>
+        <v>2.421558388584161e-79</v>
       </c>
     </row>
     <row r="906">
@@ -10330,7 +10330,7 @@
         <v>4.584128881582486</v>
       </c>
       <c r="C906" t="n">
-        <v>2.319299031421486e-79</v>
+        <v>2.321621554104158e-79</v>
       </c>
     </row>
     <row r="907">
@@ -10341,7 +10341,7 @@
         <v>4.585046089065351</v>
       </c>
       <c r="C907" t="n">
-        <v>2.208812050125339e-79</v>
+        <v>2.212143686161214e-79</v>
       </c>
     </row>
     <row r="908">
@@ -10352,7 +10352,7 @@
         <v>4.585963296548215</v>
       </c>
       <c r="C908" t="n">
-        <v>2.090719787654146e-79</v>
+        <v>2.094942459893722e-79</v>
       </c>
     </row>
     <row r="909">
@@ -10363,7 +10363,7 @@
         <v>4.586880504031081</v>
       </c>
       <c r="C909" t="n">
-        <v>1.967162073038452e-79</v>
+        <v>1.972139929212298e-79</v>
       </c>
     </row>
     <row r="910">
@@ -10374,7 +10374,7 @@
         <v>4.587797711513945</v>
       </c>
       <c r="C910" t="n">
-        <v>1.840278735309631e-79</v>
+        <v>1.84585814802838e-79</v>
       </c>
     </row>
     <row r="911">
@@ -10385,7 +10385,7 @@
         <v>4.588714918996811</v>
       </c>
       <c r="C911" t="n">
-        <v>1.712209878045965e-79</v>
+        <v>1.71821944661966e-79</v>
       </c>
     </row>
     <row r="912">
@@ -10396,7 +10396,7 @@
         <v>4.589632126479675</v>
       </c>
       <c r="C912" t="n">
-        <v>1.586047832915966e-79</v>
+        <v>1.59230469343286e-79</v>
       </c>
     </row>
     <row r="913">
@@ -10407,7 +10407,7 @@
         <v>4.59054933396254</v>
       </c>
       <c r="C913" t="n">
-        <v>1.467969087976078e-79</v>
+        <v>1.474299350916391e-79</v>
       </c>
     </row>
     <row r="914">
@@ -10418,7 +10418,7 @@
         <v>4.591466541445405</v>
       </c>
       <c r="C914" t="n">
-        <v>1.364773417397707e-79</v>
+        <v>1.371016297930291e-79</v>
       </c>
     </row>
     <row r="915">
@@ -10429,7 +10429,7 @@
         <v>4.59238374892827</v>
       </c>
       <c r="C915" t="n">
-        <v>1.283260595352136e-79</v>
+        <v>1.289268413334478e-79</v>
       </c>
     </row>
     <row r="916">
@@ -10440,7 +10440,7 @@
         <v>4.593300956411134</v>
       </c>
       <c r="C916" t="n">
-        <v>1.23023033900033e-79</v>
+        <v>1.235868519352611e-79</v>
       </c>
     </row>
     <row r="917">
@@ -10451,7 +10451,7 @@
         <v>4.594218163893999</v>
       </c>
       <c r="C917" t="n">
-        <v>1.208667268386678e-79</v>
+        <v>1.213839373074913e-79</v>
       </c>
     </row>
     <row r="918">
@@ -10462,7 +10462,7 @@
         <v>4.595135371376864</v>
       </c>
       <c r="C918" t="n">
-        <v>1.207408212472056e-79</v>
+        <v>1.212148768359388e-79</v>
       </c>
     </row>
     <row r="919">
@@ -10473,7 +10473,7 @@
         <v>4.596052578859729</v>
       </c>
       <c r="C919" t="n">
-        <v>1.212011196871941e-79</v>
+        <v>1.216507208919369e-79</v>
       </c>
     </row>
     <row r="920">
@@ -10484,7 +10484,7 @@
         <v>4.596969786342594</v>
       </c>
       <c r="C920" t="n">
-        <v>1.208324227770362e-79</v>
+        <v>1.212908707064531e-79</v>
       </c>
     </row>
     <row r="921">
@@ -10495,7 +10495,7 @@
         <v>4.597886993825459</v>
       </c>
       <c r="C921" t="n">
-        <v>1.189727672739671e-79</v>
+        <v>1.194711524423151e-79</v>
       </c>
     </row>
     <row r="922">
@@ -10506,7 +10506,7 @@
         <v>4.598804201308324</v>
       </c>
       <c r="C922" t="n">
-        <v>1.157647270198271e-79</v>
+        <v>1.163139731725916e-79</v>
       </c>
     </row>
     <row r="923">
@@ -10517,7 +10517,7 @@
         <v>4.599721408791189</v>
       </c>
       <c r="C923" t="n">
-        <v>1.113901480676077e-79</v>
+        <v>1.119801356791203e-79</v>
       </c>
     </row>
     <row r="924">
@@ -10528,7 +10528,7 @@
         <v>4.600638616274054</v>
       </c>
       <c r="C924" t="n">
-        <v>1.060308764703e-79</v>
+        <v>1.066304427437391e-79</v>
       </c>
     </row>
     <row r="925">
@@ -10539,7 +10539,7 @@
         <v>4.601555823756919</v>
       </c>
       <c r="C925" t="n">
-        <v>9.986876827820565e-80</v>
+        <v>1.004257090159705e-79</v>
       </c>
     </row>
     <row r="926">
@@ -10550,7 +10550,7 @@
         <v>4.602473031239784</v>
       </c>
       <c r="C926" t="n">
-        <v>9.315421110345295e-80</v>
+        <v>9.360810212685504e-80</v>
       </c>
     </row>
     <row r="927">
@@ -10561,7 +10561,7 @@
         <v>4.603390238722649</v>
       </c>
       <c r="C927" t="n">
-        <v>8.6369760094319e-80</v>
+        <v>8.669539295904254e-80</v>
       </c>
     </row>
     <row r="928">
@@ -10572,7 +10572,7 @@
         <v>4.604307446205514</v>
       </c>
       <c r="C928" t="n">
-        <v>8.004708718438439e-80</v>
+        <v>8.026365833219167e-80</v>
       </c>
     </row>
     <row r="929">
@@ -10583,7 +10583,7 @@
         <v>4.605224653688379</v>
       </c>
       <c r="C929" t="n">
-        <v>7.471211416039451e-80</v>
+        <v>7.488276575658651e-80</v>
       </c>
     </row>
     <row r="930">
@@ -10594,7 +10594,7 @@
         <v>4.606141861171244</v>
       </c>
       <c r="C930" t="n">
-        <v>7.05048994571835e-80</v>
+        <v>7.070590730846047e-80</v>
       </c>
     </row>
     <row r="931">
@@ -10605,7 +10605,7 @@
         <v>4.607059068654109</v>
       </c>
       <c r="C931" t="n">
-        <v>6.694265834524693e-80</v>
+        <v>6.72136964308064e-80</v>
       </c>
     </row>
     <row r="932">
@@ -10616,7 +10616,7 @@
         <v>4.607976276136974</v>
       </c>
       <c r="C932" t="n">
-        <v>6.348602666193506e-80</v>
+        <v>6.382564913472212e-80</v>
       </c>
     </row>
     <row r="933">
@@ -10627,7 +10627,7 @@
         <v>4.608893483619839</v>
       </c>
       <c r="C933" t="n">
-        <v>5.961025989004789e-80</v>
+        <v>5.997716211882816e-80</v>
       </c>
     </row>
     <row r="934">
@@ -10638,7 +10638,7 @@
         <v>4.609810691102703</v>
       </c>
       <c r="C934" t="n">
-        <v>5.514767298088091e-80</v>
+        <v>5.54914903143994e-80</v>
       </c>
     </row>
     <row r="935">
@@ -10649,7 +10649,7 @@
         <v>4.610727898585568</v>
       </c>
       <c r="C935" t="n">
-        <v>5.029959760011991e-80</v>
+        <v>5.059273552358762e-80</v>
       </c>
     </row>
     <row r="936">
@@ -10660,7 +10660,7 @@
         <v>4.611645106068433</v>
       </c>
       <c r="C936" t="n">
-        <v>4.528437658438517e-80</v>
+        <v>4.552347798165156e-80</v>
       </c>
     </row>
     <row r="937">
@@ -10671,7 +10671,7 @@
         <v>4.612562313551298</v>
       </c>
       <c r="C937" t="n">
-        <v>4.029138344203375e-80</v>
+        <v>4.049227734893923e-80</v>
       </c>
     </row>
     <row r="938">
@@ -10682,7 +10682,7 @@
         <v>4.613479521034163</v>
       </c>
       <c r="C938" t="n">
-        <v>3.540417402289411e-80</v>
+        <v>3.558342469571828e-80</v>
       </c>
     </row>
     <row r="939">
@@ -10693,7 +10693,7 @@
         <v>4.614396728517028</v>
       </c>
       <c r="C939" t="n">
-        <v>3.068214980151403e-80</v>
+        <v>3.085284503122128e-80</v>
       </c>
     </row>
     <row r="940">
@@ -10704,7 +10704,7 @@
         <v>4.615313935999893</v>
       </c>
       <c r="C940" t="n">
-        <v>2.618471225244129e-80</v>
+        <v>2.635646336468087e-80</v>
       </c>
     </row>
     <row r="941">
@@ -10715,7 +10715,7 @@
         <v>4.616231143482758</v>
       </c>
       <c r="C941" t="n">
-        <v>2.19712628502237e-80</v>
+        <v>2.215020470532965e-80</v>
       </c>
     </row>
     <row r="942">
@@ -10726,7 +10726,7 @@
         <v>4.617148350965623</v>
       </c>
       <c r="C942" t="n">
-        <v>1.810120306940904e-80</v>
+        <v>1.828999406240024e-80</v>
       </c>
     </row>
     <row r="943">
@@ -10737,7 +10737,7 @@
         <v>4.618065558448488</v>
       </c>
       <c r="C943" t="n">
-        <v>1.463393438454509e-80</v>
+        <v>1.483175644512525e-80</v>
       </c>
     </row>
     <row r="944">
@@ -10748,7 +10748,7 @@
         <v>4.618982765931353</v>
       </c>
       <c r="C944" t="n">
-        <v>1.162885827017964e-80</v>
+        <v>1.18314168627373e-80</v>
       </c>
     </row>
     <row r="945">
@@ -10759,7 +10759,7 @@
         <v>4.619899973414217</v>
       </c>
       <c r="C945" t="n">
-        <v>9.145376200862625e-81</v>
+        <v>9.344900324471147e-81</v>
       </c>
     </row>
     <row r="946">
@@ -10770,7 +10770,7 @@
         <v>4.620817180897083</v>
       </c>
       <c r="C946" t="n">
-        <v>7.241709041768379e-81</v>
+        <v>7.427009867349742e-81</v>
       </c>
     </row>
     <row r="947">
@@ -10781,7 +10781,7 @@
         <v>4.621734388379947</v>
       </c>
       <c r="C947" t="n">
-        <v>5.893733572798889e-81</v>
+        <v>6.054294215535053e-81</v>
       </c>
     </row>
     <row r="948">
@@ -10792,7 +10792,7 @@
         <v>4.622651595862813</v>
       </c>
       <c r="C948" t="n">
-        <v>4.942595984523248e-81</v>
+        <v>5.07526314959162e-81</v>
       </c>
     </row>
     <row r="949">
@@ -10803,7 +10803,7 @@
         <v>4.623568803345677</v>
       </c>
       <c r="C949" t="n">
-        <v>4.21793123063883e-81</v>
+        <v>4.327455902079928e-81</v>
       </c>
     </row>
     <row r="950">
@@ -10814,7 +10814,7 @@
         <v>4.624486010828542</v>
       </c>
       <c r="C950" t="n">
-        <v>3.610725642985158e-81</v>
+        <v>3.704710692827277e-81</v>
       </c>
     </row>
     <row r="951">
@@ -10825,7 +10825,7 @@
         <v>4.625403218311407</v>
       </c>
       <c r="C951" t="n">
-        <v>3.109664471305443e-81</v>
+        <v>3.190518986652233e-81</v>
       </c>
     </row>
     <row r="952">
@@ -10836,7 +10836,7 @@
         <v>4.626320425794272</v>
       </c>
       <c r="C952" t="n">
-        <v>2.711262330880265e-81</v>
+        <v>2.776106098483185e-81</v>
       </c>
     </row>
     <row r="953">
@@ -10847,7 +10847,7 @@
         <v>4.627237633277137</v>
       </c>
       <c r="C953" t="n">
-        <v>2.405490670026797e-81</v>
+        <v>2.450745713733133e-81</v>
       </c>
     </row>
     <row r="954">
@@ -10858,7 +10858,7 @@
         <v>4.628154840760001</v>
       </c>
       <c r="C954" t="n">
-        <v>2.179392419811886e-81</v>
+        <v>2.202838029375302e-81</v>
       </c>
     </row>
     <row r="955">
@@ -10869,7 +10869,7 @@
         <v>4.629072048242866</v>
       </c>
       <c r="C955" t="n">
-        <v>2.019996786235144e-81</v>
+        <v>2.020779148608988e-81</v>
       </c>
     </row>
     <row r="956">
@@ -10880,7 +10880,7 @@
         <v>4.629989255725731</v>
       </c>
       <c r="C956" t="n">
-        <v>1.914332975296181e-81</v>
+        <v>1.892965174633488e-81</v>
       </c>
     </row>
     <row r="957">
@@ -10891,7 +10891,7 @@
         <v>4.630906463208596</v>
       </c>
       <c r="C957" t="n">
-        <v>1.849430192994609e-81</v>
+        <v>1.8077922106481e-81</v>
       </c>
     </row>
     <row r="958">
@@ -10902,7 +10902,7 @@
         <v>4.631823670691461</v>
       </c>
       <c r="C958" t="n">
-        <v>1.812326454567146e-81</v>
+        <v>1.753663846307228e-81</v>
       </c>
     </row>
     <row r="959">
@@ -10913,7 +10913,7 @@
         <v>4.632740878174326</v>
       </c>
       <c r="C959" t="n">
-        <v>1.79304610663e-81</v>
+        <v>1.72152157954666e-81</v>
       </c>
     </row>
     <row r="960">
@@ -10924,7 +10924,7 @@
         <v>4.633658085657191</v>
       </c>
       <c r="C960" t="n">
-        <v>1.788933971835834e-81</v>
+        <v>1.708528152496387e-81</v>
       </c>
     </row>
     <row r="961">
@@ -10935,7 +10935,7 @@
         <v>4.634575293140056</v>
       </c>
       <c r="C961" t="n">
-        <v>1.798436027475775e-81</v>
+        <v>1.712782114174821e-81</v>
       </c>
     </row>
     <row r="962">
@@ -10946,7 +10946,7 @@
         <v>4.635492500622921</v>
       </c>
       <c r="C962" t="n">
-        <v>1.819998250840948e-81</v>
+        <v>1.732382013600374e-81</v>
       </c>
     </row>
     <row r="963">
@@ -10957,7 +10957,7 @@
         <v>4.636409708105786</v>
       </c>
       <c r="C963" t="n">
-        <v>1.852066619222479e-81</v>
+        <v>1.765426399791457e-81</v>
       </c>
     </row>
     <row r="964">
@@ -10968,7 +10968,7 @@
         <v>4.637326915588651</v>
       </c>
       <c r="C964" t="n">
-        <v>1.893087109911492e-81</v>
+        <v>1.810013821766483e-81</v>
       </c>
     </row>
     <row r="965">
@@ -10979,7 +10979,7 @@
         <v>4.638244123071516</v>
       </c>
       <c r="C965" t="n">
-        <v>1.941505700199112e-81</v>
+        <v>1.864242828543862e-81</v>
       </c>
     </row>
     <row r="966">
@@ -10990,7 +10990,7 @@
         <v>4.639161330554381</v>
       </c>
       <c r="C966" t="n">
-        <v>1.995768367376467e-81</v>
+        <v>1.926211969142007e-81</v>
       </c>
     </row>
     <row r="967">
@@ -11001,7 +11001,7 @@
         <v>4.640078538037246</v>
       </c>
       <c r="C967" t="n">
-        <v>2.054321088734679e-81</v>
+        <v>1.99401979257933e-81</v>
       </c>
     </row>
     <row r="968">
@@ -11012,7 +11012,7 @@
         <v>4.640995745520111</v>
       </c>
       <c r="C968" t="n">
-        <v>2.115609841564875e-81</v>
+        <v>2.065764847874241e-81</v>
       </c>
     </row>
     <row r="969">
@@ -11023,7 +11023,7 @@
         <v>4.641912953002976</v>
       </c>
       <c r="C969" t="n">
-        <v>2.17808060315818e-81</v>
+        <v>2.139545684045154e-81</v>
       </c>
     </row>
     <row r="970">
@@ -11034,7 +11034,7 @@
         <v>4.642830160485841</v>
       </c>
       <c r="C970" t="n">
-        <v>2.240179350805719e-81</v>
+        <v>2.213460850110479e-81</v>
       </c>
     </row>
     <row r="971">
@@ -11045,7 +11045,7 @@
         <v>4.643747367968706</v>
       </c>
       <c r="C971" t="n">
-        <v>2.300352061798617e-81</v>
+        <v>2.285608895088629e-81</v>
       </c>
     </row>
     <row r="972">
@@ -11056,7 +11056,7 @@
         <v>4.644664575451571</v>
       </c>
       <c r="C972" t="n">
-        <v>2.357044713428001e-81</v>
+        <v>2.354088367998014e-81</v>
       </c>
     </row>
     <row r="973">
@@ -11067,7 +11067,7 @@
         <v>4.645581782934435</v>
       </c>
       <c r="C973" t="n">
-        <v>2.408703282984995e-81</v>
+        <v>2.416997817857048e-81</v>
       </c>
     </row>
     <row r="974">
@@ -11078,7 +11078,7 @@
         <v>4.6464989904173</v>
       </c>
       <c r="C974" t="n">
-        <v>2.453773747760724e-81</v>
+        <v>2.47243579368414e-81</v>
       </c>
     </row>
     <row r="975">
@@ -11089,7 +11089,7 @@
         <v>4.647416197900165</v>
       </c>
       <c r="C975" t="n">
-        <v>2.490702085046313e-81</v>
+        <v>2.518500844497703e-81</v>
       </c>
     </row>
     <row r="976">
@@ -11100,7 +11100,7 @@
         <v>4.64833340538303</v>
       </c>
       <c r="C976" t="n">
-        <v>2.517934272132889e-81</v>
+        <v>2.55329151931615e-81</v>
       </c>
     </row>
     <row r="977">
@@ -11111,7 +11111,7 @@
         <v>4.649250612865895</v>
       </c>
       <c r="C977" t="n">
-        <v>2.533916286311575e-81</v>
+        <v>2.574906367157893e-81</v>
       </c>
     </row>
     <row r="978">
@@ -11122,7 +11122,7 @@
         <v>4.65016782034876</v>
       </c>
       <c r="C978" t="n">
-        <v>2.537163522005754e-81</v>
+        <v>2.581530799026781e-81</v>
       </c>
     </row>
     <row r="979">
@@ -11133,7 +11133,7 @@
         <v>4.651085027831625</v>
       </c>
       <c r="C979" t="n">
-        <v>2.527492623492992e-81</v>
+        <v>2.572978486014879e-81</v>
       </c>
     </row>
     <row r="980">
@@ -11144,7 +11144,7 @@
         <v>4.65200223531449</v>
       </c>
       <c r="C980" t="n">
-        <v>2.505875901752672e-81</v>
+        <v>2.550509190416318e-81</v>
       </c>
     </row>
     <row r="981">
@@ -11155,7 +11155,7 @@
         <v>4.652919442797355</v>
       </c>
       <c r="C981" t="n">
-        <v>2.473325839715709e-81</v>
+        <v>2.515432941877914e-81</v>
       </c>
     </row>
     <row r="982">
@@ -11166,7 +11166,7 @@
         <v>4.653836650280219</v>
       </c>
       <c r="C982" t="n">
-        <v>2.430854920313069e-81</v>
+        <v>2.469059770046537e-81</v>
       </c>
     </row>
     <row r="983">
@@ -11177,7 +11177,7 @@
         <v>4.654753857763085</v>
       </c>
       <c r="C983" t="n">
-        <v>2.379475626475535e-81</v>
+        <v>2.412699704568855e-81</v>
       </c>
     </row>
     <row r="984">
@@ -11188,7 +11188,7 @@
         <v>4.655671065245949</v>
       </c>
       <c r="C984" t="n">
-        <v>2.320200441134219e-81</v>
+        <v>2.347662775091901e-81</v>
       </c>
     </row>
     <row r="985">
@@ -11199,7 +11199,7 @@
         <v>4.656588272728815</v>
       </c>
       <c r="C985" t="n">
-        <v>2.254041847219815e-81</v>
+        <v>2.275259011262245e-81</v>
       </c>
     </row>
     <row r="986">
@@ -11210,7 +11210,7 @@
         <v>4.657505480211679</v>
       </c>
       <c r="C986" t="n">
-        <v>2.182012327663494e-81</v>
+        <v>2.196798442726981e-81</v>
       </c>
     </row>
     <row r="987">
@@ -11221,7 +11221,7 @@
         <v>4.658422687694544</v>
       </c>
       <c r="C987" t="n">
-        <v>2.105124365395974e-81</v>
+        <v>2.11359109913271e-81</v>
       </c>
     </row>
     <row r="988">
@@ -11232,7 +11232,7 @@
         <v>4.659339895177409</v>
       </c>
       <c r="C988" t="n">
-        <v>2.02439044334824e-81</v>
+        <v>2.026947010126321e-81</v>
       </c>
     </row>
     <row r="989">
@@ -11243,7 +11243,7 @@
         <v>4.660257102660274</v>
       </c>
       <c r="C989" t="n">
-        <v>1.94082304445121e-81</v>
+        <v>1.938176205354634e-81</v>
       </c>
     </row>
     <row r="990">
@@ -11254,7 +11254,7 @@
         <v>4.661174310143139</v>
       </c>
       <c r="C990" t="n">
-        <v>1.855434651635803e-81</v>
+        <v>1.848588714464465e-81</v>
       </c>
     </row>
     <row r="991">
@@ -11265,7 +11265,7 @@
         <v>4.662091517626004</v>
       </c>
       <c r="C991" t="n">
-        <v>1.769237747832937e-81</v>
+        <v>1.759494567102634e-81</v>
       </c>
     </row>
     <row r="992">
@@ -11276,7 +11276,7 @@
         <v>4.663008725108869</v>
       </c>
       <c r="C992" t="n">
-        <v>1.683244815973531e-81</v>
+        <v>1.672203792915956e-81</v>
       </c>
     </row>
     <row r="993">
@@ -11287,7 +11287,7 @@
         <v>4.663925932591733</v>
       </c>
       <c r="C993" t="n">
-        <v>1.598468338988503e-81</v>
+        <v>1.588026421551253e-81</v>
       </c>
     </row>
     <row r="994">
@@ -11298,7 +11298,7 @@
         <v>4.664843140074598</v>
       </c>
       <c r="C994" t="n">
-        <v>1.51592079980877e-81</v>
+        <v>1.508272482655339e-81</v>
       </c>
     </row>
     <row r="995">
@@ -11309,7 +11309,7 @@
         <v>4.665760347557463</v>
       </c>
       <c r="C995" t="n">
-        <v>1.436614681365251e-81</v>
+        <v>1.434252005875035e-81</v>
       </c>
     </row>
     <row r="996">
@@ -11320,7 +11320,7 @@
         <v>4.666677555040328</v>
       </c>
       <c r="C996" t="n">
-        <v>1.361562466588866e-81</v>
+        <v>1.367275020857158e-81</v>
       </c>
     </row>
     <row r="997">
@@ -11331,7 +11331,7 @@
         <v>4.667594762523193</v>
       </c>
       <c r="C997" t="n">
-        <v>1.29177663841053e-81</v>
+        <v>1.308651557248525e-81</v>
       </c>
     </row>
     <row r="998">
@@ -11342,7 +11342,7 @@
         <v>4.668511970006058</v>
       </c>
       <c r="C998" t="n">
-        <v>1.227777860730827e-81</v>
+        <v>1.258768884364414e-81</v>
       </c>
     </row>
     <row r="999">
@@ -11353,7 +11353,7 @@
         <v>4.669429177488923</v>
       </c>
       <c r="C999" t="n">
-        <v>1.163870787121301e-81</v>
+        <v>1.206351673291337e-81</v>
       </c>
     </row>
     <row r="1000">
@@ -11364,7 +11364,7 @@
         <v>4.670346384971788</v>
       </c>
       <c r="C1000" t="n">
-        <v>1.090099537293301e-81</v>
+        <v>1.132130899478048e-81</v>
       </c>
     </row>
     <row r="1001">
@@ -11375,7 +11375,7 @@
         <v>4.671263592454653</v>
       </c>
       <c r="C1001" t="n">
-        <v>9.964250848117324e-82</v>
+        <v>1.01668153797289e-81</v>
       </c>
     </row>
   </sheetData>
